--- a/Dự án cây xanh/testcase_CayXanh.xlsx
+++ b/Dự án cây xanh/testcase_CayXanh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InternTester\Project\Dự án cây xanh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB677B0-2CCE-42DD-A9EE-FFFEFC668722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49C4EA3-B205-4E5D-8CAD-ECEADA766A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="3" r:id="rId1"/>
@@ -997,7 +997,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="613">
   <si>
     <t>PR030.FM04</t>
   </si>
@@ -1086,40 +1086,7 @@
     <t>Cơ sở thay đổi</t>
   </si>
   <si>
-    <t>[dd/MM/yy]</t>
-  </si>
-  <si>
-    <t>[1.0]</t>
-  </si>
-  <si>
-    <t>[First creation]</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>[ABC]</t>
-  </si>
-  <si>
-    <t>[DEF]</t>
-  </si>
-  <si>
-    <t>[Tài liệu đặc tả v.doc;]</t>
-  </si>
-  <si>
-    <t>[1.1]</t>
-  </si>
-  <si>
-    <t>[Add XYZ sheet]</t>
-  </si>
-  <si>
     <t>Mới</t>
-  </si>
-  <si>
-    <t>[Tài liệu đặc tả v.doc; ..._SRS_v1.0;]</t>
-  </si>
-  <si>
-    <t>Cập nhật</t>
   </si>
   <si>
     <t>DANH SÁCH TESTCASE</t>
@@ -2974,13 +2941,6 @@
 3. Chọn tìm kiếm nâng cao</t>
   </si>
   <si>
-    <t>1. Nhập dữ liệu cây xanh tìm kiếm 
-(Ví dụ: Tùng bút)
-2. Chọn Lớp chuyên đề 
-(Ví dụ: Cây xanh)
-3. Nhấn Tìm kiếm</t>
-  </si>
-  <si>
     <t>1. Tìm kiếm thành công 
 2. Hiển thị danh sách cây tương ứng với tiêu chí tìm kiếm.</t>
   </si>
@@ -2990,13 +2950,6 @@
 "Không tìm thấy dữ liệu tương ứng."</t>
   </si>
   <si>
-    <t>1. Nhập dữ liệu cây xanh tìm kiếm 
-(Ví dụ: Thanh)
-2. Chọn Lớp chuyên đề 
-(Ví dụ: Cây xanh)
-3. Nhấn Tìm kiếm</t>
-  </si>
-  <si>
     <t>Kiểm tra tìm kiếm cây xanh khi không có dữ liệu</t>
   </si>
   <si>
@@ -3004,12 +2957,6 @@
   </si>
   <si>
     <t>Kiểm tra tìm kiếm cây xanh khi không chọn lớp chuyên đề</t>
-  </si>
-  <si>
-    <t>1. Nhập dữ liệu cây xanh tìm kiếm 
-(Ví dụ: Phượng vàng)
-2. Không chọn lớp chuyên đề 
-3. Nhấn tìm kiếm</t>
   </si>
   <si>
     <t>1. Tìm kiếm thất bại.
@@ -3080,6 +3027,65 @@
   </si>
   <si>
     <t>Kiểm tra tính tương thích của giao diện quản lý nhân viên</t>
+  </si>
+  <si>
+    <t>Hoàng Thanh Tùng</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>29/04/2025</t>
+  </si>
+  <si>
+    <t>Tiến hành viết testcases</t>
+  </si>
+  <si>
+    <t>Văn Phước Hãi Tùng</t>
+  </si>
+  <si>
+    <t>Hủy việc tìm kiếm</t>
+  </si>
+  <si>
+    <t>1. Nhập dữ liệu cây xanh 
+(Ví dụ: Phượng vàng)
+2. Không chọn lớp chuyên đề 
+3. Nhấn tìm kiếm</t>
+  </si>
+  <si>
+    <t>1. Nhập dữ liệu cây xanh 
+(Ví dụ: Thanh)
+2. Chọn Lớp chuyên đề 
+(Ví dụ: Cây xanh)
+3. Nhấn Tìm kiếm</t>
+  </si>
+  <si>
+    <t>1. Nhập dữ liệu cây xanh  
+(Ví dụ: Tùng bút)
+2. Chọn Lớp chuyên đề 
+(Ví dụ: Cây xanh)
+3. Nhấn Tìm kiếm</t>
+  </si>
+  <si>
+    <t>1. Nhập dữ liệu cây xanh
+(Ví dụ: Phượng vàng)
+2. Chọn lớp chuyên đề
+(Ví dụ: Cây xanh)
+3. Nhấn Hủy</t>
+  </si>
+  <si>
+    <t>1. Tìm kiếm không thành công
+2. Hiển thị màn hình bản đồ cây xanh, không thực hiện chức năng tìm kiếm</t>
+  </si>
+  <si>
+    <t>TKCX05</t>
+  </si>
+  <si>
+    <t>1. Nhập dữ liệu thảm xanh tìm kiếm 
+(Ví dụ: CheckVuon)
+2. Chọn Lớp chuyên đề 
+(Ví dụ:  Thảm Xanh)
+3. Nhấn Hủy</t>
   </si>
 </sst>
 </file>
@@ -3886,6 +3892,15 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3915,15 +3930,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3956,7 +3962,35 @@
     <cellStyle name="Normal_LYCE-LearningPh1_Test Case_v1.0" xfId="3" xr:uid="{C6E0F88B-746F-4111-BEBC-8EDDBF203F5D}"/>
     <cellStyle name="Normal_Template_Test Case" xfId="2" xr:uid="{466F2C54-44A5-4738-9B45-C4F8E4EF2AD2}"/>
   </cellStyles>
-  <dxfs count="510">
+  <dxfs count="505">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="52"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="52"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3981,24 +4015,31 @@
     </dxf>
     <dxf>
       <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="52"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="52"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="52"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
       </font>
     </dxf>
     <dxf>
@@ -4061,6 +4102,13 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color indexed="52"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color auto="1"/>
       </font>
     </dxf>
@@ -4089,6 +4137,13 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color indexed="52"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color auto="1"/>
       </font>
     </dxf>
@@ -4103,6 +4158,28 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="52"/>
       </font>
     </dxf>
@@ -4124,79 +4201,22 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color indexed="52"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color auto="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="52"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="52"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="52"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="52"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
       </font>
     </dxf>
     <dxf>
@@ -4259,6 +4279,27 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color indexed="52"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="52"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="52"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color auto="1"/>
       </font>
     </dxf>
@@ -4273,6 +4314,13 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="52"/>
       </font>
     </dxf>
@@ -4281,69 +4329,6 @@
         <condense val="0"/>
         <extend val="0"/>
         <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="52"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="52"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="52"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="52"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="52"/>
       </font>
     </dxf>
     <dxf>
@@ -4697,6 +4682,13 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color indexed="52"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color auto="1"/>
       </font>
     </dxf>
@@ -4711,6 +4703,20 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color indexed="52"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="52"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color auto="1"/>
       </font>
     </dxf>
@@ -4725,6 +4731,13 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="52"/>
       </font>
     </dxf>
@@ -4732,56 +4745,14 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="52"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="52"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="52"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="52"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
       </font>
     </dxf>
     <dxf>
@@ -8756,7 +8727,7 @@
   <dimension ref="B1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -8767,8 +8738,8 @@
     <col min="4" max="4" width="9.7265625" style="1" customWidth="1"/>
     <col min="5" max="5" width="33.36328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.08984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.90625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7265625" style="1" customWidth="1"/>
     <col min="9" max="9" width="39.90625" style="1" customWidth="1"/>
     <col min="10" max="10" width="0.6328125" style="1" customWidth="1"/>
     <col min="11" max="256" width="9" style="1"/>
@@ -9526,61 +9497,41 @@
         <v>1</v>
       </c>
       <c r="C6" s="33" t="s">
+        <v>602</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>601</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>603</v>
+      </c>
+      <c r="F6" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>32</v>
-      </c>
       <c r="G6" s="35" t="s">
-        <v>33</v>
+        <v>600</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="37" t="s">
-        <v>35</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="I6" s="37"/>
     </row>
     <row r="7" spans="2:9" s="27" customFormat="1" ht="15.5">
-      <c r="B7" s="38">
-        <v>2</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="43" t="s">
-        <v>39</v>
-      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="2:9" s="44" customFormat="1" ht="15.5">
       <c r="B8" s="45"/>
       <c r="C8" s="46"/>
       <c r="D8" s="47"/>
       <c r="E8" s="48"/>
-      <c r="F8" s="35" t="s">
-        <v>40</v>
-      </c>
+      <c r="F8" s="35"/>
       <c r="G8" s="49"/>
       <c r="H8" s="49"/>
       <c r="I8" s="50"/>
@@ -9697,8 +9648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E13F9F7-9F25-4377-892A-C50EDFDFC2E4}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13"/>
@@ -10692,29 +10643,29 @@
     </row>
     <row r="3" spans="1:16" ht="16.5">
       <c r="A3" s="143" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B3" s="143"/>
       <c r="C3" s="143"/>
       <c r="D3" s="143"/>
       <c r="F3" s="139" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G3" s="139"/>
       <c r="H3" s="139"/>
       <c r="J3" s="139" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K3" s="139"/>
       <c r="L3" s="139"/>
     </row>
     <row r="4" spans="1:16" ht="16.5">
       <c r="A4" s="59" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="60" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="D4" s="60"/>
       <c r="E4" s="61"/>
@@ -10752,11 +10703,11 @@
     </row>
     <row r="5" spans="1:16" ht="59.5" customHeight="1">
       <c r="A5" s="59" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B5" s="59"/>
       <c r="C5" s="142" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="D5" s="142"/>
       <c r="E5" s="65"/>
@@ -10784,11 +10735,11 @@
     </row>
     <row r="6" spans="1:16" ht="16.5">
       <c r="A6" s="68" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B6" s="68"/>
       <c r="C6" s="142" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D6" s="142"/>
       <c r="E6" s="65"/>
@@ -10816,7 +10767,7 @@
     </row>
     <row r="7" spans="1:16" ht="16.5">
       <c r="A7" s="68" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B7" s="68"/>
       <c r="C7" s="142"/>
@@ -10828,7 +10779,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="63" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I7" s="65"/>
       <c r="J7" s="141"/>
@@ -10837,7 +10788,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="63" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="M7" s="67"/>
       <c r="N7" s="61"/>
@@ -10846,7 +10797,7 @@
     </row>
     <row r="8" spans="1:16" ht="16.5">
       <c r="A8" s="68" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="B8" s="114"/>
       <c r="C8" s="69"/>
@@ -10855,19 +10806,19 @@
       <c r="F8" s="69"/>
       <c r="G8" s="66">
         <f>COUNTA($A11:$A17)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8" s="63" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I8" s="70"/>
       <c r="J8" s="69"/>
       <c r="K8" s="66">
         <f>COUNTA($A11:$A17)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L8" s="63" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="M8" s="70"/>
       <c r="N8" s="70"/>
@@ -10876,36 +10827,36 @@
     </row>
     <row r="9" spans="1:16" ht="33">
       <c r="A9" s="71" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D9" s="71" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E9" s="66"/>
       <c r="F9" s="71" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G9" s="71" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H9" s="71" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I9" s="72"/>
       <c r="J9" s="71" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="K9" s="71" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="L9" s="71" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M9" s="73"/>
       <c r="N9" s="73"/>
@@ -10915,7 +10866,7 @@
     <row r="10" spans="1:16" ht="16.5">
       <c r="A10" s="71"/>
       <c r="B10" s="136" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="C10" s="136"/>
       <c r="D10" s="137"/>
@@ -10934,13 +10885,13 @@
     </row>
     <row r="11" spans="1:16" ht="66">
       <c r="A11" s="82" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="C11" s="83" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="D11" s="83"/>
       <c r="E11" s="64"/>
@@ -10958,16 +10909,16 @@
     </row>
     <row r="12" spans="1:16" s="101" customFormat="1" ht="82.5">
       <c r="A12" s="82" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="B12" s="83" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="C12" s="83" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="D12" s="83" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="E12" s="64"/>
       <c r="F12" s="83"/>
@@ -10982,16 +10933,16 @@
     </row>
     <row r="13" spans="1:16" s="101" customFormat="1" ht="82.5">
       <c r="A13" s="82" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="C13" s="83" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="D13" s="83" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="E13" s="64"/>
       <c r="F13" s="83"/>
@@ -11006,16 +10957,16 @@
     </row>
     <row r="14" spans="1:16" s="101" customFormat="1" ht="66">
       <c r="A14" s="82" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="B14" s="83" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="C14" s="83" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="D14" s="83" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="E14" s="64"/>
       <c r="F14" s="83"/>
@@ -11028,11 +10979,19 @@
       <c r="M14" s="85"/>
       <c r="N14" s="85"/>
     </row>
-    <row r="15" spans="1:16" s="101" customFormat="1" ht="16.5">
-      <c r="A15" s="82"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
+    <row r="15" spans="1:16" s="101" customFormat="1" ht="82.5">
+      <c r="A15" s="82" t="s">
+        <v>611</v>
+      </c>
+      <c r="B15" s="83" t="s">
+        <v>605</v>
+      </c>
+      <c r="C15" s="83" t="s">
+        <v>612</v>
+      </c>
+      <c r="D15" s="83" t="s">
+        <v>610</v>
+      </c>
       <c r="E15" s="64"/>
       <c r="F15" s="83"/>
       <c r="G15" s="84"/>
@@ -11092,114 +11051,127 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
   </mergeCells>
-  <conditionalFormatting sqref="B11:C11 H11:H17 L11:L17 F11:F17 J10:J17 B12:D15">
-    <cfRule type="expression" dxfId="26" priority="26" stopIfTrue="1">
+  <phoneticPr fontId="25" type="noConversion"/>
+  <conditionalFormatting sqref="B11:C11 B12:D14 J10:J17 F11:F17 H11:H17 L11:L17">
+    <cfRule type="expression" dxfId="27" priority="30" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="27" stopIfTrue="1">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:C17">
+    <cfRule type="expression" dxfId="26" priority="17" stopIfTrue="1">
+      <formula>#REF!="Pass"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="18" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:C17">
-    <cfRule type="expression" dxfId="24" priority="13" stopIfTrue="1">
+  <conditionalFormatting sqref="C11:D11">
+    <cfRule type="expression" dxfId="24" priority="28" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="29" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16:C17">
-    <cfRule type="expression" dxfId="22" priority="11" stopIfTrue="1">
+  <conditionalFormatting sqref="C16:D17">
+    <cfRule type="expression" dxfId="22" priority="12" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="13" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:D11">
-    <cfRule type="expression" dxfId="20" priority="24" stopIfTrue="1">
+  <conditionalFormatting sqref="D11:D14">
+    <cfRule type="expression" dxfId="20" priority="27" stopIfTrue="1">
+      <formula>#REF!="NA"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:D14 D16:D17">
+    <cfRule type="expression" dxfId="19" priority="14" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="25" stopIfTrue="1">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D17">
+    <cfRule type="expression" dxfId="18" priority="7" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D15">
-    <cfRule type="expression" dxfId="18" priority="23" stopIfTrue="1">
+  <conditionalFormatting sqref="E10:E17 I11:I17 M11:N17">
+    <cfRule type="expression" dxfId="17" priority="5" stopIfTrue="1">
+      <formula>#REF!="Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="expression" dxfId="16" priority="20" stopIfTrue="1">
+      <formula>#REF!="Pass"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="21" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D17">
-    <cfRule type="expression" dxfId="17" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="22" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D17">
-    <cfRule type="expression" dxfId="16" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="23" stopIfTrue="1">
+      <formula>#REF!="NA"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:G17 K11:K17">
+    <cfRule type="cellIs" dxfId="12" priority="25" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="26" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:I10">
+    <cfRule type="expression" dxfId="10" priority="24" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:J11">
+    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
+      <formula>#REF!="Pass"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="11" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D17">
-    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="J10:J17 B11:C11 F11:F17 H11:H17 L11:L17 B12:D14">
+    <cfRule type="expression" dxfId="7" priority="31" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E17 I11:I17 M11:N17">
-    <cfRule type="expression" dxfId="12" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="J16:J17">
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="11" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="9" stopIfTrue="1">
+      <formula>#REF!="NA"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10:N10">
+    <cfRule type="expression" dxfId="4" priority="19" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="19" stopIfTrue="1">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15 D15">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+      <formula>#REF!="Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15 D15">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="9" priority="16" stopIfTrue="1">
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="17" stopIfTrue="1">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G17 K11:K17">
-    <cfRule type="cellIs" dxfId="7" priority="21" stopIfTrue="1" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="22" stopIfTrue="1" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16:J17">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
-      <formula>#REF!="Pass"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
-      <formula>#REF!="NA"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10:I10">
-    <cfRule type="expression" dxfId="3" priority="20" stopIfTrue="1">
-      <formula>#REF!="Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10:J11">
-    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
-      <formula>#REF!="Pass"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
-      <formula>#REF!="NA"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L10:N10">
-    <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
-      <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -11217,7 +11189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
@@ -11229,8 +11201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA8087A-845E-4176-B636-6B8CDCAB0790}">
   <dimension ref="B1:IR29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13"/>
@@ -12070,9 +12042,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:21">
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
       <c r="U1" s="3" t="s">
         <v>0</v>
       </c>
@@ -12089,30 +12061,30 @@
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="2:21">
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127" t="s">
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="129"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="132"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="127" t="s">
+      <c r="M3" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="129"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="131"/>
+      <c r="S3" s="132"/>
       <c r="T3" s="5"/>
       <c r="U3" s="6"/>
     </row>
@@ -12139,50 +12111,50 @@
       <c r="U4" s="7"/>
     </row>
     <row r="5" spans="2:21">
-      <c r="B5" s="130" t="s">
+      <c r="B5" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="130"/>
-      <c r="D5" s="131" t="s">
+      <c r="C5" s="133"/>
+      <c r="D5" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="132" t="s">
+      <c r="E5" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="133" t="s">
+      <c r="F5" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133" t="s">
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="9"/>
-      <c r="M5" s="132" t="s">
+      <c r="M5" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="133" t="s">
+      <c r="N5" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="133"/>
-      <c r="P5" s="133"/>
-      <c r="Q5" s="133"/>
-      <c r="R5" s="133"/>
-      <c r="S5" s="133" t="s">
+      <c r="O5" s="125"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="125"/>
+      <c r="R5" s="125"/>
+      <c r="S5" s="125" t="s">
         <v>8</v>
       </c>
       <c r="T5" s="8"/>
-      <c r="U5" s="133" t="s">
+      <c r="U5" s="125" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:21">
-      <c r="B6" s="130"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="132"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="135"/>
       <c r="F6" s="8" t="s">
         <v>11</v>
       </c>
@@ -12198,9 +12170,9 @@
       <c r="J6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="133"/>
+      <c r="K6" s="125"/>
       <c r="L6" s="9"/>
-      <c r="M6" s="132"/>
+      <c r="M6" s="135"/>
       <c r="N6" s="8" t="s">
         <v>11</v>
       </c>
@@ -12216,15 +12188,15 @@
       <c r="R6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="133"/>
+      <c r="S6" s="125"/>
       <c r="T6" s="8"/>
-      <c r="U6" s="133"/>
+      <c r="U6" s="125"/>
     </row>
     <row r="7" spans="2:21">
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="134"/>
+      <c r="C7" s="123"/>
       <c r="D7" s="10" t="str">
         <f>[1]Function!C4</f>
         <v>login</v>
@@ -12277,8 +12249,8 @@
       <c r="U7" s="15"/>
     </row>
     <row r="8" spans="2:21">
-      <c r="B8" s="134"/>
-      <c r="C8" s="134"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="123"/>
       <c r="D8" s="10"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
@@ -12305,8 +12277,8 @@
       <c r="U8" s="15"/>
     </row>
     <row r="9" spans="2:21">
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="123"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
       <c r="F9" s="12"/>
@@ -12333,8 +12305,8 @@
       <c r="U9" s="15"/>
     </row>
     <row r="10" spans="2:21">
-      <c r="B10" s="134"/>
-      <c r="C10" s="134"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
       <c r="D10" s="10"/>
       <c r="E10" s="16"/>
       <c r="F10" s="12"/>
@@ -12361,8 +12333,8 @@
       <c r="U10" s="15"/>
     </row>
     <row r="11" spans="2:21">
-      <c r="B11" s="134"/>
-      <c r="C11" s="134"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
       <c r="D11" s="10"/>
       <c r="E11" s="16"/>
       <c r="F11" s="12"/>
@@ -12389,8 +12361,8 @@
       <c r="U11" s="15"/>
     </row>
     <row r="12" spans="2:21">
-      <c r="B12" s="134"/>
-      <c r="C12" s="134"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
       <c r="D12" s="10"/>
       <c r="E12" s="16"/>
       <c r="F12" s="12"/>
@@ -12417,8 +12389,8 @@
       <c r="U12" s="15"/>
     </row>
     <row r="13" spans="2:21">
-      <c r="B13" s="134"/>
-      <c r="C13" s="134"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="123"/>
       <c r="D13" s="10"/>
       <c r="E13" s="16"/>
       <c r="F13" s="12"/>
@@ -12445,8 +12417,8 @@
       <c r="U13" s="15"/>
     </row>
     <row r="14" spans="2:21">
-      <c r="B14" s="134"/>
-      <c r="C14" s="134"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="123"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
       <c r="F14" s="12"/>
@@ -12473,8 +12445,8 @@
       <c r="U14" s="15"/>
     </row>
     <row r="15" spans="2:21">
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="123"/>
       <c r="D15" s="10"/>
       <c r="E15" s="16"/>
       <c r="F15" s="12"/>
@@ -12501,8 +12473,8 @@
       <c r="U15" s="15"/>
     </row>
     <row r="16" spans="2:21">
-      <c r="B16" s="134"/>
-      <c r="C16" s="134"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="123"/>
       <c r="D16" s="10"/>
       <c r="E16" s="16"/>
       <c r="F16" s="12"/>
@@ -12529,8 +12501,8 @@
       <c r="U16" s="15"/>
     </row>
     <row r="17" spans="2:252">
-      <c r="B17" s="134"/>
-      <c r="C17" s="134"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
       <c r="D17" s="10"/>
       <c r="E17" s="16"/>
       <c r="F17" s="12"/>
@@ -12557,8 +12529,8 @@
       <c r="U17" s="15"/>
     </row>
     <row r="18" spans="2:252">
-      <c r="B18" s="134"/>
-      <c r="C18" s="134"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="123"/>
       <c r="D18" s="10"/>
       <c r="E18" s="16"/>
       <c r="F18" s="12"/>
@@ -12585,8 +12557,8 @@
       <c r="U18" s="15"/>
     </row>
     <row r="19" spans="2:252">
-      <c r="B19" s="134"/>
-      <c r="C19" s="134"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="123"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
       <c r="F19" s="12"/>
@@ -12613,8 +12585,8 @@
       <c r="U19" s="15"/>
     </row>
     <row r="20" spans="2:252">
-      <c r="B20" s="134"/>
-      <c r="C20" s="134"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="123"/>
       <c r="D20" s="10"/>
       <c r="E20" s="16"/>
       <c r="F20" s="12"/>
@@ -12641,8 +12613,8 @@
       <c r="U20" s="15"/>
     </row>
     <row r="21" spans="2:252">
-      <c r="B21" s="134"/>
-      <c r="C21" s="134"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="123"/>
       <c r="D21" s="10"/>
       <c r="E21" s="16"/>
       <c r="F21" s="12"/>
@@ -12669,8 +12641,8 @@
       <c r="U21" s="15"/>
     </row>
     <row r="22" spans="2:252">
-      <c r="B22" s="134"/>
-      <c r="C22" s="134"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="123"/>
       <c r="D22" s="10"/>
       <c r="E22" s="16"/>
       <c r="F22" s="12"/>
@@ -12697,8 +12669,8 @@
       <c r="U22" s="15"/>
     </row>
     <row r="23" spans="2:252">
-      <c r="B23" s="134"/>
-      <c r="C23" s="134"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="123"/>
       <c r="D23" s="10"/>
       <c r="E23" s="16"/>
       <c r="F23" s="12"/>
@@ -12725,8 +12697,8 @@
       <c r="U23" s="15"/>
     </row>
     <row r="24" spans="2:252">
-      <c r="B24" s="134"/>
-      <c r="C24" s="134"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="123"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
       <c r="F24" s="12"/>
@@ -12753,11 +12725,11 @@
       <c r="U24" s="15"/>
     </row>
     <row r="25" spans="2:252">
-      <c r="B25" s="135" t="s">
+      <c r="B25" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="135"/>
-      <c r="D25" s="135"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="124"/>
       <c r="E25" s="17" t="str">
         <f>IF(COUNTIF(E7:E24,"Failed")&gt;0,"Failed","Passed")</f>
         <v>Passed</v>
@@ -13077,16 +13049,16 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="M3:S3"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="N5:R5"/>
     <mergeCell ref="S5:S6"/>
@@ -13099,18 +13071,18 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="M3:S3"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Do not Edit this cell. It is filled automatically" sqref="E7:T25 JA7:JP25 SW7:TL25 ACS7:ADH25 AMO7:AND25 AWK7:AWZ25 BGG7:BGV25 BQC7:BQR25 BZY7:CAN25 CJU7:CKJ25 CTQ7:CUF25 DDM7:DEB25 DNI7:DNX25 DXE7:DXT25 EHA7:EHP25 EQW7:ERL25 FAS7:FBH25 FKO7:FLD25 FUK7:FUZ25 GEG7:GEV25 GOC7:GOR25 GXY7:GYN25 HHU7:HIJ25 HRQ7:HSF25 IBM7:ICB25 ILI7:ILX25 IVE7:IVT25 JFA7:JFP25 JOW7:JPL25 JYS7:JZH25 KIO7:KJD25 KSK7:KSZ25 LCG7:LCV25 LMC7:LMR25 LVY7:LWN25 MFU7:MGJ25 MPQ7:MQF25 MZM7:NAB25 NJI7:NJX25 NTE7:NTT25 ODA7:ODP25 OMW7:ONL25 OWS7:OXH25 PGO7:PHD25 PQK7:PQZ25 QAG7:QAV25 QKC7:QKR25 QTY7:QUN25 RDU7:REJ25 RNQ7:ROF25 RXM7:RYB25 SHI7:SHX25 SRE7:SRT25 TBA7:TBP25 TKW7:TLL25 TUS7:TVH25 UEO7:UFD25 UOK7:UOZ25 UYG7:UYV25 VIC7:VIR25 VRY7:VSN25 WBU7:WCJ25 WLQ7:WMF25 WVM7:WWB25 E65543:T65561 JA65543:JP65561 SW65543:TL65561 ACS65543:ADH65561 AMO65543:AND65561 AWK65543:AWZ65561 BGG65543:BGV65561 BQC65543:BQR65561 BZY65543:CAN65561 CJU65543:CKJ65561 CTQ65543:CUF65561 DDM65543:DEB65561 DNI65543:DNX65561 DXE65543:DXT65561 EHA65543:EHP65561 EQW65543:ERL65561 FAS65543:FBH65561 FKO65543:FLD65561 FUK65543:FUZ65561 GEG65543:GEV65561 GOC65543:GOR65561 GXY65543:GYN65561 HHU65543:HIJ65561 HRQ65543:HSF65561 IBM65543:ICB65561 ILI65543:ILX65561 IVE65543:IVT65561 JFA65543:JFP65561 JOW65543:JPL65561 JYS65543:JZH65561 KIO65543:KJD65561 KSK65543:KSZ65561 LCG65543:LCV65561 LMC65543:LMR65561 LVY65543:LWN65561 MFU65543:MGJ65561 MPQ65543:MQF65561 MZM65543:NAB65561 NJI65543:NJX65561 NTE65543:NTT65561 ODA65543:ODP65561 OMW65543:ONL65561 OWS65543:OXH65561 PGO65543:PHD65561 PQK65543:PQZ65561 QAG65543:QAV65561 QKC65543:QKR65561 QTY65543:QUN65561 RDU65543:REJ65561 RNQ65543:ROF65561 RXM65543:RYB65561 SHI65543:SHX65561 SRE65543:SRT65561 TBA65543:TBP65561 TKW65543:TLL65561 TUS65543:TVH65561 UEO65543:UFD65561 UOK65543:UOZ65561 UYG65543:UYV65561 VIC65543:VIR65561 VRY65543:VSN65561 WBU65543:WCJ65561 WLQ65543:WMF65561 WVM65543:WWB65561 E131079:T131097 JA131079:JP131097 SW131079:TL131097 ACS131079:ADH131097 AMO131079:AND131097 AWK131079:AWZ131097 BGG131079:BGV131097 BQC131079:BQR131097 BZY131079:CAN131097 CJU131079:CKJ131097 CTQ131079:CUF131097 DDM131079:DEB131097 DNI131079:DNX131097 DXE131079:DXT131097 EHA131079:EHP131097 EQW131079:ERL131097 FAS131079:FBH131097 FKO131079:FLD131097 FUK131079:FUZ131097 GEG131079:GEV131097 GOC131079:GOR131097 GXY131079:GYN131097 HHU131079:HIJ131097 HRQ131079:HSF131097 IBM131079:ICB131097 ILI131079:ILX131097 IVE131079:IVT131097 JFA131079:JFP131097 JOW131079:JPL131097 JYS131079:JZH131097 KIO131079:KJD131097 KSK131079:KSZ131097 LCG131079:LCV131097 LMC131079:LMR131097 LVY131079:LWN131097 MFU131079:MGJ131097 MPQ131079:MQF131097 MZM131079:NAB131097 NJI131079:NJX131097 NTE131079:NTT131097 ODA131079:ODP131097 OMW131079:ONL131097 OWS131079:OXH131097 PGO131079:PHD131097 PQK131079:PQZ131097 QAG131079:QAV131097 QKC131079:QKR131097 QTY131079:QUN131097 RDU131079:REJ131097 RNQ131079:ROF131097 RXM131079:RYB131097 SHI131079:SHX131097 SRE131079:SRT131097 TBA131079:TBP131097 TKW131079:TLL131097 TUS131079:TVH131097 UEO131079:UFD131097 UOK131079:UOZ131097 UYG131079:UYV131097 VIC131079:VIR131097 VRY131079:VSN131097 WBU131079:WCJ131097 WLQ131079:WMF131097 WVM131079:WWB131097 E196615:T196633 JA196615:JP196633 SW196615:TL196633 ACS196615:ADH196633 AMO196615:AND196633 AWK196615:AWZ196633 BGG196615:BGV196633 BQC196615:BQR196633 BZY196615:CAN196633 CJU196615:CKJ196633 CTQ196615:CUF196633 DDM196615:DEB196633 DNI196615:DNX196633 DXE196615:DXT196633 EHA196615:EHP196633 EQW196615:ERL196633 FAS196615:FBH196633 FKO196615:FLD196633 FUK196615:FUZ196633 GEG196615:GEV196633 GOC196615:GOR196633 GXY196615:GYN196633 HHU196615:HIJ196633 HRQ196615:HSF196633 IBM196615:ICB196633 ILI196615:ILX196633 IVE196615:IVT196633 JFA196615:JFP196633 JOW196615:JPL196633 JYS196615:JZH196633 KIO196615:KJD196633 KSK196615:KSZ196633 LCG196615:LCV196633 LMC196615:LMR196633 LVY196615:LWN196633 MFU196615:MGJ196633 MPQ196615:MQF196633 MZM196615:NAB196633 NJI196615:NJX196633 NTE196615:NTT196633 ODA196615:ODP196633 OMW196615:ONL196633 OWS196615:OXH196633 PGO196615:PHD196633 PQK196615:PQZ196633 QAG196615:QAV196633 QKC196615:QKR196633 QTY196615:QUN196633 RDU196615:REJ196633 RNQ196615:ROF196633 RXM196615:RYB196633 SHI196615:SHX196633 SRE196615:SRT196633 TBA196615:TBP196633 TKW196615:TLL196633 TUS196615:TVH196633 UEO196615:UFD196633 UOK196615:UOZ196633 UYG196615:UYV196633 VIC196615:VIR196633 VRY196615:VSN196633 WBU196615:WCJ196633 WLQ196615:WMF196633 WVM196615:WWB196633 E262151:T262169 JA262151:JP262169 SW262151:TL262169 ACS262151:ADH262169 AMO262151:AND262169 AWK262151:AWZ262169 BGG262151:BGV262169 BQC262151:BQR262169 BZY262151:CAN262169 CJU262151:CKJ262169 CTQ262151:CUF262169 DDM262151:DEB262169 DNI262151:DNX262169 DXE262151:DXT262169 EHA262151:EHP262169 EQW262151:ERL262169 FAS262151:FBH262169 FKO262151:FLD262169 FUK262151:FUZ262169 GEG262151:GEV262169 GOC262151:GOR262169 GXY262151:GYN262169 HHU262151:HIJ262169 HRQ262151:HSF262169 IBM262151:ICB262169 ILI262151:ILX262169 IVE262151:IVT262169 JFA262151:JFP262169 JOW262151:JPL262169 JYS262151:JZH262169 KIO262151:KJD262169 KSK262151:KSZ262169 LCG262151:LCV262169 LMC262151:LMR262169 LVY262151:LWN262169 MFU262151:MGJ262169 MPQ262151:MQF262169 MZM262151:NAB262169 NJI262151:NJX262169 NTE262151:NTT262169 ODA262151:ODP262169 OMW262151:ONL262169 OWS262151:OXH262169 PGO262151:PHD262169 PQK262151:PQZ262169 QAG262151:QAV262169 QKC262151:QKR262169 QTY262151:QUN262169 RDU262151:REJ262169 RNQ262151:ROF262169 RXM262151:RYB262169 SHI262151:SHX262169 SRE262151:SRT262169 TBA262151:TBP262169 TKW262151:TLL262169 TUS262151:TVH262169 UEO262151:UFD262169 UOK262151:UOZ262169 UYG262151:UYV262169 VIC262151:VIR262169 VRY262151:VSN262169 WBU262151:WCJ262169 WLQ262151:WMF262169 WVM262151:WWB262169 E327687:T327705 JA327687:JP327705 SW327687:TL327705 ACS327687:ADH327705 AMO327687:AND327705 AWK327687:AWZ327705 BGG327687:BGV327705 BQC327687:BQR327705 BZY327687:CAN327705 CJU327687:CKJ327705 CTQ327687:CUF327705 DDM327687:DEB327705 DNI327687:DNX327705 DXE327687:DXT327705 EHA327687:EHP327705 EQW327687:ERL327705 FAS327687:FBH327705 FKO327687:FLD327705 FUK327687:FUZ327705 GEG327687:GEV327705 GOC327687:GOR327705 GXY327687:GYN327705 HHU327687:HIJ327705 HRQ327687:HSF327705 IBM327687:ICB327705 ILI327687:ILX327705 IVE327687:IVT327705 JFA327687:JFP327705 JOW327687:JPL327705 JYS327687:JZH327705 KIO327687:KJD327705 KSK327687:KSZ327705 LCG327687:LCV327705 LMC327687:LMR327705 LVY327687:LWN327705 MFU327687:MGJ327705 MPQ327687:MQF327705 MZM327687:NAB327705 NJI327687:NJX327705 NTE327687:NTT327705 ODA327687:ODP327705 OMW327687:ONL327705 OWS327687:OXH327705 PGO327687:PHD327705 PQK327687:PQZ327705 QAG327687:QAV327705 QKC327687:QKR327705 QTY327687:QUN327705 RDU327687:REJ327705 RNQ327687:ROF327705 RXM327687:RYB327705 SHI327687:SHX327705 SRE327687:SRT327705 TBA327687:TBP327705 TKW327687:TLL327705 TUS327687:TVH327705 UEO327687:UFD327705 UOK327687:UOZ327705 UYG327687:UYV327705 VIC327687:VIR327705 VRY327687:VSN327705 WBU327687:WCJ327705 WLQ327687:WMF327705 WVM327687:WWB327705 E393223:T393241 JA393223:JP393241 SW393223:TL393241 ACS393223:ADH393241 AMO393223:AND393241 AWK393223:AWZ393241 BGG393223:BGV393241 BQC393223:BQR393241 BZY393223:CAN393241 CJU393223:CKJ393241 CTQ393223:CUF393241 DDM393223:DEB393241 DNI393223:DNX393241 DXE393223:DXT393241 EHA393223:EHP393241 EQW393223:ERL393241 FAS393223:FBH393241 FKO393223:FLD393241 FUK393223:FUZ393241 GEG393223:GEV393241 GOC393223:GOR393241 GXY393223:GYN393241 HHU393223:HIJ393241 HRQ393223:HSF393241 IBM393223:ICB393241 ILI393223:ILX393241 IVE393223:IVT393241 JFA393223:JFP393241 JOW393223:JPL393241 JYS393223:JZH393241 KIO393223:KJD393241 KSK393223:KSZ393241 LCG393223:LCV393241 LMC393223:LMR393241 LVY393223:LWN393241 MFU393223:MGJ393241 MPQ393223:MQF393241 MZM393223:NAB393241 NJI393223:NJX393241 NTE393223:NTT393241 ODA393223:ODP393241 OMW393223:ONL393241 OWS393223:OXH393241 PGO393223:PHD393241 PQK393223:PQZ393241 QAG393223:QAV393241 QKC393223:QKR393241 QTY393223:QUN393241 RDU393223:REJ393241 RNQ393223:ROF393241 RXM393223:RYB393241 SHI393223:SHX393241 SRE393223:SRT393241 TBA393223:TBP393241 TKW393223:TLL393241 TUS393223:TVH393241 UEO393223:UFD393241 UOK393223:UOZ393241 UYG393223:UYV393241 VIC393223:VIR393241 VRY393223:VSN393241 WBU393223:WCJ393241 WLQ393223:WMF393241 WVM393223:WWB393241 E458759:T458777 JA458759:JP458777 SW458759:TL458777 ACS458759:ADH458777 AMO458759:AND458777 AWK458759:AWZ458777 BGG458759:BGV458777 BQC458759:BQR458777 BZY458759:CAN458777 CJU458759:CKJ458777 CTQ458759:CUF458777 DDM458759:DEB458777 DNI458759:DNX458777 DXE458759:DXT458777 EHA458759:EHP458777 EQW458759:ERL458777 FAS458759:FBH458777 FKO458759:FLD458777 FUK458759:FUZ458777 GEG458759:GEV458777 GOC458759:GOR458777 GXY458759:GYN458777 HHU458759:HIJ458777 HRQ458759:HSF458777 IBM458759:ICB458777 ILI458759:ILX458777 IVE458759:IVT458777 JFA458759:JFP458777 JOW458759:JPL458777 JYS458759:JZH458777 KIO458759:KJD458777 KSK458759:KSZ458777 LCG458759:LCV458777 LMC458759:LMR458777 LVY458759:LWN458777 MFU458759:MGJ458777 MPQ458759:MQF458777 MZM458759:NAB458777 NJI458759:NJX458777 NTE458759:NTT458777 ODA458759:ODP458777 OMW458759:ONL458777 OWS458759:OXH458777 PGO458759:PHD458777 PQK458759:PQZ458777 QAG458759:QAV458777 QKC458759:QKR458777 QTY458759:QUN458777 RDU458759:REJ458777 RNQ458759:ROF458777 RXM458759:RYB458777 SHI458759:SHX458777 SRE458759:SRT458777 TBA458759:TBP458777 TKW458759:TLL458777 TUS458759:TVH458777 UEO458759:UFD458777 UOK458759:UOZ458777 UYG458759:UYV458777 VIC458759:VIR458777 VRY458759:VSN458777 WBU458759:WCJ458777 WLQ458759:WMF458777 WVM458759:WWB458777 E524295:T524313 JA524295:JP524313 SW524295:TL524313 ACS524295:ADH524313 AMO524295:AND524313 AWK524295:AWZ524313 BGG524295:BGV524313 BQC524295:BQR524313 BZY524295:CAN524313 CJU524295:CKJ524313 CTQ524295:CUF524313 DDM524295:DEB524313 DNI524295:DNX524313 DXE524295:DXT524313 EHA524295:EHP524313 EQW524295:ERL524313 FAS524295:FBH524313 FKO524295:FLD524313 FUK524295:FUZ524313 GEG524295:GEV524313 GOC524295:GOR524313 GXY524295:GYN524313 HHU524295:HIJ524313 HRQ524295:HSF524313 IBM524295:ICB524313 ILI524295:ILX524313 IVE524295:IVT524313 JFA524295:JFP524313 JOW524295:JPL524313 JYS524295:JZH524313 KIO524295:KJD524313 KSK524295:KSZ524313 LCG524295:LCV524313 LMC524295:LMR524313 LVY524295:LWN524313 MFU524295:MGJ524313 MPQ524295:MQF524313 MZM524295:NAB524313 NJI524295:NJX524313 NTE524295:NTT524313 ODA524295:ODP524313 OMW524295:ONL524313 OWS524295:OXH524313 PGO524295:PHD524313 PQK524295:PQZ524313 QAG524295:QAV524313 QKC524295:QKR524313 QTY524295:QUN524313 RDU524295:REJ524313 RNQ524295:ROF524313 RXM524295:RYB524313 SHI524295:SHX524313 SRE524295:SRT524313 TBA524295:TBP524313 TKW524295:TLL524313 TUS524295:TVH524313 UEO524295:UFD524313 UOK524295:UOZ524313 UYG524295:UYV524313 VIC524295:VIR524313 VRY524295:VSN524313 WBU524295:WCJ524313 WLQ524295:WMF524313 WVM524295:WWB524313 E589831:T589849 JA589831:JP589849 SW589831:TL589849 ACS589831:ADH589849 AMO589831:AND589849 AWK589831:AWZ589849 BGG589831:BGV589849 BQC589831:BQR589849 BZY589831:CAN589849 CJU589831:CKJ589849 CTQ589831:CUF589849 DDM589831:DEB589849 DNI589831:DNX589849 DXE589831:DXT589849 EHA589831:EHP589849 EQW589831:ERL589849 FAS589831:FBH589849 FKO589831:FLD589849 FUK589831:FUZ589849 GEG589831:GEV589849 GOC589831:GOR589849 GXY589831:GYN589849 HHU589831:HIJ589849 HRQ589831:HSF589849 IBM589831:ICB589849 ILI589831:ILX589849 IVE589831:IVT589849 JFA589831:JFP589849 JOW589831:JPL589849 JYS589831:JZH589849 KIO589831:KJD589849 KSK589831:KSZ589849 LCG589831:LCV589849 LMC589831:LMR589849 LVY589831:LWN589849 MFU589831:MGJ589849 MPQ589831:MQF589849 MZM589831:NAB589849 NJI589831:NJX589849 NTE589831:NTT589849 ODA589831:ODP589849 OMW589831:ONL589849 OWS589831:OXH589849 PGO589831:PHD589849 PQK589831:PQZ589849 QAG589831:QAV589849 QKC589831:QKR589849 QTY589831:QUN589849 RDU589831:REJ589849 RNQ589831:ROF589849 RXM589831:RYB589849 SHI589831:SHX589849 SRE589831:SRT589849 TBA589831:TBP589849 TKW589831:TLL589849 TUS589831:TVH589849 UEO589831:UFD589849 UOK589831:UOZ589849 UYG589831:UYV589849 VIC589831:VIR589849 VRY589831:VSN589849 WBU589831:WCJ589849 WLQ589831:WMF589849 WVM589831:WWB589849 E655367:T655385 JA655367:JP655385 SW655367:TL655385 ACS655367:ADH655385 AMO655367:AND655385 AWK655367:AWZ655385 BGG655367:BGV655385 BQC655367:BQR655385 BZY655367:CAN655385 CJU655367:CKJ655385 CTQ655367:CUF655385 DDM655367:DEB655385 DNI655367:DNX655385 DXE655367:DXT655385 EHA655367:EHP655385 EQW655367:ERL655385 FAS655367:FBH655385 FKO655367:FLD655385 FUK655367:FUZ655385 GEG655367:GEV655385 GOC655367:GOR655385 GXY655367:GYN655385 HHU655367:HIJ655385 HRQ655367:HSF655385 IBM655367:ICB655385 ILI655367:ILX655385 IVE655367:IVT655385 JFA655367:JFP655385 JOW655367:JPL655385 JYS655367:JZH655385 KIO655367:KJD655385 KSK655367:KSZ655385 LCG655367:LCV655385 LMC655367:LMR655385 LVY655367:LWN655385 MFU655367:MGJ655385 MPQ655367:MQF655385 MZM655367:NAB655385 NJI655367:NJX655385 NTE655367:NTT655385 ODA655367:ODP655385 OMW655367:ONL655385 OWS655367:OXH655385 PGO655367:PHD655385 PQK655367:PQZ655385 QAG655367:QAV655385 QKC655367:QKR655385 QTY655367:QUN655385 RDU655367:REJ655385 RNQ655367:ROF655385 RXM655367:RYB655385 SHI655367:SHX655385 SRE655367:SRT655385 TBA655367:TBP655385 TKW655367:TLL655385 TUS655367:TVH655385 UEO655367:UFD655385 UOK655367:UOZ655385 UYG655367:UYV655385 VIC655367:VIR655385 VRY655367:VSN655385 WBU655367:WCJ655385 WLQ655367:WMF655385 WVM655367:WWB655385 E720903:T720921 JA720903:JP720921 SW720903:TL720921 ACS720903:ADH720921 AMO720903:AND720921 AWK720903:AWZ720921 BGG720903:BGV720921 BQC720903:BQR720921 BZY720903:CAN720921 CJU720903:CKJ720921 CTQ720903:CUF720921 DDM720903:DEB720921 DNI720903:DNX720921 DXE720903:DXT720921 EHA720903:EHP720921 EQW720903:ERL720921 FAS720903:FBH720921 FKO720903:FLD720921 FUK720903:FUZ720921 GEG720903:GEV720921 GOC720903:GOR720921 GXY720903:GYN720921 HHU720903:HIJ720921 HRQ720903:HSF720921 IBM720903:ICB720921 ILI720903:ILX720921 IVE720903:IVT720921 JFA720903:JFP720921 JOW720903:JPL720921 JYS720903:JZH720921 KIO720903:KJD720921 KSK720903:KSZ720921 LCG720903:LCV720921 LMC720903:LMR720921 LVY720903:LWN720921 MFU720903:MGJ720921 MPQ720903:MQF720921 MZM720903:NAB720921 NJI720903:NJX720921 NTE720903:NTT720921 ODA720903:ODP720921 OMW720903:ONL720921 OWS720903:OXH720921 PGO720903:PHD720921 PQK720903:PQZ720921 QAG720903:QAV720921 QKC720903:QKR720921 QTY720903:QUN720921 RDU720903:REJ720921 RNQ720903:ROF720921 RXM720903:RYB720921 SHI720903:SHX720921 SRE720903:SRT720921 TBA720903:TBP720921 TKW720903:TLL720921 TUS720903:TVH720921 UEO720903:UFD720921 UOK720903:UOZ720921 UYG720903:UYV720921 VIC720903:VIR720921 VRY720903:VSN720921 WBU720903:WCJ720921 WLQ720903:WMF720921 WVM720903:WWB720921 E786439:T786457 JA786439:JP786457 SW786439:TL786457 ACS786439:ADH786457 AMO786439:AND786457 AWK786439:AWZ786457 BGG786439:BGV786457 BQC786439:BQR786457 BZY786439:CAN786457 CJU786439:CKJ786457 CTQ786439:CUF786457 DDM786439:DEB786457 DNI786439:DNX786457 DXE786439:DXT786457 EHA786439:EHP786457 EQW786439:ERL786457 FAS786439:FBH786457 FKO786439:FLD786457 FUK786439:FUZ786457 GEG786439:GEV786457 GOC786439:GOR786457 GXY786439:GYN786457 HHU786439:HIJ786457 HRQ786439:HSF786457 IBM786439:ICB786457 ILI786439:ILX786457 IVE786439:IVT786457 JFA786439:JFP786457 JOW786439:JPL786457 JYS786439:JZH786457 KIO786439:KJD786457 KSK786439:KSZ786457 LCG786439:LCV786457 LMC786439:LMR786457 LVY786439:LWN786457 MFU786439:MGJ786457 MPQ786439:MQF786457 MZM786439:NAB786457 NJI786439:NJX786457 NTE786439:NTT786457 ODA786439:ODP786457 OMW786439:ONL786457 OWS786439:OXH786457 PGO786439:PHD786457 PQK786439:PQZ786457 QAG786439:QAV786457 QKC786439:QKR786457 QTY786439:QUN786457 RDU786439:REJ786457 RNQ786439:ROF786457 RXM786439:RYB786457 SHI786439:SHX786457 SRE786439:SRT786457 TBA786439:TBP786457 TKW786439:TLL786457 TUS786439:TVH786457 UEO786439:UFD786457 UOK786439:UOZ786457 UYG786439:UYV786457 VIC786439:VIR786457 VRY786439:VSN786457 WBU786439:WCJ786457 WLQ786439:WMF786457 WVM786439:WWB786457 E851975:T851993 JA851975:JP851993 SW851975:TL851993 ACS851975:ADH851993 AMO851975:AND851993 AWK851975:AWZ851993 BGG851975:BGV851993 BQC851975:BQR851993 BZY851975:CAN851993 CJU851975:CKJ851993 CTQ851975:CUF851993 DDM851975:DEB851993 DNI851975:DNX851993 DXE851975:DXT851993 EHA851975:EHP851993 EQW851975:ERL851993 FAS851975:FBH851993 FKO851975:FLD851993 FUK851975:FUZ851993 GEG851975:GEV851993 GOC851975:GOR851993 GXY851975:GYN851993 HHU851975:HIJ851993 HRQ851975:HSF851993 IBM851975:ICB851993 ILI851975:ILX851993 IVE851975:IVT851993 JFA851975:JFP851993 JOW851975:JPL851993 JYS851975:JZH851993 KIO851975:KJD851993 KSK851975:KSZ851993 LCG851975:LCV851993 LMC851975:LMR851993 LVY851975:LWN851993 MFU851975:MGJ851993 MPQ851975:MQF851993 MZM851975:NAB851993 NJI851975:NJX851993 NTE851975:NTT851993 ODA851975:ODP851993 OMW851975:ONL851993 OWS851975:OXH851993 PGO851975:PHD851993 PQK851975:PQZ851993 QAG851975:QAV851993 QKC851975:QKR851993 QTY851975:QUN851993 RDU851975:REJ851993 RNQ851975:ROF851993 RXM851975:RYB851993 SHI851975:SHX851993 SRE851975:SRT851993 TBA851975:TBP851993 TKW851975:TLL851993 TUS851975:TVH851993 UEO851975:UFD851993 UOK851975:UOZ851993 UYG851975:UYV851993 VIC851975:VIR851993 VRY851975:VSN851993 WBU851975:WCJ851993 WLQ851975:WMF851993 WVM851975:WWB851993 E917511:T917529 JA917511:JP917529 SW917511:TL917529 ACS917511:ADH917529 AMO917511:AND917529 AWK917511:AWZ917529 BGG917511:BGV917529 BQC917511:BQR917529 BZY917511:CAN917529 CJU917511:CKJ917529 CTQ917511:CUF917529 DDM917511:DEB917529 DNI917511:DNX917529 DXE917511:DXT917529 EHA917511:EHP917529 EQW917511:ERL917529 FAS917511:FBH917529 FKO917511:FLD917529 FUK917511:FUZ917529 GEG917511:GEV917529 GOC917511:GOR917529 GXY917511:GYN917529 HHU917511:HIJ917529 HRQ917511:HSF917529 IBM917511:ICB917529 ILI917511:ILX917529 IVE917511:IVT917529 JFA917511:JFP917529 JOW917511:JPL917529 JYS917511:JZH917529 KIO917511:KJD917529 KSK917511:KSZ917529 LCG917511:LCV917529 LMC917511:LMR917529 LVY917511:LWN917529 MFU917511:MGJ917529 MPQ917511:MQF917529 MZM917511:NAB917529 NJI917511:NJX917529 NTE917511:NTT917529 ODA917511:ODP917529 OMW917511:ONL917529 OWS917511:OXH917529 PGO917511:PHD917529 PQK917511:PQZ917529 QAG917511:QAV917529 QKC917511:QKR917529 QTY917511:QUN917529 RDU917511:REJ917529 RNQ917511:ROF917529 RXM917511:RYB917529 SHI917511:SHX917529 SRE917511:SRT917529 TBA917511:TBP917529 TKW917511:TLL917529 TUS917511:TVH917529 UEO917511:UFD917529 UOK917511:UOZ917529 UYG917511:UYV917529 VIC917511:VIR917529 VRY917511:VSN917529 WBU917511:WCJ917529 WLQ917511:WMF917529 WVM917511:WWB917529 E983047:T983065 JA983047:JP983065 SW983047:TL983065 ACS983047:ADH983065 AMO983047:AND983065 AWK983047:AWZ983065 BGG983047:BGV983065 BQC983047:BQR983065 BZY983047:CAN983065 CJU983047:CKJ983065 CTQ983047:CUF983065 DDM983047:DEB983065 DNI983047:DNX983065 DXE983047:DXT983065 EHA983047:EHP983065 EQW983047:ERL983065 FAS983047:FBH983065 FKO983047:FLD983065 FUK983047:FUZ983065 GEG983047:GEV983065 GOC983047:GOR983065 GXY983047:GYN983065 HHU983047:HIJ983065 HRQ983047:HSF983065 IBM983047:ICB983065 ILI983047:ILX983065 IVE983047:IVT983065 JFA983047:JFP983065 JOW983047:JPL983065 JYS983047:JZH983065 KIO983047:KJD983065 KSK983047:KSZ983065 LCG983047:LCV983065 LMC983047:LMR983065 LVY983047:LWN983065 MFU983047:MGJ983065 MPQ983047:MQF983065 MZM983047:NAB983065 NJI983047:NJX983065 NTE983047:NTT983065 ODA983047:ODP983065 OMW983047:ONL983065 OWS983047:OXH983065 PGO983047:PHD983065 PQK983047:PQZ983065 QAG983047:QAV983065 QKC983047:QKR983065 QTY983047:QUN983065 RDU983047:REJ983065 RNQ983047:ROF983065 RXM983047:RYB983065 SHI983047:SHX983065 SRE983047:SRT983065 TBA983047:TBP983065 TKW983047:TLL983065 TUS983047:TVH983065 UEO983047:UFD983065 UOK983047:UOZ983065 UYG983047:UYV983065 VIC983047:VIR983065 VRY983047:VSN983065 WBU983047:WCJ983065 WLQ983047:WMF983065 WVM983047:WWB983065" xr:uid="{5DC26839-7A44-4A86-8483-D24256755A1D}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13123,8 +13095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F13DC-58E9-46C3-9FCE-C41968FC0D76}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="16.5"/>
@@ -14099,7 +14071,7 @@
     <row r="2" spans="1:14">
       <c r="G2" s="103">
         <f>COUNTBLANK(G11:G30)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="102"/>
       <c r="K2" s="103">
@@ -14110,36 +14082,37 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="138" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B3" s="138"/>
       <c r="C3" s="138"/>
       <c r="D3" s="138"/>
       <c r="F3" s="139" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G3" s="139"/>
       <c r="H3" s="139"/>
       <c r="J3" s="139" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K3" s="139"/>
       <c r="L3" s="139"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="59" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="104" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D4" s="104"/>
       <c r="E4" s="105"/>
       <c r="F4" s="140" t="str">
         <f>"TRẠNG THÁI:" &amp; CHAR(10) &amp; " " &amp; IF(G6=G8,"KHÔNG ÁP DỤNG",IF(G5&gt;0,"FAIL",IF(G4+G6=G8,"PASS","CHƯA HOÀN THÀNH -" &amp; CHAR(10) &amp; "XEM LẠI TRẠNG THÁI TỪNG CASE!")))</f>
         <v>TRẠNG THÁI:
- FAIL</v>
+ CHƯA HOÀN THÀNH -
+XEM LẠI TRẠNG THÁI TỪNG CASE!</v>
       </c>
       <c r="G4" s="106">
         <f>COUNTIF(G10:G44,"Pass")</f>
@@ -14167,18 +14140,18 @@
     </row>
     <row r="5" spans="1:14" ht="34" customHeight="1">
       <c r="A5" s="59" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B5" s="59"/>
       <c r="C5" s="142" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D5" s="142"/>
       <c r="E5" s="65"/>
       <c r="F5" s="141"/>
       <c r="G5" s="66">
         <f>COUNTIF(G10:G44,"Fail")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="63" t="s">
         <v>13</v>
@@ -14197,11 +14170,11 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="68" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B6" s="68"/>
       <c r="C6" s="142" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D6" s="142"/>
       <c r="E6" s="65"/>
@@ -14227,7 +14200,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="68" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B7" s="68"/>
       <c r="C7" s="142"/>
@@ -14236,10 +14209,10 @@
       <c r="F7" s="141"/>
       <c r="G7" s="66">
         <f>COUNTA(G10:G44)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="63" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I7" s="65"/>
       <c r="J7" s="141"/>
@@ -14248,14 +14221,14 @@
         <v>0</v>
       </c>
       <c r="L7" s="63" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="M7" s="65"/>
       <c r="N7" s="105"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="68" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="B8" s="89"/>
       <c r="C8" s="107"/>
@@ -14267,7 +14240,7 @@
         <v>32</v>
       </c>
       <c r="H8" s="63" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I8" s="108"/>
       <c r="J8" s="107"/>
@@ -14276,43 +14249,43 @@
         <v>32</v>
       </c>
       <c r="L8" s="63" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="M8" s="108"/>
       <c r="N8" s="108"/>
     </row>
     <row r="9" spans="1:14" ht="33">
       <c r="A9" s="71" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D9" s="71" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E9" s="66"/>
       <c r="F9" s="71" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G9" s="71" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H9" s="71" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I9" s="72"/>
       <c r="J9" s="71" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="K9" s="71" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="L9" s="71" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M9" s="66"/>
       <c r="N9" s="66"/>
@@ -14320,7 +14293,7 @@
     <row r="10" spans="1:14">
       <c r="A10" s="71"/>
       <c r="B10" s="136" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C10" s="136"/>
       <c r="D10" s="137"/>
@@ -14337,22 +14310,20 @@
     </row>
     <row r="11" spans="1:14" ht="33">
       <c r="A11" s="82" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C11" s="83" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D11" s="83" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E11" s="64"/>
       <c r="F11" s="83"/>
-      <c r="G11" s="84" t="s">
-        <v>13</v>
-      </c>
+      <c r="G11" s="84"/>
       <c r="H11" s="83"/>
       <c r="I11" s="85"/>
       <c r="J11" s="83"/>
@@ -14363,16 +14334,16 @@
     </row>
     <row r="12" spans="1:14" ht="66">
       <c r="A12" s="82" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="B12" s="83" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C12" s="83" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D12" s="83" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E12" s="64"/>
       <c r="F12" s="83"/>
@@ -14387,16 +14358,16 @@
     </row>
     <row r="13" spans="1:14" ht="82.5">
       <c r="A13" s="82" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C13" s="83" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D13" s="83" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E13" s="64"/>
       <c r="F13" s="83"/>
@@ -14411,16 +14382,16 @@
     </row>
     <row r="14" spans="1:14" ht="82.5">
       <c r="A14" s="82" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="B14" s="83" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C14" s="83" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D14" s="83" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E14" s="64"/>
       <c r="F14" s="83"/>
@@ -14435,16 +14406,16 @@
     </row>
     <row r="15" spans="1:14" ht="49.5">
       <c r="A15" s="82" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="B15" s="83" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C15" s="83" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D15" s="83" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E15" s="64"/>
       <c r="F15" s="83"/>
@@ -14459,16 +14430,16 @@
     </row>
     <row r="16" spans="1:14" ht="49.5">
       <c r="A16" s="82" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="B16" s="83" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C16" s="83" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D16" s="83" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E16" s="64"/>
       <c r="F16" s="83"/>
@@ -14483,16 +14454,16 @@
     </row>
     <row r="17" spans="1:14" ht="33">
       <c r="A17" s="82" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="B17" s="83" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C17" s="83" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D17" s="83" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E17" s="64"/>
       <c r="F17" s="83"/>
@@ -14507,16 +14478,16 @@
     </row>
     <row r="18" spans="1:14" ht="49.5">
       <c r="A18" s="82" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C18" s="83" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D18" s="83" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E18" s="64"/>
       <c r="F18" s="83"/>
@@ -14531,16 +14502,16 @@
     </row>
     <row r="19" spans="1:14" ht="66">
       <c r="A19" s="82" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="B19" s="83" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C19" s="83" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D19" s="83" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E19" s="64"/>
       <c r="F19" s="83"/>
@@ -14555,16 +14526,16 @@
     </row>
     <row r="20" spans="1:14" ht="49.5">
       <c r="A20" s="82" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="B20" s="83" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C20" s="83" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D20" s="83" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E20" s="64"/>
       <c r="F20" s="83"/>
@@ -14579,16 +14550,16 @@
     </row>
     <row r="21" spans="1:14" ht="49.5">
       <c r="A21" s="82" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="B21" s="83" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C21" s="83" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D21" s="83" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E21" s="64"/>
       <c r="F21" s="83"/>
@@ -14603,16 +14574,16 @@
     </row>
     <row r="22" spans="1:14" ht="49.5">
       <c r="A22" s="82" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="B22" s="83" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C22" s="83" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D22" s="83" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E22" s="64"/>
       <c r="F22" s="83"/>
@@ -14627,16 +14598,16 @@
     </row>
     <row r="23" spans="1:14" ht="66">
       <c r="A23" s="82" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="B23" s="83" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C23" s="83" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D23" s="83" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E23" s="64"/>
       <c r="F23" s="83"/>
@@ -14651,16 +14622,16 @@
     </row>
     <row r="24" spans="1:14" ht="66">
       <c r="A24" s="82" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="B24" s="83" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C24" s="83" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D24" s="83" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E24" s="64"/>
       <c r="F24" s="83"/>
@@ -14675,16 +14646,16 @@
     </row>
     <row r="25" spans="1:14" ht="50.5" customHeight="1">
       <c r="A25" s="82" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="B25" s="83" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C25" s="83" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D25" s="83" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E25" s="64"/>
       <c r="F25" s="83"/>
@@ -14699,16 +14670,16 @@
     </row>
     <row r="26" spans="1:14" ht="49.5">
       <c r="A26" s="82" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="B26" s="83" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C26" s="83" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D26" s="83" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="E26" s="64"/>
       <c r="F26" s="83"/>
@@ -14723,16 +14694,16 @@
     </row>
     <row r="27" spans="1:14" ht="82.5">
       <c r="A27" s="82" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="B27" s="83" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C27" s="83" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D27" s="83" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E27" s="64"/>
       <c r="F27" s="83"/>
@@ -14747,16 +14718,16 @@
     </row>
     <row r="28" spans="1:14" ht="33">
       <c r="A28" s="82" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="B28" s="83" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C28" s="83" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D28" s="83" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E28" s="64"/>
       <c r="F28" s="83"/>
@@ -14771,16 +14742,16 @@
     </row>
     <row r="29" spans="1:14" ht="33">
       <c r="A29" s="82" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="B29" s="83" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C29" s="83" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D29" s="83" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E29" s="64"/>
       <c r="F29" s="83"/>
@@ -14795,16 +14766,16 @@
     </row>
     <row r="30" spans="1:14" ht="33">
       <c r="A30" s="82" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="B30" s="83" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C30" s="83" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D30" s="83" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E30" s="64"/>
       <c r="F30" s="83"/>
@@ -14819,16 +14790,16 @@
     </row>
     <row r="31" spans="1:14" ht="33">
       <c r="A31" s="82" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="B31" s="64" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C31" s="64" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D31" s="64" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E31" s="64"/>
       <c r="F31" s="64"/>
@@ -14843,16 +14814,16 @@
     </row>
     <row r="32" spans="1:14" ht="66">
       <c r="A32" s="82" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="B32" s="64" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C32" s="64" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D32" s="64" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E32" s="64"/>
       <c r="F32" s="64"/>
@@ -14867,16 +14838,16 @@
     </row>
     <row r="33" spans="1:14" ht="49.5">
       <c r="A33" s="82" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="B33" s="64" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C33" s="64" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D33" s="64" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E33" s="64"/>
       <c r="F33" s="64"/>
@@ -14891,16 +14862,16 @@
     </row>
     <row r="34" spans="1:14" ht="66">
       <c r="A34" s="82" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="B34" s="64" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C34" s="64" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D34" s="64" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E34" s="64"/>
       <c r="F34" s="64"/>
@@ -14915,16 +14886,16 @@
     </row>
     <row r="35" spans="1:14" ht="33">
       <c r="A35" s="82" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="B35" s="64" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C35" s="64" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D35" s="64" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="E35" s="64"/>
       <c r="F35" s="64"/>
@@ -14939,16 +14910,16 @@
     </row>
     <row r="36" spans="1:14" ht="82.5">
       <c r="A36" s="82" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="B36" s="64" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C36" s="64" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D36" s="64" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E36" s="64"/>
       <c r="F36" s="64"/>
@@ -14963,16 +14934,16 @@
     </row>
     <row r="37" spans="1:14" ht="49.5">
       <c r="A37" s="82" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="B37" s="64" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C37" s="64" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D37" s="64" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="E37" s="64"/>
       <c r="F37" s="64"/>
@@ -14987,16 +14958,16 @@
     </row>
     <row r="38" spans="1:14" ht="49.5">
       <c r="A38" s="82" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="B38" s="64" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C38" s="64" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="D38" s="64" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E38" s="64"/>
       <c r="F38" s="64"/>
@@ -15011,16 +14982,16 @@
     </row>
     <row r="39" spans="1:14" ht="33">
       <c r="A39" s="82" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="B39" s="64" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C39" s="64" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D39" s="64" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E39" s="64"/>
       <c r="F39" s="64"/>
@@ -15035,16 +15006,16 @@
     </row>
     <row r="40" spans="1:14" ht="33">
       <c r="A40" s="82" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="B40" s="64" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C40" s="64" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D40" s="64" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E40" s="64"/>
       <c r="F40" s="64"/>
@@ -15059,16 +15030,16 @@
     </row>
     <row r="41" spans="1:14" ht="33">
       <c r="A41" s="82" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="B41" s="64" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C41" s="64" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D41" s="64" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E41" s="64"/>
       <c r="F41" s="64"/>
@@ -15083,16 +15054,16 @@
     </row>
     <row r="42" spans="1:14" ht="33">
       <c r="A42" s="82" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="B42" s="96" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C42" s="110" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D42" s="111" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -15147,120 +15118,120 @@
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <conditionalFormatting sqref="B11:C14 D11:D41 F44 J44 F11:F41">
-    <cfRule type="expression" dxfId="509" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="504" priority="61" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C14 F11:F41 D15:D41 F44 J44">
-    <cfRule type="expression" dxfId="508" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="503" priority="62" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:D44">
-    <cfRule type="expression" dxfId="507" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="502" priority="56" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="506" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="501" priority="57" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:D14">
-    <cfRule type="expression" dxfId="505" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="500" priority="59" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="504" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="499" priority="60" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:D44 F44">
-    <cfRule type="expression" dxfId="503" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="498" priority="54" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="502" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="497" priority="55" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D14">
-    <cfRule type="expression" dxfId="501" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="496" priority="58" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E41 I11:I41 M11:N41 E44">
-    <cfRule type="expression" dxfId="500" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="495" priority="25" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F41 H11:H41 L11:L41 B15:D41">
-    <cfRule type="expression" dxfId="499" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="494" priority="23" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="498" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="493" priority="24" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10 J10:J41">
-    <cfRule type="expression" dxfId="497" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="492" priority="41" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="496" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="491" priority="42" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="495" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="490" priority="43" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="494" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="489" priority="44" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G41 K11:K41 G44 K44">
-    <cfRule type="cellIs" dxfId="493" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="48" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="492" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="49" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H14">
-    <cfRule type="expression" dxfId="491" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="486" priority="36" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="485" priority="37" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:I10">
-    <cfRule type="expression" dxfId="489" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="484" priority="45" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44:I44">
-    <cfRule type="expression" dxfId="488" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="483" priority="53" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="expression" dxfId="487" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="482" priority="51" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="481" priority="52" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:L14">
-    <cfRule type="expression" dxfId="485" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="480" priority="32" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="479" priority="33" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:N10">
-    <cfRule type="expression" dxfId="483" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="478" priority="40" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L44:N44">
-    <cfRule type="expression" dxfId="482" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="477" priority="50" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15279,7 +15250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4E1488-27AA-4A32-BE13-2A3C1ED8A97E}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -16274,29 +16245,29 @@
     </row>
     <row r="3" spans="1:16" ht="16.5">
       <c r="A3" s="143" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B3" s="143"/>
       <c r="C3" s="143"/>
       <c r="D3" s="143"/>
       <c r="F3" s="139" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G3" s="139"/>
       <c r="H3" s="139"/>
       <c r="J3" s="139" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K3" s="139"/>
       <c r="L3" s="139"/>
     </row>
     <row r="4" spans="1:16" ht="16.5">
       <c r="A4" s="59" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="60" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D4" s="60"/>
       <c r="E4" s="61"/>
@@ -16334,11 +16305,11 @@
     </row>
     <row r="5" spans="1:16" ht="16.5">
       <c r="A5" s="59" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B5" s="59"/>
       <c r="C5" s="142" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D5" s="142"/>
       <c r="E5" s="65"/>
@@ -16366,11 +16337,11 @@
     </row>
     <row r="6" spans="1:16" ht="16.5">
       <c r="A6" s="68" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B6" s="68"/>
       <c r="C6" s="142" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D6" s="142"/>
       <c r="E6" s="65"/>
@@ -16398,7 +16369,7 @@
     </row>
     <row r="7" spans="1:16" ht="16.5">
       <c r="A7" s="68" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B7" s="68"/>
       <c r="C7" s="142"/>
@@ -16410,7 +16381,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="63" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I7" s="65"/>
       <c r="J7" s="141"/>
@@ -16419,7 +16390,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="63" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="M7" s="67"/>
       <c r="N7" s="61"/>
@@ -16428,7 +16399,7 @@
     </row>
     <row r="8" spans="1:16" ht="16.5">
       <c r="A8" s="68" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B8" s="114">
         <v>45782</v>
@@ -16442,7 +16413,7 @@
         <v>13</v>
       </c>
       <c r="H8" s="63" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I8" s="70"/>
       <c r="J8" s="69"/>
@@ -16451,7 +16422,7 @@
         <v>13</v>
       </c>
       <c r="L8" s="63" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="M8" s="70"/>
       <c r="N8" s="70"/>
@@ -16460,36 +16431,36 @@
     </row>
     <row r="9" spans="1:16" ht="33">
       <c r="A9" s="71" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D9" s="71" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E9" s="66"/>
       <c r="F9" s="71" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G9" s="71" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H9" s="71" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I9" s="72"/>
       <c r="J9" s="71" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="K9" s="71" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="L9" s="71" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M9" s="73"/>
       <c r="N9" s="73"/>
@@ -16499,7 +16470,7 @@
     <row r="10" spans="1:16" ht="16.5">
       <c r="A10" s="71"/>
       <c r="B10" s="136" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C10" s="136"/>
       <c r="D10" s="137"/>
@@ -16518,16 +16489,16 @@
     </row>
     <row r="11" spans="1:16" ht="33">
       <c r="A11" s="82" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C11" s="83" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D11" s="83" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="E11" s="64"/>
       <c r="F11" s="83"/>
@@ -16544,16 +16515,16 @@
     </row>
     <row r="12" spans="1:16" ht="33">
       <c r="A12" s="82" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B12" s="83" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C12" s="83" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D12" s="83" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E12" s="64"/>
       <c r="F12" s="83"/>
@@ -16570,16 +16541,16 @@
     </row>
     <row r="13" spans="1:16" ht="66">
       <c r="A13" s="82" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C13" s="83" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D13" s="83" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E13" s="64"/>
       <c r="F13" s="83"/>
@@ -16596,16 +16567,16 @@
     </row>
     <row r="14" spans="1:16" ht="82.5">
       <c r="A14" s="82" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="B14" s="83" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C14" s="83" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D14" s="83" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E14" s="64"/>
       <c r="F14" s="83"/>
@@ -16622,16 +16593,16 @@
     </row>
     <row r="15" spans="1:16" ht="66">
       <c r="A15" s="82" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="B15" s="83" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C15" s="83" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D15" s="83" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E15" s="64"/>
       <c r="F15" s="83"/>
@@ -16648,16 +16619,16 @@
     </row>
     <row r="16" spans="1:16" ht="115.5">
       <c r="A16" s="82" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="B16" s="83" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C16" s="83" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D16" s="83" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="E16" s="64"/>
       <c r="F16" s="83"/>
@@ -16674,16 +16645,16 @@
     </row>
     <row r="17" spans="1:16" ht="99">
       <c r="A17" s="82" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="B17" s="83" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C17" s="83" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D17" s="83" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E17" s="64"/>
       <c r="F17" s="83"/>
@@ -16700,16 +16671,16 @@
     </row>
     <row r="18" spans="1:16" ht="82.5">
       <c r="A18" s="82" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C18" s="83" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D18" s="83" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E18" s="64"/>
       <c r="F18" s="83"/>
@@ -16726,16 +16697,16 @@
     </row>
     <row r="19" spans="1:16" ht="82.5">
       <c r="A19" s="82" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="B19" s="83" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C19" s="83" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D19" s="83" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E19" s="64"/>
       <c r="F19" s="83"/>
@@ -16752,16 +16723,16 @@
     </row>
     <row r="20" spans="1:16" ht="115.5">
       <c r="A20" s="82" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="B20" s="83" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C20" s="83" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D20" s="83" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E20" s="64"/>
       <c r="F20" s="83"/>
@@ -16778,16 +16749,16 @@
     </row>
     <row r="21" spans="1:16" ht="49.5">
       <c r="A21" s="82" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B21" s="83" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C21" s="83" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D21" s="83" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E21" s="64"/>
       <c r="F21" s="83"/>
@@ -16804,16 +16775,16 @@
     </row>
     <row r="22" spans="1:16" ht="66">
       <c r="A22" s="82" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="B22" s="83" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C22" s="83" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D22" s="83" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="E22" s="64"/>
       <c r="F22" s="83"/>
@@ -16830,16 +16801,16 @@
     </row>
     <row r="23" spans="1:16" ht="49.5">
       <c r="A23" s="82" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="B23" s="83" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C23" s="83" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D23" s="83" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="E23" s="64"/>
       <c r="G23" s="84"/>
@@ -16921,260 +16892,260 @@
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <conditionalFormatting sqref="B11:C11 F11:F22 C12 F24">
-    <cfRule type="expression" dxfId="481" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="476" priority="84" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 F24 F11:F22 C12">
-    <cfRule type="expression" dxfId="480" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="475" priority="83" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:C13">
-    <cfRule type="expression" dxfId="479" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="474" priority="17" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="478" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="473" priority="18" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:C14">
-    <cfRule type="expression" dxfId="477" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="472" priority="7" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="476" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="471" priority="8" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:C23">
-    <cfRule type="expression" dxfId="475" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="470" priority="52" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="474" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="469" priority="53" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:C24">
-    <cfRule type="expression" dxfId="473" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="468" priority="78" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="472" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="467" priority="79" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:D12">
-    <cfRule type="expression" dxfId="471" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="466" priority="22" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="470" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="465" priority="23" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:D21 H11:H23 J11:J24 L11:L23 F11:F18">
-    <cfRule type="expression" dxfId="469" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="464" priority="47" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:D21">
-    <cfRule type="expression" dxfId="468" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="463" priority="51" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="467" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="462" priority="16" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="466" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="461" priority="6" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:D11">
-    <cfRule type="expression" dxfId="465" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="460" priority="81" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="464" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="459" priority="82" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:D13">
-    <cfRule type="expression" dxfId="463" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="458" priority="14" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D18">
-    <cfRule type="expression" dxfId="462" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="457" priority="4" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:D18">
-    <cfRule type="expression" dxfId="461" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="456" priority="44" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:D24 F24">
-    <cfRule type="expression" dxfId="460" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="455" priority="76" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="459" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="454" priority="77" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="458" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="453" priority="80" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D12">
-    <cfRule type="expression" dxfId="457" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="452" priority="24" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D13">
-    <cfRule type="expression" dxfId="456" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="451" priority="13" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="455" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="450" priority="12" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="expression" dxfId="454" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="449" priority="3" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="453" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="448" priority="1" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="452" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="447" priority="2" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E24 I11:I23 M11:N23">
-    <cfRule type="expression" dxfId="451" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="446" priority="49" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F18 H11:H23 L11:L23 J11:J24 B15:C18">
-    <cfRule type="expression" dxfId="450" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="445" priority="48" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="449" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="444" priority="65" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="443" priority="66" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="447" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="442" priority="67" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="446" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="441" priority="68" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G24 K11:K24">
-    <cfRule type="cellIs" dxfId="445" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="70" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="71" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H14">
-    <cfRule type="expression" dxfId="443" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="438" priority="60" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="442" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="437" priority="61" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:H18">
-    <cfRule type="expression" dxfId="441" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="436" priority="37" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="440" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="435" priority="38" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:I10">
-    <cfRule type="expression" dxfId="439" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="434" priority="69" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:I24">
-    <cfRule type="expression" dxfId="438" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="433" priority="75" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="437" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="432" priority="62" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="431" priority="63" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:J14">
-    <cfRule type="expression" dxfId="435" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="430" priority="58" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="434" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="429" priority="59" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:J18">
-    <cfRule type="expression" dxfId="433" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="428" priority="33" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="432" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="427" priority="34" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="expression" dxfId="431" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="426" priority="73" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="425" priority="74" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:L14">
-    <cfRule type="expression" dxfId="429" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="424" priority="56" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="428" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="423" priority="57" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:L18">
-    <cfRule type="expression" dxfId="427" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="422" priority="29" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="421" priority="30" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22:L23 D22:D24">
-    <cfRule type="expression" dxfId="425" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="420" priority="54" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="419" priority="55" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:N10">
-    <cfRule type="expression" dxfId="423" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="418" priority="64" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24:N24">
-    <cfRule type="expression" dxfId="422" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="417" priority="72" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17193,7 +17164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CB3894-3728-43FF-BAA7-B5F2E9CDD7B8}">
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
@@ -18188,29 +18159,29 @@
     </row>
     <row r="3" spans="1:16" ht="16.5">
       <c r="A3" s="143" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B3" s="143"/>
       <c r="C3" s="143"/>
       <c r="D3" s="143"/>
       <c r="F3" s="139" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G3" s="139"/>
       <c r="H3" s="139"/>
       <c r="J3" s="139" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K3" s="139"/>
       <c r="L3" s="139"/>
     </row>
     <row r="4" spans="1:16" ht="16.5">
       <c r="A4" s="59" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="60" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D4" s="60"/>
       <c r="E4" s="61"/>
@@ -18248,11 +18219,11 @@
     </row>
     <row r="5" spans="1:16" ht="81.5" customHeight="1">
       <c r="A5" s="59" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B5" s="59"/>
       <c r="C5" s="142" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D5" s="142"/>
       <c r="E5" s="65"/>
@@ -18280,11 +18251,11 @@
     </row>
     <row r="6" spans="1:16" ht="16.5">
       <c r="A6" s="68" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B6" s="68"/>
       <c r="C6" s="142" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D6" s="142"/>
       <c r="E6" s="65"/>
@@ -18312,7 +18283,7 @@
     </row>
     <row r="7" spans="1:16" ht="16.5">
       <c r="A7" s="68" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B7" s="68"/>
       <c r="C7" s="142"/>
@@ -18324,7 +18295,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="63" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I7" s="65"/>
       <c r="J7" s="141"/>
@@ -18333,7 +18304,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="63" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="M7" s="67"/>
       <c r="N7" s="61"/>
@@ -18342,7 +18313,7 @@
     </row>
     <row r="8" spans="1:16" ht="16.5">
       <c r="A8" s="68" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="B8" s="114"/>
       <c r="C8" s="69"/>
@@ -18354,7 +18325,7 @@
         <v>61</v>
       </c>
       <c r="H8" s="63" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I8" s="70"/>
       <c r="J8" s="69"/>
@@ -18363,7 +18334,7 @@
         <v>61</v>
       </c>
       <c r="L8" s="63" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="M8" s="70"/>
       <c r="N8" s="70"/>
@@ -18372,36 +18343,36 @@
     </row>
     <row r="9" spans="1:16" ht="33">
       <c r="A9" s="71" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D9" s="71" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E9" s="66"/>
       <c r="F9" s="71" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G9" s="71" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H9" s="71" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I9" s="72"/>
       <c r="J9" s="71" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="K9" s="71" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="L9" s="71" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M9" s="73"/>
       <c r="N9" s="73"/>
@@ -18411,7 +18382,7 @@
     <row r="10" spans="1:16" ht="16.5">
       <c r="A10" s="71"/>
       <c r="B10" s="136" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C10" s="136"/>
       <c r="D10" s="137"/>
@@ -18430,16 +18401,16 @@
     </row>
     <row r="11" spans="1:16" ht="33">
       <c r="A11" s="82" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C11" s="83" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="D11" s="83" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="E11" s="64"/>
       <c r="F11" s="83"/>
@@ -18456,16 +18427,16 @@
     </row>
     <row r="12" spans="1:16" ht="33">
       <c r="A12" s="82" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B12" s="83" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C12" s="83" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D12" s="83" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="E12" s="64"/>
       <c r="F12" s="83"/>
@@ -18482,16 +18453,16 @@
     </row>
     <row r="13" spans="1:16" ht="33">
       <c r="A13" s="82" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C13" s="83" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D13" s="83" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E13" s="64"/>
       <c r="F13" s="83"/>
@@ -18508,16 +18479,16 @@
     </row>
     <row r="14" spans="1:16" ht="66">
       <c r="A14" s="82" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="B14" s="83" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C14" s="83" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D14" s="83" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E14" s="64"/>
       <c r="F14" s="83"/>
@@ -18534,16 +18505,16 @@
     </row>
     <row r="15" spans="1:16" ht="82.5">
       <c r="A15" s="82" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="B15" s="83" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C15" s="83" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D15" s="83" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E15" s="64"/>
       <c r="F15" s="83"/>
@@ -18560,16 +18531,16 @@
     </row>
     <row r="16" spans="1:16" ht="49.5">
       <c r="A16" s="82" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="B16" s="83" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C16" s="83" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D16" s="83" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="E16" s="64"/>
       <c r="F16" s="83"/>
@@ -18586,16 +18557,16 @@
     </row>
     <row r="17" spans="1:16" ht="49.5">
       <c r="A17" s="82" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="B17" s="83" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C17" s="83" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="D17" s="83" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="E17" s="64"/>
       <c r="F17" s="83"/>
@@ -18612,16 +18583,16 @@
     </row>
     <row r="18" spans="1:16" ht="49.5">
       <c r="A18" s="82" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C18" s="83" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D18" s="83" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="E18" s="64"/>
       <c r="F18" s="83"/>
@@ -18638,16 +18609,16 @@
     </row>
     <row r="19" spans="1:16" ht="49.5">
       <c r="A19" s="82" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="B19" s="83" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C19" s="83" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D19" s="83" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="E19" s="64"/>
       <c r="F19" s="83"/>
@@ -18664,16 +18635,16 @@
     </row>
     <row r="20" spans="1:16" ht="49.5">
       <c r="A20" s="82" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B20" s="83" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C20" s="83" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D20" s="83" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="E20" s="64"/>
       <c r="F20" s="83"/>
@@ -18690,16 +18661,16 @@
     </row>
     <row r="21" spans="1:16" ht="49.5">
       <c r="A21" s="82" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="B21" s="83" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C21" s="83" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D21" s="83" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="E21" s="64"/>
       <c r="F21" s="83"/>
@@ -18716,16 +18687,16 @@
     </row>
     <row r="22" spans="1:16" ht="49.5">
       <c r="A22" s="82" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="B22" s="83" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C22" s="83" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="D22" s="83" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="E22" s="64"/>
       <c r="F22" s="83"/>
@@ -18742,16 +18713,16 @@
     </row>
     <row r="23" spans="1:16" ht="66">
       <c r="A23" s="82" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="B23" s="83" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C23" s="83" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="D23" s="83" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="E23" s="64"/>
       <c r="F23" s="83"/>
@@ -18768,16 +18739,16 @@
     </row>
     <row r="24" spans="1:16" ht="66">
       <c r="A24" s="82" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="B24" s="83" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="C24" s="83" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="D24" s="83" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="E24" s="64"/>
       <c r="F24" s="83"/>
@@ -18794,16 +18765,16 @@
     </row>
     <row r="25" spans="1:16" ht="66">
       <c r="A25" s="82" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="B25" s="83" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C25" s="83" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="D25" s="83" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="E25" s="64"/>
       <c r="F25" s="83"/>
@@ -18820,16 +18791,16 @@
     </row>
     <row r="26" spans="1:16" ht="33">
       <c r="A26" s="82" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="B26" s="83" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C26" s="83" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D26" s="83" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="E26" s="64"/>
       <c r="F26" s="83"/>
@@ -18847,7 +18818,7 @@
     <row r="27" spans="1:16" ht="16.5">
       <c r="A27" s="71"/>
       <c r="B27" s="136" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C27" s="136"/>
       <c r="D27" s="137"/>
@@ -18866,16 +18837,16 @@
     </row>
     <row r="28" spans="1:16" ht="33">
       <c r="A28" s="82" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="B28" s="83" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C28" s="83" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="D28" s="83" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E28" s="64"/>
       <c r="F28" s="83"/>
@@ -18892,16 +18863,16 @@
     </row>
     <row r="29" spans="1:16" ht="33">
       <c r="A29" s="82" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="B29" s="83" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C29" s="83" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D29" s="83" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E29" s="64"/>
       <c r="F29" s="83"/>
@@ -18918,16 +18889,16 @@
     </row>
     <row r="30" spans="1:16" ht="66">
       <c r="A30" s="82" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="B30" s="83" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C30" s="83" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D30" s="83" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E30" s="64"/>
       <c r="F30" s="83"/>
@@ -18944,16 +18915,16 @@
     </row>
     <row r="31" spans="1:16" ht="82.5">
       <c r="A31" s="82" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="B31" s="83" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C31" s="83" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D31" s="83" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E31" s="64"/>
       <c r="F31" s="83"/>
@@ -18970,16 +18941,16 @@
     </row>
     <row r="32" spans="1:16" ht="49.5">
       <c r="A32" s="82" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="B32" s="83" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C32" s="83" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D32" s="83" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="E32" s="64"/>
       <c r="F32" s="83"/>
@@ -18996,16 +18967,16 @@
     </row>
     <row r="33" spans="1:16" ht="49.5">
       <c r="A33" s="82" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="B33" s="83" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C33" s="83" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="D33" s="83" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="E33" s="64"/>
       <c r="F33" s="83"/>
@@ -19022,16 +18993,16 @@
     </row>
     <row r="34" spans="1:16" ht="49.5">
       <c r="A34" s="82" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="B34" s="83" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C34" s="83" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D34" s="83" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="E34" s="64"/>
       <c r="F34" s="83"/>
@@ -19048,16 +19019,16 @@
     </row>
     <row r="35" spans="1:16" ht="49.5">
       <c r="A35" s="82" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="B35" s="83" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C35" s="83" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D35" s="83" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="E35" s="64"/>
       <c r="F35" s="83"/>
@@ -19074,16 +19045,16 @@
     </row>
     <row r="36" spans="1:16" ht="49.5">
       <c r="A36" s="82" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B36" s="83" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C36" s="83" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D36" s="83" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="E36" s="64"/>
       <c r="F36" s="83"/>
@@ -19100,16 +19071,16 @@
     </row>
     <row r="37" spans="1:16" ht="66">
       <c r="A37" s="82" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="B37" s="83" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C37" s="83" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="D37" s="83" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="E37" s="64"/>
       <c r="F37" s="83"/>
@@ -19126,16 +19097,16 @@
     </row>
     <row r="38" spans="1:16" ht="66">
       <c r="A38" s="82" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="B38" s="83" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="C38" s="83" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="D38" s="83" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="E38" s="64"/>
       <c r="F38" s="83"/>
@@ -19152,16 +19123,16 @@
     </row>
     <row r="39" spans="1:16" ht="33">
       <c r="A39" s="82" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="B39" s="83" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C39" s="83" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D39" s="83" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="E39" s="64"/>
       <c r="F39" s="83"/>
@@ -19179,7 +19150,7 @@
     <row r="40" spans="1:16" ht="16.5">
       <c r="A40" s="71"/>
       <c r="B40" s="136" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C40" s="136"/>
       <c r="D40" s="137"/>
@@ -19198,16 +19169,16 @@
     </row>
     <row r="41" spans="1:16" ht="33">
       <c r="A41" s="82" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="B41" s="83" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="C41" s="83" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="D41" s="83" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="E41" s="64"/>
       <c r="F41" s="83"/>
@@ -19224,16 +19195,16 @@
     </row>
     <row r="42" spans="1:16" ht="33">
       <c r="A42" s="82" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="B42" s="83" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C42" s="83" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D42" s="83" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E42" s="64"/>
       <c r="F42" s="83"/>
@@ -19250,16 +19221,16 @@
     </row>
     <row r="43" spans="1:16" ht="66">
       <c r="A43" s="82" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="B43" s="83" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C43" s="83" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D43" s="83" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E43" s="64"/>
       <c r="F43" s="83"/>
@@ -19276,16 +19247,16 @@
     </row>
     <row r="44" spans="1:16" ht="82.5">
       <c r="A44" s="82" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="B44" s="83" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C44" s="83" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D44" s="83" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E44" s="64"/>
       <c r="F44" s="83"/>
@@ -19302,16 +19273,16 @@
     </row>
     <row r="45" spans="1:16" ht="49.5">
       <c r="A45" s="82" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="B45" s="83" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C45" s="83" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D45" s="83" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="E45" s="64"/>
       <c r="F45" s="83"/>
@@ -19328,16 +19299,16 @@
     </row>
     <row r="46" spans="1:16" ht="49.5">
       <c r="A46" s="82" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="B46" s="83" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C46" s="83" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="D46" s="83" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="E46" s="64"/>
       <c r="F46" s="83"/>
@@ -19354,16 +19325,16 @@
     </row>
     <row r="47" spans="1:16" ht="49.5">
       <c r="A47" s="82" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="B47" s="83" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C47" s="83" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D47" s="83" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="E47" s="64"/>
       <c r="F47" s="83"/>
@@ -19380,16 +19351,16 @@
     </row>
     <row r="48" spans="1:16" ht="33">
       <c r="A48" s="82" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="B48" s="83" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C48" s="83" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D48" s="83" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E48" s="64"/>
       <c r="F48" s="83"/>
@@ -19406,10 +19377,10 @@
     </row>
     <row r="49" spans="1:16" ht="16.5">
       <c r="A49" s="82" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="B49" s="136" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="C49" s="136"/>
       <c r="D49" s="137"/>
@@ -19428,16 +19399,16 @@
     </row>
     <row r="50" spans="1:16" ht="66">
       <c r="A50" s="82" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B50" s="83" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C50" s="83" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="D50" s="83" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="E50" s="64"/>
       <c r="F50" s="83"/>
@@ -19454,16 +19425,16 @@
     </row>
     <row r="51" spans="1:16" ht="33">
       <c r="A51" s="82" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="B51" s="83" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C51" s="83" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D51" s="83" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E51" s="64"/>
       <c r="F51" s="83"/>
@@ -19480,16 +19451,16 @@
     </row>
     <row r="52" spans="1:16" ht="66">
       <c r="A52" s="82" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="B52" s="83" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C52" s="83" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D52" s="83" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E52" s="64"/>
       <c r="F52" s="83"/>
@@ -19506,16 +19477,16 @@
     </row>
     <row r="53" spans="1:16" ht="82.5">
       <c r="A53" s="82" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="B53" s="83" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C53" s="83" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D53" s="83" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E53" s="64"/>
       <c r="F53" s="83"/>
@@ -19532,16 +19503,16 @@
     </row>
     <row r="54" spans="1:16" ht="66">
       <c r="A54" s="82" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="B54" s="83" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C54" s="83" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="D54" s="83" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="E54" s="64"/>
       <c r="F54" s="83"/>
@@ -19558,16 +19529,16 @@
     </row>
     <row r="55" spans="1:16" ht="33">
       <c r="A55" s="82" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="B55" s="83" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C55" s="83" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D55" s="83" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="E55" s="64"/>
       <c r="F55" s="83"/>
@@ -19585,7 +19556,7 @@
     <row r="56" spans="1:16" ht="16.5">
       <c r="A56" s="71"/>
       <c r="B56" s="136" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="C56" s="136"/>
       <c r="D56" s="137"/>
@@ -19604,16 +19575,16 @@
     </row>
     <row r="57" spans="1:16" ht="66">
       <c r="A57" s="82" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="B57" s="83" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C57" s="83" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="D57" s="83" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="E57" s="64"/>
       <c r="F57" s="83"/>
@@ -19630,16 +19601,16 @@
     </row>
     <row r="58" spans="1:16" ht="33">
       <c r="A58" s="82" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="B58" s="83" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C58" s="83" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D58" s="83" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E58" s="64"/>
       <c r="F58" s="83"/>
@@ -19656,16 +19627,16 @@
     </row>
     <row r="59" spans="1:16" ht="66">
       <c r="A59" s="82" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="B59" s="83" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C59" s="83" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D59" s="83" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E59" s="64"/>
       <c r="F59" s="83"/>
@@ -19682,16 +19653,16 @@
     </row>
     <row r="60" spans="1:16" ht="82.5">
       <c r="A60" s="82" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B60" s="83" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C60" s="83" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D60" s="83" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E60" s="64"/>
       <c r="F60" s="83"/>
@@ -19708,16 +19679,16 @@
     </row>
     <row r="61" spans="1:16" ht="49.5">
       <c r="A61" s="82" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="B61" s="83" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C61" s="83" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D61" s="83" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="E61" s="64"/>
       <c r="F61" s="83"/>
@@ -19734,16 +19705,16 @@
     </row>
     <row r="62" spans="1:16" ht="49.5">
       <c r="A62" s="82" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="B62" s="83" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C62" s="83" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="D62" s="83" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="E62" s="64"/>
       <c r="F62" s="83"/>
@@ -19760,16 +19731,16 @@
     </row>
     <row r="63" spans="1:16" ht="49.5">
       <c r="A63" s="82" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="B63" s="83" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="C63" s="83" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D63" s="83" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="E63" s="64"/>
       <c r="F63" s="83"/>
@@ -19786,16 +19757,16 @@
     </row>
     <row r="64" spans="1:16" ht="49.5">
       <c r="A64" s="82" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B64" s="83" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="C64" s="83" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D64" s="83" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="E64" s="64"/>
       <c r="F64" s="83"/>
@@ -19812,16 +19783,16 @@
     </row>
     <row r="65" spans="1:16" ht="49.5">
       <c r="A65" s="82" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="B65" s="83" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C65" s="83" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D65" s="83" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="E65" s="64"/>
       <c r="F65" s="83"/>
@@ -19838,16 +19809,16 @@
     </row>
     <row r="66" spans="1:16" ht="66">
       <c r="A66" s="82" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B66" s="83" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C66" s="83" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="D66" s="83" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="E66" s="64"/>
       <c r="F66" s="83"/>
@@ -19864,16 +19835,16 @@
     </row>
     <row r="67" spans="1:16" ht="66">
       <c r="A67" s="82" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="B67" s="83" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="C67" s="83" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="D67" s="83" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="E67" s="64"/>
       <c r="F67" s="83"/>
@@ -19890,16 +19861,16 @@
     </row>
     <row r="68" spans="1:16" ht="33">
       <c r="A68" s="82" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="B68" s="83" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C68" s="83" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D68" s="83" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="E68" s="64"/>
       <c r="F68" s="83"/>
@@ -19917,7 +19888,7 @@
     <row r="69" spans="1:16" ht="16.5">
       <c r="A69" s="71"/>
       <c r="B69" s="136" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="C69" s="136"/>
       <c r="D69" s="137"/>
@@ -19936,16 +19907,16 @@
     </row>
     <row r="70" spans="1:16" ht="66">
       <c r="A70" s="82" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="B70" s="83" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="C70" s="83" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="D70" s="83" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="E70" s="64"/>
       <c r="F70" s="83"/>
@@ -19962,16 +19933,16 @@
     </row>
     <row r="71" spans="1:16" ht="33">
       <c r="A71" s="82" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="B71" s="83" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C71" s="83" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D71" s="83" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E71" s="64"/>
       <c r="F71" s="83"/>
@@ -19988,16 +19959,16 @@
     </row>
     <row r="72" spans="1:16" ht="66">
       <c r="A72" s="82" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="B72" s="83" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C72" s="83" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D72" s="83" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E72" s="64"/>
       <c r="F72" s="83"/>
@@ -20014,16 +19985,16 @@
     </row>
     <row r="73" spans="1:16" ht="82.5">
       <c r="A73" s="82" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="B73" s="83" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C73" s="83" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D73" s="83" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E73" s="64"/>
       <c r="F73" s="83"/>
@@ -20040,16 +20011,16 @@
     </row>
     <row r="74" spans="1:16" ht="49.5">
       <c r="A74" s="82" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="B74" s="83" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="C74" s="83" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="D74" s="83" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="E74" s="64"/>
       <c r="F74" s="83"/>
@@ -20066,16 +20037,16 @@
     </row>
     <row r="75" spans="1:16" ht="33">
       <c r="A75" s="82" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="B75" s="83" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C75" s="83" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D75" s="83" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="E75" s="64"/>
       <c r="F75" s="83"/>
@@ -20145,11 +20116,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B56:D56"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:H3"/>
@@ -20159,623 +20125,628 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B56:D56"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <conditionalFormatting sqref="B76">
-    <cfRule type="expression" dxfId="421" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="416" priority="162" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="163" stopIfTrue="1">
+    <cfRule type="expression" dxfId="415" priority="163" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C12 F11:F26">
-    <cfRule type="expression" dxfId="419" priority="285" stopIfTrue="1">
+    <cfRule type="expression" dxfId="414" priority="285" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="286" stopIfTrue="1">
+    <cfRule type="expression" dxfId="413" priority="286" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:C13">
-    <cfRule type="expression" dxfId="417" priority="209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="412" priority="209" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="416" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="411" priority="210" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:C14">
-    <cfRule type="expression" dxfId="415" priority="199" stopIfTrue="1">
+    <cfRule type="expression" dxfId="410" priority="199" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="409" priority="200" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:C26">
-    <cfRule type="expression" dxfId="413" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="408" priority="189" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="407" priority="190" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:C28">
-    <cfRule type="expression" dxfId="411" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="406" priority="108" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="410" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="405" priority="109" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:C30">
-    <cfRule type="expression" dxfId="409" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="404" priority="100" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:C39">
-    <cfRule type="expression" dxfId="408" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="403" priority="99" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:C41">
-    <cfRule type="expression" dxfId="407" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="402" priority="85" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="401" priority="86" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:C43">
-    <cfRule type="expression" dxfId="405" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="400" priority="77" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:C48">
-    <cfRule type="expression" dxfId="404" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="399" priority="76" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:C50">
-    <cfRule type="expression" dxfId="403" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="398" priority="62" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="397" priority="63" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:C52">
-    <cfRule type="expression" dxfId="401" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="396" priority="54" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:C55">
-    <cfRule type="expression" dxfId="400" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="395" priority="53" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:C57">
-    <cfRule type="expression" dxfId="399" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="394" priority="39" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="398" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="393" priority="40" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58:C59">
-    <cfRule type="expression" dxfId="397" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="392" priority="31" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58:C68">
-    <cfRule type="expression" dxfId="396" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="391" priority="30" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70:C70">
-    <cfRule type="expression" dxfId="395" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="390" priority="14" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="389" priority="15" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71:C71">
-    <cfRule type="expression" dxfId="393" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="388" priority="9" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="392" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="387" priority="10" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:C72">
-    <cfRule type="expression" dxfId="391" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="386" priority="5" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="385" priority="6" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:C76">
-    <cfRule type="expression" dxfId="389" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="384" priority="136" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="388" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="383" priority="198" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C26">
-    <cfRule type="expression" dxfId="387" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="382" priority="188" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="expression" dxfId="386" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="381" priority="4" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:D12">
-    <cfRule type="expression" dxfId="385" priority="283" stopIfTrue="1">
+    <cfRule type="expression" dxfId="380" priority="283" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="284" stopIfTrue="1">
+    <cfRule type="expression" dxfId="379" priority="284" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:D13">
-    <cfRule type="expression" dxfId="383" priority="205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="378" priority="205" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:D14">
-    <cfRule type="expression" dxfId="382" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="377" priority="196" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:D26">
-    <cfRule type="expression" dxfId="381" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="376" priority="182" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:D28">
-    <cfRule type="expression" dxfId="380" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="375" priority="106" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="374" priority="107" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:D39">
-    <cfRule type="expression" dxfId="378" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="373" priority="97" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="377" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="372" priority="98" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:D41">
-    <cfRule type="expression" dxfId="376" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="371" priority="83" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="370" priority="84" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:D48">
-    <cfRule type="expression" dxfId="374" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="369" priority="74" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="368" priority="75" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:D50">
-    <cfRule type="expression" dxfId="372" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="367" priority="60" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="371" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="366" priority="61" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51:D55">
-    <cfRule type="expression" dxfId="370" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="365" priority="51" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="364" priority="52" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:D57">
-    <cfRule type="expression" dxfId="368" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="363" priority="37" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="367" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="362" priority="38" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:D68">
-    <cfRule type="expression" dxfId="366" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="361" priority="28" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="365" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="360" priority="29" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:D70">
-    <cfRule type="expression" dxfId="364" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="359" priority="12" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="358" priority="13" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:D71">
-    <cfRule type="expression" dxfId="362" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="357" priority="7" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:D72">
-    <cfRule type="expression" dxfId="361" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="356" priority="3" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C73:D76">
-    <cfRule type="expression" dxfId="360" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="355" priority="120" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76:D76">
-    <cfRule type="expression" dxfId="359" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="354" priority="118" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="353" priority="119" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D12">
-    <cfRule type="expression" dxfId="357" priority="282" stopIfTrue="1">
+    <cfRule type="expression" dxfId="352" priority="282" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D13">
-    <cfRule type="expression" dxfId="356" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="351" priority="206" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="expression" dxfId="355" priority="195" stopIfTrue="1">
+    <cfRule type="expression" dxfId="350" priority="195" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="354" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="349" priority="194" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D26">
-    <cfRule type="expression" dxfId="353" priority="181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="348" priority="181" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D26 D31:D39 D44:D48 D53:D55 D60:D68 D73:D75">
-    <cfRule type="expression" dxfId="352" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="347" priority="180" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D26">
-    <cfRule type="expression" dxfId="351" priority="179" stopIfTrue="1">
+    <cfRule type="expression" dxfId="346" priority="179" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="350" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="345" priority="105" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29">
-    <cfRule type="expression" dxfId="349" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="344" priority="102" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:D30">
-    <cfRule type="expression" dxfId="348" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="343" priority="96" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="347" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="342" priority="95" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="expression" dxfId="346" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="341" priority="82" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D42">
-    <cfRule type="expression" dxfId="345" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="340" priority="79" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:D43">
-    <cfRule type="expression" dxfId="344" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="339" priority="73" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="343" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="338" priority="72" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="342" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="337" priority="59" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:D51">
-    <cfRule type="expression" dxfId="341" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="336" priority="56" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:D52">
-    <cfRule type="expression" dxfId="340" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="335" priority="50" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="339" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="334" priority="49" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="338" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="333" priority="36" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57:D58">
-    <cfRule type="expression" dxfId="337" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="332" priority="33" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58:D59">
-    <cfRule type="expression" dxfId="336" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="331" priority="27" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="335" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="330" priority="26" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="expression" dxfId="334" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="329" priority="11" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:D71">
-    <cfRule type="expression" dxfId="333" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="328" priority="8" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:D72">
-    <cfRule type="expression" dxfId="332" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="327" priority="2" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="expression" dxfId="331" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="326" priority="1" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E76 I11:I26 M11:N26 I28:I39 M28:N39 I41:I48 M41:N48 I50:I55 M50:N55 I57:I68 M57:N68 I70:I76 M70:N76">
-    <cfRule type="expression" dxfId="330" priority="251" stopIfTrue="1">
+    <cfRule type="expression" dxfId="325" priority="251" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:F39 H28:H39 L28:L39 F41:F48 H41:H48 L41:L48 F50:F55 H50:H55 L50:L55 F57:F68 H57:H68 L57:L68 F70:F75 H70:H76 L70:L76 D72:D73 C73 C74:D75">
-    <cfRule type="expression" dxfId="329" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="324" priority="169" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:F39 H28:H39 L28:L39 F41:F48 H41:H48 L41:L48 F50:F55 H50:H55 L50:L55 F57:F68 H57:H68 L57:L68 F70:F75 H70:H76 L70:L76">
-    <cfRule type="expression" dxfId="328" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="323" priority="165" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="327" priority="267" stopIfTrue="1">
+    <cfRule type="expression" dxfId="322" priority="267" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="268" stopIfTrue="1">
+    <cfRule type="expression" dxfId="321" priority="268" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="269" stopIfTrue="1">
+    <cfRule type="expression" dxfId="320" priority="269" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="270" stopIfTrue="1">
+    <cfRule type="expression" dxfId="319" priority="270" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G26 K11:K26 G28:G39 K28:K39 G41:G48 K41:K48 G50:G55 K50:K55 G57:G68 K57:K68 G70:G76 K70:K76">
-    <cfRule type="cellIs" dxfId="323" priority="272" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="272" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="273" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="273" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="expression" dxfId="321" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="316" priority="113" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="315" priority="114" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="319" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="314" priority="115" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="313" priority="116" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="expression" dxfId="317" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="312" priority="90" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="311" priority="91" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="310" priority="92" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="314" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="309" priority="93" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="expression" dxfId="313" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="308" priority="67" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="307" priority="68" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="311" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="306" priority="69" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="305" priority="70" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="expression" dxfId="309" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="304" priority="44" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="303" priority="45" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="302" priority="46" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="301" priority="47" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G69">
-    <cfRule type="expression" dxfId="305" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="300" priority="19" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="20" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="303" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="298" priority="21" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="297" priority="22" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H26">
-    <cfRule type="expression" dxfId="301" priority="262" stopIfTrue="1">
+    <cfRule type="expression" dxfId="296" priority="262" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="263" stopIfTrue="1">
+    <cfRule type="expression" dxfId="295" priority="263" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:H39 L28:L39 H41:H48 L41:L48 H50:H55 L50:L55 H57:H68 L57:L68 H70:H75 L70:L76 B73:C75 J10:J75">
-    <cfRule type="expression" dxfId="299" priority="175" stopIfTrue="1">
+    <cfRule type="expression" dxfId="294" priority="175" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:I10">
-    <cfRule type="expression" dxfId="298" priority="271" stopIfTrue="1">
+    <cfRule type="expression" dxfId="293" priority="271" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:I27">
-    <cfRule type="expression" dxfId="297" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="292" priority="117" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40:I40">
-    <cfRule type="expression" dxfId="296" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="291" priority="94" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49:I49">
-    <cfRule type="expression" dxfId="295" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="290" priority="71" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56:I56">
-    <cfRule type="expression" dxfId="294" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="289" priority="48" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69:I69">
-    <cfRule type="expression" dxfId="293" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="288" priority="23" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:J26 F11:F26 H11:H26 L11:L26">
-    <cfRule type="expression" dxfId="292" priority="249" stopIfTrue="1">
+    <cfRule type="expression" dxfId="287" priority="249" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="250" stopIfTrue="1">
+    <cfRule type="expression" dxfId="286" priority="250" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:J75 H28:H39 L28:L39 H41:H48 L41:L48 H50:H55 L50:L55 H57:H68 L57:L68 H70:H75 L70:L76 B73:D75 B31:D39 B44:D48 B53:D55 B60:D68">
-    <cfRule type="expression" dxfId="290" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="285" priority="176" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:J76">
-    <cfRule type="expression" dxfId="289" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="284" priority="16" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="283" priority="17" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:L26">
-    <cfRule type="expression" dxfId="287" priority="258" stopIfTrue="1">
+    <cfRule type="expression" dxfId="282" priority="258" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="259" stopIfTrue="1">
+    <cfRule type="expression" dxfId="281" priority="259" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:N10">
-    <cfRule type="expression" dxfId="285" priority="266" stopIfTrue="1">
+    <cfRule type="expression" dxfId="280" priority="266" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:N27">
-    <cfRule type="expression" dxfId="284" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="279" priority="112" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L40:N40">
-    <cfRule type="expression" dxfId="283" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="278" priority="89" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49:N49">
-    <cfRule type="expression" dxfId="282" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="277" priority="66" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L56:N56">
-    <cfRule type="expression" dxfId="281" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="276" priority="43" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L69:N69">
-    <cfRule type="expression" dxfId="280" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="18" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21789,29 +21760,29 @@
     </row>
     <row r="3" spans="1:16" ht="16.5">
       <c r="A3" s="143" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B3" s="143"/>
       <c r="C3" s="143"/>
       <c r="D3" s="143"/>
       <c r="F3" s="139" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G3" s="139"/>
       <c r="H3" s="139"/>
       <c r="J3" s="139" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K3" s="139"/>
       <c r="L3" s="139"/>
     </row>
     <row r="4" spans="1:16" ht="16.5">
       <c r="A4" s="59" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="60" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D4" s="60"/>
       <c r="E4" s="61"/>
@@ -21849,11 +21820,11 @@
     </row>
     <row r="5" spans="1:16" ht="81.5" customHeight="1">
       <c r="A5" s="59" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B5" s="59"/>
       <c r="C5" s="142" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D5" s="142"/>
       <c r="E5" s="65"/>
@@ -21881,11 +21852,11 @@
     </row>
     <row r="6" spans="1:16" ht="16.5">
       <c r="A6" s="68" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B6" s="68"/>
       <c r="C6" s="142" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D6" s="142"/>
       <c r="E6" s="65"/>
@@ -21913,7 +21884,7 @@
     </row>
     <row r="7" spans="1:16" ht="16.5">
       <c r="A7" s="68" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B7" s="68"/>
       <c r="C7" s="142"/>
@@ -21925,7 +21896,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="63" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I7" s="65"/>
       <c r="J7" s="141"/>
@@ -21934,7 +21905,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="63" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="M7" s="67"/>
       <c r="N7" s="61"/>
@@ -21943,7 +21914,7 @@
     </row>
     <row r="8" spans="1:16" ht="16.5">
       <c r="A8" s="68" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="B8" s="114"/>
       <c r="C8" s="69"/>
@@ -21955,7 +21926,7 @@
         <v>26</v>
       </c>
       <c r="H8" s="63" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I8" s="70"/>
       <c r="J8" s="69"/>
@@ -21964,7 +21935,7 @@
         <v>26</v>
       </c>
       <c r="L8" s="63" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="M8" s="70"/>
       <c r="N8" s="70"/>
@@ -21973,36 +21944,36 @@
     </row>
     <row r="9" spans="1:16" ht="33">
       <c r="A9" s="71" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D9" s="71" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E9" s="66"/>
       <c r="F9" s="71" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G9" s="71" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H9" s="71" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I9" s="72"/>
       <c r="J9" s="71" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="K9" s="71" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="L9" s="71" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M9" s="73"/>
       <c r="N9" s="73"/>
@@ -22012,7 +21983,7 @@
     <row r="10" spans="1:16" ht="16.5">
       <c r="A10" s="71"/>
       <c r="B10" s="136" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C10" s="136"/>
       <c r="D10" s="137"/>
@@ -22031,16 +22002,16 @@
     </row>
     <row r="11" spans="1:16" ht="33">
       <c r="A11" s="82" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C11" s="83" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D11" s="83" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E11" s="64"/>
       <c r="F11" s="83"/>
@@ -22057,16 +22028,16 @@
     </row>
     <row r="12" spans="1:16" ht="33">
       <c r="A12" s="82" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B12" s="83" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C12" s="83" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D12" s="83" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="E12" s="64"/>
       <c r="F12" s="83"/>
@@ -22083,16 +22054,16 @@
     </row>
     <row r="13" spans="1:16" ht="33">
       <c r="A13" s="82" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C13" s="83" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D13" s="83" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E13" s="64"/>
       <c r="F13" s="83"/>
@@ -22109,16 +22080,16 @@
     </row>
     <row r="14" spans="1:16" ht="66">
       <c r="A14" s="82" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="B14" s="83" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="C14" s="83" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D14" s="83" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E14" s="64"/>
       <c r="F14" s="83"/>
@@ -22135,16 +22106,16 @@
     </row>
     <row r="15" spans="1:16" ht="82.5">
       <c r="A15" s="82" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="B15" s="83" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C15" s="83" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D15" s="83" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E15" s="64"/>
       <c r="F15" s="83"/>
@@ -22161,16 +22132,16 @@
     </row>
     <row r="16" spans="1:16" ht="99">
       <c r="A16" s="82" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="B16" s="116" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C16" s="116" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D16" s="117" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E16" s="64"/>
       <c r="F16" s="118"/>
@@ -22187,16 +22158,16 @@
     </row>
     <row r="17" spans="1:16" ht="99">
       <c r="A17" s="82" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="B17" s="116" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C17" s="116" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D17" s="117" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E17" s="64"/>
       <c r="F17" s="118"/>
@@ -22213,16 +22184,16 @@
     </row>
     <row r="18" spans="1:16" ht="66">
       <c r="A18" s="82" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="B18" s="116" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C18" s="116" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D18" s="83" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="E18" s="64"/>
       <c r="F18" s="118"/>
@@ -22240,7 +22211,7 @@
     <row r="19" spans="1:16" ht="16.5">
       <c r="A19" s="71"/>
       <c r="B19" s="136" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C19" s="136"/>
       <c r="D19" s="137"/>
@@ -22259,16 +22230,16 @@
     </row>
     <row r="20" spans="1:16" ht="33">
       <c r="A20" s="82" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="B20" s="83" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C20" s="83" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D20" s="83" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E20" s="64"/>
       <c r="F20" s="83"/>
@@ -22285,16 +22256,16 @@
     </row>
     <row r="21" spans="1:16" ht="66">
       <c r="A21" s="82" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B21" s="83" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C21" s="83" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="D21" s="83" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E21" s="64"/>
       <c r="F21" s="83"/>
@@ -22311,16 +22282,16 @@
     </row>
     <row r="22" spans="1:16" ht="49.5">
       <c r="A22" s="82" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="B22" s="83" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C22" s="83" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D22" s="83" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E22" s="64"/>
       <c r="F22" s="83"/>
@@ -22337,16 +22308,16 @@
     </row>
     <row r="23" spans="1:16" ht="49.5">
       <c r="A23" s="82" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="B23" s="83" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C23" s="83" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D23" s="83" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E23" s="64"/>
       <c r="F23" s="83"/>
@@ -22363,16 +22334,16 @@
     </row>
     <row r="24" spans="1:16" ht="49.5">
       <c r="A24" s="82" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="B24" s="83" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C24" s="83" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D24" s="83" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E24" s="64"/>
       <c r="F24" s="83"/>
@@ -22389,16 +22360,16 @@
     </row>
     <row r="25" spans="1:16" ht="66">
       <c r="A25" s="82" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B25" s="83" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C25" s="83" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D25" s="83" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E25" s="64"/>
       <c r="F25" s="83"/>
@@ -22415,16 +22386,16 @@
     </row>
     <row r="26" spans="1:16" ht="82.5">
       <c r="A26" s="82" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="B26" s="83" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C26" s="83" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D26" s="83" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E26" s="64"/>
       <c r="F26" s="83"/>
@@ -22441,16 +22412,16 @@
     </row>
     <row r="27" spans="1:16" ht="66">
       <c r="A27" s="82" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="B27" s="83" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C27" s="83" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D27" s="83" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E27" s="64"/>
       <c r="F27" s="64"/>
@@ -22468,7 +22439,7 @@
     <row r="28" spans="1:16" ht="16.5">
       <c r="A28" s="71"/>
       <c r="B28" s="136" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C28" s="136"/>
       <c r="D28" s="137"/>
@@ -22487,16 +22458,16 @@
     </row>
     <row r="29" spans="1:16" ht="33">
       <c r="A29" s="82" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="B29" s="83" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C29" s="83" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D29" s="83" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="E29" s="64"/>
       <c r="F29" s="64"/>
@@ -22513,16 +22484,16 @@
     </row>
     <row r="30" spans="1:16" ht="132">
       <c r="A30" s="82" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="B30" s="83" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C30" s="83" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="D30" s="83" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="E30" s="64"/>
       <c r="F30" s="64"/>
@@ -22539,16 +22510,16 @@
     </row>
     <row r="31" spans="1:16" ht="99">
       <c r="A31" s="82" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="B31" s="83" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C31" s="83" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D31" s="83" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="E31" s="64"/>
       <c r="F31" s="64"/>
@@ -22565,16 +22536,16 @@
     </row>
     <row r="32" spans="1:16" ht="82.5">
       <c r="A32" s="82" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="B32" s="83" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C32" s="83" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D32" s="83" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="E32" s="64"/>
       <c r="F32" s="64"/>
@@ -22591,16 +22562,16 @@
     </row>
     <row r="33" spans="1:16" ht="82.5">
       <c r="A33" s="82" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="B33" s="83" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C33" s="83" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D33" s="83" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="E33" s="64"/>
       <c r="F33" s="64"/>
@@ -22617,16 +22588,16 @@
     </row>
     <row r="34" spans="1:16" ht="66">
       <c r="A34" s="82" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="B34" s="83" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C34" s="83" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D34" s="83" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="E34" s="64"/>
       <c r="F34" s="64"/>
@@ -22643,16 +22614,16 @@
     </row>
     <row r="35" spans="1:16" ht="66">
       <c r="A35" s="82" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="B35" s="83" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C35" s="83" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D35" s="83" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="E35" s="64"/>
       <c r="F35" s="64"/>
@@ -22669,16 +22640,16 @@
     </row>
     <row r="36" spans="1:16" ht="33">
       <c r="A36" s="82" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="B36" s="83" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C36" s="83" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D36" s="83" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E36" s="64"/>
       <c r="F36" s="83"/>
@@ -22695,16 +22666,16 @@
     </row>
     <row r="37" spans="1:16" ht="66">
       <c r="A37" s="82" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="B37" s="83" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C37" s="83" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D37" s="83" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="E37" s="64"/>
       <c r="F37" s="83"/>
@@ -22721,16 +22692,16 @@
     </row>
     <row r="38" spans="1:16" ht="66">
       <c r="A38" s="82" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="B38" s="83" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C38" s="83" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D38" s="83" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="E38" s="64"/>
       <c r="G38" s="84"/>
@@ -22747,7 +22718,7 @@
     <row r="39" spans="1:16" ht="16.5">
       <c r="A39" s="71"/>
       <c r="B39" s="136" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C39" s="136"/>
       <c r="D39" s="137"/>
@@ -22784,16 +22755,16 @@
     </row>
     <row r="41" spans="1:16" ht="49.5">
       <c r="A41" s="82" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="B41" s="83" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C41" s="83" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="D41" s="83" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E41" s="64"/>
       <c r="F41" s="64"/>
@@ -22810,16 +22781,16 @@
     </row>
     <row r="42" spans="1:16" ht="82.5">
       <c r="A42" s="82" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="B42" s="83" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C42" s="83" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="D42" s="83" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="E42" s="64"/>
       <c r="F42" s="64"/>
@@ -22836,16 +22807,16 @@
     </row>
     <row r="43" spans="1:16" ht="66">
       <c r="A43" s="82" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="B43" s="83" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C43" s="83" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D43" s="83" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="E43" s="64"/>
       <c r="F43" s="64"/>
@@ -22862,16 +22833,16 @@
     </row>
     <row r="44" spans="1:16" ht="82.5">
       <c r="A44" s="82" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="B44" s="83" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C44" s="83" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="D44" s="83" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E44" s="64"/>
       <c r="F44" s="64"/>
@@ -22888,16 +22859,16 @@
     </row>
     <row r="45" spans="1:16" ht="49.5">
       <c r="A45" s="82" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="B45" s="83" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C45" s="83" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="D45" s="83" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="E45" s="64"/>
       <c r="F45" s="64"/>
@@ -22914,16 +22885,16 @@
     </row>
     <row r="46" spans="1:16" ht="49.5">
       <c r="A46" s="82" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="B46" s="83" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C46" s="83" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D46" s="83" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="E46" s="64"/>
       <c r="F46" s="64"/>
@@ -22940,16 +22911,16 @@
     </row>
     <row r="47" spans="1:16" ht="99">
       <c r="A47" s="82" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="B47" s="116" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C47" s="116" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D47" s="117" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E47" s="64"/>
       <c r="F47" s="118"/>
@@ -22966,16 +22937,16 @@
     </row>
     <row r="48" spans="1:16" ht="99">
       <c r="A48" s="82" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="B48" s="116" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C48" s="116" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D48" s="117" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="E48" s="64"/>
       <c r="F48" s="118"/>
@@ -22992,16 +22963,16 @@
     </row>
     <row r="49" spans="1:16" ht="66">
       <c r="A49" s="82" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="B49" s="116" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C49" s="116" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D49" s="83" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E49" s="64"/>
       <c r="F49" s="118"/>
@@ -23019,7 +22990,7 @@
     <row r="50" spans="1:16" ht="16.5">
       <c r="A50" s="71"/>
       <c r="B50" s="136" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C50" s="136"/>
       <c r="D50" s="137"/>
@@ -23038,16 +23009,16 @@
     </row>
     <row r="51" spans="1:16" ht="33">
       <c r="A51" s="82" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="B51" s="83" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C51" s="83" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D51" s="83" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E51" s="64"/>
       <c r="F51" s="64"/>
@@ -23064,16 +23035,16 @@
     </row>
     <row r="52" spans="1:16" ht="49.5">
       <c r="A52" s="82" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="B52" s="83" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C52" s="83" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D52" s="83" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="E52" s="64"/>
       <c r="F52" s="64"/>
@@ -23090,16 +23061,16 @@
     </row>
     <row r="53" spans="1:16" ht="49.5">
       <c r="A53" s="82" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="B53" s="83" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C53" s="83" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D53" s="83" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="E53" s="64"/>
       <c r="F53" s="64"/>
@@ -23116,6 +23087,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="J3:L3"/>
@@ -23124,686 +23100,681 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="279" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="274" priority="240" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:B35 J38:J46 J50:J53">
-    <cfRule type="expression" dxfId="278" priority="171" stopIfTrue="1">
+    <cfRule type="expression" dxfId="273" priority="171" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:B53">
-    <cfRule type="expression" dxfId="277" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="272" priority="104" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="105" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C12 F11:F18 H11:H18 L11:L18 F20:F27 L38 F51:F53 H51:H53 L51:L53">
-    <cfRule type="expression" dxfId="275" priority="354" stopIfTrue="1">
+    <cfRule type="expression" dxfId="270" priority="354" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C12 F20:F27 H11:H18 L11:L18 L51:L53 L38 F11:F18 F51:F53 H51:H53">
-    <cfRule type="expression" dxfId="274" priority="353" stopIfTrue="1">
+    <cfRule type="expression" dxfId="269" priority="353" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:C13">
-    <cfRule type="expression" dxfId="273" priority="273" stopIfTrue="1">
+    <cfRule type="expression" dxfId="268" priority="273" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="274" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="274" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:C14">
-    <cfRule type="expression" dxfId="271" priority="263" stopIfTrue="1">
+    <cfRule type="expression" dxfId="266" priority="263" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="264" stopIfTrue="1">
+    <cfRule type="expression" dxfId="265" priority="264" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:C18">
-    <cfRule type="expression" dxfId="269" priority="253" stopIfTrue="1">
+    <cfRule type="expression" dxfId="264" priority="253" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="254" stopIfTrue="1">
+    <cfRule type="expression" dxfId="263" priority="254" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:C20">
-    <cfRule type="expression" dxfId="267" priority="203" stopIfTrue="1">
+    <cfRule type="expression" dxfId="262" priority="203" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21">
-    <cfRule type="expression" dxfId="266" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="261" priority="61" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:C27">
-    <cfRule type="expression" dxfId="265" priority="216" stopIfTrue="1">
+    <cfRule type="expression" dxfId="260" priority="216" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="217" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="217" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:C49">
-    <cfRule type="expression" dxfId="263" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="9" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="257" priority="10" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:D20">
-    <cfRule type="expression" dxfId="261" priority="201" stopIfTrue="1">
+    <cfRule type="expression" dxfId="256" priority="201" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:D21">
-    <cfRule type="expression" dxfId="260" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="60" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:D22">
-    <cfRule type="expression" dxfId="259" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="254" priority="242" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:D23">
-    <cfRule type="expression" dxfId="258" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="253" priority="237" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:D24">
-    <cfRule type="expression" dxfId="257" priority="224" stopIfTrue="1">
+    <cfRule type="expression" dxfId="252" priority="224" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="225" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="225" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:D38">
-    <cfRule type="expression" dxfId="255" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="250" priority="70" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:D41">
-    <cfRule type="expression" dxfId="254" priority="149" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="149" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="248" priority="150" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:D43">
-    <cfRule type="expression" dxfId="252" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="44" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="246" priority="45" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:D46">
-    <cfRule type="expression" dxfId="250" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="245" priority="26" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="244" priority="27" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="248" priority="262" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="262" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C18">
-    <cfRule type="expression" dxfId="247" priority="251" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="251" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="252" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="252" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:C35">
-    <cfRule type="expression" dxfId="245" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="85" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="86" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:C46">
-    <cfRule type="expression" dxfId="243" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="30" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="237" priority="31" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C49">
-    <cfRule type="expression" dxfId="241" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="236" priority="7" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="8" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:D12">
-    <cfRule type="expression" dxfId="239" priority="351" stopIfTrue="1">
+    <cfRule type="expression" dxfId="234" priority="351" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="352" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="352" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:D13">
-    <cfRule type="expression" dxfId="237" priority="269" stopIfTrue="1">
+    <cfRule type="expression" dxfId="232" priority="269" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:D14">
-    <cfRule type="expression" dxfId="236" priority="260" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="260" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:D20">
-    <cfRule type="expression" dxfId="235" priority="199" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="199" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="200" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:D22 H20:H27 L20:L27 J20:J27 F20 F22">
-    <cfRule type="expression" dxfId="233" priority="317" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="317" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:D32">
-    <cfRule type="expression" dxfId="232" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="174" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="175" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="175" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:D35">
-    <cfRule type="expression" dxfId="230" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="79" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="80" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51:D53">
-    <cfRule type="expression" dxfId="228" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="124" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="125" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D12">
-    <cfRule type="expression" dxfId="226" priority="350" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="350" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D13">
-    <cfRule type="expression" dxfId="225" priority="270" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="270" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="expression" dxfId="224" priority="259" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="259" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D17">
-    <cfRule type="expression" dxfId="223" priority="249" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="249" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="250" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="250" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D17">
-    <cfRule type="expression" dxfId="221" priority="248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="248" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D18">
-    <cfRule type="expression" dxfId="220" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="59" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="219" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="58" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D21">
-    <cfRule type="expression" dxfId="218" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="65" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="217" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="66" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="216" priority="236" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="236" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="238" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D25">
-    <cfRule type="expression" dxfId="214" priority="226" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="226" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="213" priority="321" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="321" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26 D29:D30">
-    <cfRule type="expression" dxfId="212" priority="214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="214" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="215" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="215" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D27">
-    <cfRule type="expression" dxfId="210" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="210" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="211" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="211" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D35">
-    <cfRule type="expression" dxfId="208" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="81" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="82" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D42">
-    <cfRule type="expression" dxfId="206" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="52" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="53" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:D44">
-    <cfRule type="expression" dxfId="204" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="34" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="35" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:D46">
-    <cfRule type="expression" dxfId="202" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="25" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:D48">
-    <cfRule type="expression" dxfId="201" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="6" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:D48">
-    <cfRule type="expression" dxfId="200" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="4" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="5" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:D49">
-    <cfRule type="expression" dxfId="198" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="2" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="expression" dxfId="197" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="1" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:D52">
-    <cfRule type="expression" dxfId="196" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="122" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="123" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E53 H39:I40 L39:N40 I41:I49 M41:N49">
-    <cfRule type="expression" dxfId="194" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="19" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20 H20:H27 J20:J27 L20:L27 F22 C22:C23">
-    <cfRule type="expression" dxfId="193" priority="318" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="318" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:F37">
-    <cfRule type="expression" dxfId="192" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="77" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="78" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:F49 H41:H49 L41:L49 J47:J50">
-    <cfRule type="expression" dxfId="190" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="23" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="189" priority="335" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="335" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="336" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="336" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="337" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="337" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="338" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="338" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G18 K11:K18 G20:G27 K20:K27 G51:G53 K51:K53">
-    <cfRule type="cellIs" dxfId="185" priority="340" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="340" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="341" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="341" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="183" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="193" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="194" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="195" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="195" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="196" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="expression" dxfId="179" priority="183" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="183" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="184" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="185" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="186" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G38 K29:K38">
-    <cfRule type="cellIs" dxfId="175" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="75" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="76" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39:G40">
-    <cfRule type="expression" dxfId="173" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="92" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="93" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="94" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="95" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:G49 K41:K49">
-    <cfRule type="cellIs" dxfId="169" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="20" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="21" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="expression" dxfId="167" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="117" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="118" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="119" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="120" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H18 L11:L18 L51:L53">
-    <cfRule type="expression" dxfId="163" priority="303" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="303" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="304" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="304" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H22">
-    <cfRule type="expression" dxfId="161" priority="208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="208" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="209" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41:H49 J47:J50 L41:L49 F41:F49">
-    <cfRule type="expression" dxfId="159" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="22" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47:H49">
-    <cfRule type="expression" dxfId="158" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="17" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="18" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:I10">
-    <cfRule type="expression" dxfId="156" priority="339" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="339" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:I19">
-    <cfRule type="expression" dxfId="155" priority="197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="197" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:I28">
-    <cfRule type="expression" dxfId="154" priority="187" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="187" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50:I50">
-    <cfRule type="expression" dxfId="153" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="121" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I18 M11:N18 I20:I27 M20:N27 I51:I53 M51:N53">
-    <cfRule type="expression" dxfId="152" priority="319" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="319" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:I38 M29:N38">
-    <cfRule type="expression" dxfId="151" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="69" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:J18">
-    <cfRule type="expression" dxfId="150" priority="332" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="332" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="333" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="333" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:J22">
-    <cfRule type="expression" dxfId="148" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="190" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="191" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="191" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="expression" dxfId="146" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="188" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="189" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="expression" dxfId="144" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="178" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="179" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="179" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J35">
-    <cfRule type="expression" dxfId="142" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="180" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="181" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:J46 J50:J53 B29:B35">
-    <cfRule type="expression" dxfId="140" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="170" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39:J40">
-    <cfRule type="expression" dxfId="139" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="87" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="88" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47:J49">
-    <cfRule type="expression" dxfId="137" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="15" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="16" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20:L22">
-    <cfRule type="expression" dxfId="135" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="204" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="205" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26:L27 L29:L35">
-    <cfRule type="expression" dxfId="133" priority="324" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="324" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="325" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="325" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29:L37 H29:H38 J36:J37 B36:D38">
-    <cfRule type="expression" dxfId="131" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="67" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29:L37 H29:H38 J36:J37">
-    <cfRule type="expression" dxfId="130" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="68" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37:L38">
-    <cfRule type="expression" dxfId="129" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="73" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="74" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L41:L46">
-    <cfRule type="expression" dxfId="127" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="158" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="159" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L47:L49">
-    <cfRule type="expression" dxfId="125" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="13" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="14" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:N10">
-    <cfRule type="expression" dxfId="123" priority="334" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="334" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19:N19">
-    <cfRule type="expression" dxfId="122" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="192" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28:N28">
-    <cfRule type="expression" dxfId="121" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="182" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L50:N50">
-    <cfRule type="expression" dxfId="120" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="116" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23822,8 +23793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB71CD53-2AAB-48AC-BB67-D2E7923328E9}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD38"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13"/>
@@ -24817,29 +24788,29 @@
     </row>
     <row r="3" spans="1:16" ht="16.5">
       <c r="A3" s="143" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B3" s="143"/>
       <c r="C3" s="143"/>
       <c r="D3" s="143"/>
       <c r="F3" s="139" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G3" s="139"/>
       <c r="H3" s="139"/>
       <c r="J3" s="139" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K3" s="139"/>
       <c r="L3" s="139"/>
     </row>
     <row r="4" spans="1:16" ht="16.5">
       <c r="A4" s="59" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="60" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="D4" s="60"/>
       <c r="E4" s="61"/>
@@ -24877,11 +24848,11 @@
     </row>
     <row r="5" spans="1:16" ht="70" customHeight="1">
       <c r="A5" s="59" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B5" s="59"/>
       <c r="C5" s="142" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="D5" s="142"/>
       <c r="E5" s="65"/>
@@ -24909,11 +24880,11 @@
     </row>
     <row r="6" spans="1:16" ht="16.5">
       <c r="A6" s="68" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B6" s="68"/>
       <c r="C6" s="142" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D6" s="142"/>
       <c r="E6" s="65"/>
@@ -24941,7 +24912,7 @@
     </row>
     <row r="7" spans="1:16" ht="16.5">
       <c r="A7" s="68" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B7" s="68"/>
       <c r="C7" s="142"/>
@@ -24953,7 +24924,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="63" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I7" s="65"/>
       <c r="J7" s="141"/>
@@ -24962,7 +24933,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="63" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="M7" s="67"/>
       <c r="N7" s="61"/>
@@ -24971,7 +24942,7 @@
     </row>
     <row r="8" spans="1:16" ht="16.5">
       <c r="A8" s="68" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="B8" s="114"/>
       <c r="C8" s="69"/>
@@ -24983,7 +24954,7 @@
         <v>14</v>
       </c>
       <c r="H8" s="63" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I8" s="70"/>
       <c r="J8" s="69"/>
@@ -24992,7 +24963,7 @@
         <v>14</v>
       </c>
       <c r="L8" s="63" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="M8" s="70"/>
       <c r="N8" s="70"/>
@@ -25001,36 +24972,36 @@
     </row>
     <row r="9" spans="1:16" ht="33">
       <c r="A9" s="71" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D9" s="71" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E9" s="66"/>
       <c r="F9" s="71" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G9" s="71" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H9" s="71" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I9" s="72"/>
       <c r="J9" s="71" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="K9" s="71" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="L9" s="71" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M9" s="73"/>
       <c r="N9" s="73"/>
@@ -25040,7 +25011,7 @@
     <row r="10" spans="1:16" ht="16.5">
       <c r="A10" s="71"/>
       <c r="B10" s="136" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="C10" s="136"/>
       <c r="D10" s="137"/>
@@ -25059,16 +25030,16 @@
     </row>
     <row r="11" spans="1:16" ht="49.5">
       <c r="A11" s="82" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="C11" s="83" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="D11" s="83" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="E11" s="64"/>
       <c r="F11" s="83"/>
@@ -25085,16 +25056,16 @@
     </row>
     <row r="12" spans="1:16" ht="33">
       <c r="A12" s="82" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="B12" s="83" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="C12" s="83" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="D12" s="83" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="E12" s="64"/>
       <c r="F12" s="83"/>
@@ -25111,16 +25082,16 @@
     </row>
     <row r="13" spans="1:16" s="101" customFormat="1" ht="33">
       <c r="A13" s="82" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C13" s="83" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D13" s="83" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E13" s="64"/>
       <c r="F13" s="83"/>
@@ -25135,16 +25106,16 @@
     </row>
     <row r="14" spans="1:16" ht="49.5">
       <c r="A14" s="82" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="B14" s="83" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C14" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="D14" s="83" t="s">
         <v>527</v>
-      </c>
-      <c r="D14" s="83" t="s">
-        <v>538</v>
       </c>
       <c r="E14" s="64"/>
       <c r="F14" s="83"/>
@@ -25161,16 +25132,16 @@
     </row>
     <row r="15" spans="1:16" ht="33">
       <c r="A15" s="82" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="B15" s="83" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="C15" s="83" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="D15" s="83" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="E15" s="64"/>
       <c r="F15" s="83"/>
@@ -25187,16 +25158,16 @@
     </row>
     <row r="16" spans="1:16" ht="33">
       <c r="A16" s="82" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B16" s="116" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="C16" s="116" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="D16" s="117" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="E16" s="64"/>
       <c r="F16" s="118"/>
@@ -25213,16 +25184,16 @@
     </row>
     <row r="17" spans="1:16" ht="33">
       <c r="A17" s="82" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="B17" s="116" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="C17" s="116" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="D17" s="117" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="E17" s="64"/>
       <c r="F17" s="118"/>
@@ -25239,16 +25210,16 @@
     </row>
     <row r="18" spans="1:16" ht="33">
       <c r="A18" s="82" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="B18" s="116" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="C18" s="116" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="D18" s="117" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="E18" s="64"/>
       <c r="F18" s="118"/>
@@ -25265,16 +25236,16 @@
     </row>
     <row r="19" spans="1:16" ht="33">
       <c r="A19" s="82" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="B19" s="116" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="C19" s="116" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="D19" s="117" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="E19" s="64"/>
       <c r="F19" s="118"/>
@@ -25291,16 +25262,16 @@
     </row>
     <row r="20" spans="1:16" ht="33">
       <c r="A20" s="82" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="B20" s="116" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="C20" s="116" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="D20" s="117" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="E20" s="64"/>
       <c r="F20" s="118"/>
@@ -25317,10 +25288,10 @@
     </row>
     <row r="21" spans="1:16" ht="16.5">
       <c r="A21" s="82" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="B21" s="116" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="C21" s="116"/>
       <c r="D21" s="117"/>
@@ -25339,16 +25310,16 @@
     </row>
     <row r="22" spans="1:16" ht="33">
       <c r="A22" s="82" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B22" s="116" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="C22" s="116" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="D22" s="117" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="E22" s="64"/>
       <c r="F22" s="118"/>
@@ -25365,16 +25336,16 @@
     </row>
     <row r="23" spans="1:16" ht="49.5">
       <c r="A23" s="82" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="B23" s="116" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="C23" s="116" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="D23" s="117" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="E23" s="64"/>
       <c r="F23" s="118"/>
@@ -25391,16 +25362,16 @@
     </row>
     <row r="24" spans="1:16" ht="49.5">
       <c r="A24" s="82" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="B24" s="116" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="C24" s="116" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="D24" s="117" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="E24" s="64"/>
       <c r="F24" s="118"/>
@@ -25447,152 +25418,149 @@
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <conditionalFormatting sqref="B11:C12 H11:H12 L11:L12 H14:H25 L14:L25">
-    <cfRule type="expression" dxfId="119" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="176" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="177" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:C14">
-    <cfRule type="expression" dxfId="117" priority="149" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="149" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="150" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:C25">
-    <cfRule type="expression" dxfId="115" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="144" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="145" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="113" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="148" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C25">
-    <cfRule type="expression" dxfId="112" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="143" stopIfTrue="1">
+      <formula>#REF!="NA"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:D12">
+    <cfRule type="expression" dxfId="106" priority="174" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="175" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:D12">
-    <cfRule type="expression" dxfId="110" priority="174" stopIfTrue="1">
+  <conditionalFormatting sqref="C14:D14">
+    <cfRule type="expression" dxfId="104" priority="147" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="175" stopIfTrue="1">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:D25">
+    <cfRule type="expression" dxfId="103" priority="139" stopIfTrue="1">
+      <formula>#REF!="Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:D13 F11:F25">
+    <cfRule type="expression" dxfId="102" priority="10" stopIfTrue="1">
+      <formula>#REF!="Pass"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="11" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:D14">
-    <cfRule type="expression" dxfId="108" priority="147" stopIfTrue="1">
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="100" priority="146" stopIfTrue="1">
+      <formula>#REF!="NA"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:D25">
+    <cfRule type="expression" dxfId="99" priority="140" stopIfTrue="1">
+      <formula>#REF!="NA"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="141" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D13 F11:F25">
-    <cfRule type="expression" dxfId="107" priority="10" stopIfTrue="1">
+  <conditionalFormatting sqref="D15:D25">
+    <cfRule type="expression" dxfId="97" priority="46" stopIfTrue="1">
+      <formula>#REF!="NA"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E25 I11:I25 M11:N25">
+    <cfRule type="expression" dxfId="96" priority="3" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="11" stopIfTrue="1">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="expression" dxfId="95" priority="166" stopIfTrue="1">
+      <formula>#REF!="Pass"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="167" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="105" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="168" stopIfTrue="1">
+      <formula>#REF!="Pass"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="169" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D25">
-    <cfRule type="expression" dxfId="104" priority="140" stopIfTrue="1">
+  <conditionalFormatting sqref="G11:G25 K11:K25">
+    <cfRule type="cellIs" dxfId="91" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:H25 L11:L25 B13:D13 F13">
+    <cfRule type="expression" dxfId="89" priority="1" stopIfTrue="1">
+      <formula>#REF!="Pass"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="2" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="141" stopIfTrue="1">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:I10">
+    <cfRule type="expression" dxfId="87" priority="170" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D25">
-    <cfRule type="expression" dxfId="102" priority="139" stopIfTrue="1">
+  <conditionalFormatting sqref="J10:J12 J14:J25">
+    <cfRule type="expression" dxfId="86" priority="163" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D25">
-    <cfRule type="expression" dxfId="101" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="164" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E25 I11:I25 M11:N25">
-    <cfRule type="expression" dxfId="99" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="J10:J25">
+    <cfRule type="expression" dxfId="84" priority="6" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="98" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="7" stopIfTrue="1">
+      <formula>#REF!="NA"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="expression" dxfId="82" priority="4" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="5" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="168" stopIfTrue="1">
-      <formula>#REF!="Pass"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="95" priority="169" stopIfTrue="1">
-      <formula>#REF!="NA"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G25 K11:K25">
-    <cfRule type="cellIs" dxfId="94" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="9" stopIfTrue="1" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H25 L11:L25 B13:D13 F13">
-    <cfRule type="expression" dxfId="92" priority="1" stopIfTrue="1">
-      <formula>#REF!="Pass"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="91" priority="2" stopIfTrue="1">
-      <formula>#REF!="NA"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10:I10">
-    <cfRule type="expression" dxfId="90" priority="170" stopIfTrue="1">
-      <formula>#REF!="Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10:J12 J14:J25">
-    <cfRule type="expression" dxfId="89" priority="163" stopIfTrue="1">
-      <formula>#REF!="Pass"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="164" stopIfTrue="1">
-      <formula>#REF!="NA"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10:J25">
-    <cfRule type="expression" dxfId="87" priority="6" stopIfTrue="1">
-      <formula>#REF!="Pass"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="7" stopIfTrue="1">
-      <formula>#REF!="NA"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
-    <cfRule type="expression" dxfId="85" priority="4" stopIfTrue="1">
-      <formula>#REF!="Pass"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="5" stopIfTrue="1">
-      <formula>#REF!="NA"</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:N10">
-    <cfRule type="expression" dxfId="83" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="165" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25611,7 +25579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFCC5EE-F5B8-4E41-9AF7-431035B3BB1A}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -26606,29 +26574,29 @@
     </row>
     <row r="3" spans="1:16" ht="16.5">
       <c r="A3" s="143" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B3" s="143"/>
       <c r="C3" s="143"/>
       <c r="D3" s="143"/>
       <c r="F3" s="139" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G3" s="139"/>
       <c r="H3" s="139"/>
       <c r="J3" s="139" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K3" s="139"/>
       <c r="L3" s="139"/>
     </row>
     <row r="4" spans="1:16" ht="16.5">
       <c r="A4" s="59" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="60" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="D4" s="60"/>
       <c r="E4" s="61"/>
@@ -26666,11 +26634,11 @@
     </row>
     <row r="5" spans="1:16" ht="32.5" customHeight="1">
       <c r="A5" s="59" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B5" s="59"/>
       <c r="C5" s="142" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="D5" s="142"/>
       <c r="E5" s="65"/>
@@ -26698,11 +26666,11 @@
     </row>
     <row r="6" spans="1:16" ht="16.5">
       <c r="A6" s="68" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B6" s="68"/>
       <c r="C6" s="142" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D6" s="142"/>
       <c r="E6" s="65"/>
@@ -26730,7 +26698,7 @@
     </row>
     <row r="7" spans="1:16" ht="16.5">
       <c r="A7" s="68" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B7" s="68"/>
       <c r="C7" s="142"/>
@@ -26742,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="63" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I7" s="65"/>
       <c r="J7" s="141"/>
@@ -26751,7 +26719,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="63" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="M7" s="67"/>
       <c r="N7" s="61"/>
@@ -26760,7 +26728,7 @@
     </row>
     <row r="8" spans="1:16" ht="16.5">
       <c r="A8" s="68" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="B8" s="114"/>
       <c r="C8" s="69"/>
@@ -26772,7 +26740,7 @@
         <v>11</v>
       </c>
       <c r="H8" s="63" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I8" s="70"/>
       <c r="J8" s="69"/>
@@ -26781,7 +26749,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="63" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="M8" s="70"/>
       <c r="N8" s="70"/>
@@ -26790,36 +26758,36 @@
     </row>
     <row r="9" spans="1:16" ht="33">
       <c r="A9" s="71" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D9" s="71" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E9" s="66"/>
       <c r="F9" s="71" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G9" s="71" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H9" s="71" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I9" s="72"/>
       <c r="J9" s="71" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="K9" s="71" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="L9" s="71" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M9" s="73"/>
       <c r="N9" s="73"/>
@@ -26829,7 +26797,7 @@
     <row r="10" spans="1:16" ht="16.5">
       <c r="A10" s="71"/>
       <c r="B10" s="136" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="C10" s="136"/>
       <c r="D10" s="137"/>
@@ -26848,13 +26816,13 @@
     </row>
     <row r="11" spans="1:16" ht="49.5">
       <c r="A11" s="82" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="C11" s="83" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="D11" s="83"/>
       <c r="E11" s="64"/>
@@ -26872,16 +26840,16 @@
     </row>
     <row r="12" spans="1:16" s="101" customFormat="1" ht="49.5">
       <c r="A12" s="82" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="B12" s="83" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C12" s="83" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D12" s="83" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E12" s="64"/>
       <c r="F12" s="83"/>
@@ -26896,16 +26864,16 @@
     </row>
     <row r="13" spans="1:16" s="101" customFormat="1" ht="66">
       <c r="A13" s="82" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C13" s="83" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="D13" s="83" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E13" s="64"/>
       <c r="F13" s="83"/>
@@ -26920,16 +26888,16 @@
     </row>
     <row r="14" spans="1:16" s="101" customFormat="1" ht="49.5">
       <c r="A14" s="82" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="B14" s="83" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C14" s="83" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D14" s="83" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E14" s="64"/>
       <c r="F14" s="83"/>
@@ -26944,16 +26912,16 @@
     </row>
     <row r="15" spans="1:16" s="101" customFormat="1" ht="49.5">
       <c r="A15" s="82" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="B15" s="83" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C15" s="83" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D15" s="83" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E15" s="64"/>
       <c r="F15" s="83"/>
@@ -26968,16 +26936,16 @@
     </row>
     <row r="16" spans="1:16" s="101" customFormat="1" ht="49.5">
       <c r="A16" s="82" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="B16" s="83" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C16" s="83" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D16" s="83" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E16" s="64"/>
       <c r="F16" s="83"/>
@@ -26992,16 +26960,16 @@
     </row>
     <row r="17" spans="1:16" s="101" customFormat="1" ht="66">
       <c r="A17" s="82" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="B17" s="83" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C17" s="83" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D17" s="83" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E17" s="64"/>
       <c r="F17" s="83"/>
@@ -27016,16 +26984,16 @@
     </row>
     <row r="18" spans="1:16" s="101" customFormat="1" ht="66">
       <c r="A18" s="82" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C18" s="83" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D18" s="83" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E18" s="64"/>
       <c r="F18" s="83"/>
@@ -27040,16 +27008,16 @@
     </row>
     <row r="19" spans="1:16" s="101" customFormat="1" ht="50.5" customHeight="1">
       <c r="A19" s="82" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="B19" s="83" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C19" s="83" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D19" s="83" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E19" s="64"/>
       <c r="F19" s="83"/>
@@ -27064,16 +27032,16 @@
     </row>
     <row r="20" spans="1:16" s="101" customFormat="1" ht="49.5">
       <c r="A20" s="82" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="B20" s="83" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C20" s="83" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D20" s="83" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="E20" s="64"/>
       <c r="F20" s="83"/>
@@ -27088,16 +27056,16 @@
     </row>
     <row r="21" spans="1:16" s="101" customFormat="1" ht="82.5">
       <c r="A21" s="82" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="B21" s="83" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C21" s="83" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D21" s="83" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E21" s="64"/>
       <c r="F21" s="83"/>
@@ -27430,125 +27398,125 @@
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <conditionalFormatting sqref="B11:C11 H11 L11 F11:F38 H22:H38 L22:L38">
-    <cfRule type="expression" dxfId="82" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="59" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="60" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:C38">
-    <cfRule type="expression" dxfId="80" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="35" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="36" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C38">
-    <cfRule type="expression" dxfId="78" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="33" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="34" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:D11">
-    <cfRule type="expression" dxfId="76" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="57" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="58" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D21">
-    <cfRule type="expression" dxfId="74" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="56" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D37">
-    <cfRule type="expression" dxfId="73" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="32" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D37">
-    <cfRule type="expression" dxfId="72" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="30" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="31" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D38">
-    <cfRule type="expression" dxfId="70" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="25" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="69" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="24" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E38 I11:I38 M11:N38">
-    <cfRule type="expression" dxfId="68" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="23" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10 J12:J21">
-    <cfRule type="expression" dxfId="67" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="51" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="52" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="65" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="49" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="50" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G38 K11:K38">
-    <cfRule type="cellIs" dxfId="63" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="54" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="55" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H38 L11:L38 B12:D21 F12:F21 J22:J38">
-    <cfRule type="expression" dxfId="61" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="26" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="27" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:I10">
-    <cfRule type="expression" dxfId="59" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="53" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:J11">
-    <cfRule type="expression" dxfId="58" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="28" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="29" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:J38">
-    <cfRule type="expression" dxfId="56" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="46" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="47" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:N10">
-    <cfRule type="expression" dxfId="54" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="48" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27567,8 +27535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9160379E-3853-4C3D-AF86-3D25358FBBA1}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13"/>
@@ -28562,29 +28530,29 @@
     </row>
     <row r="3" spans="1:16" ht="16.5">
       <c r="A3" s="143" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B3" s="143"/>
       <c r="C3" s="143"/>
       <c r="D3" s="143"/>
       <c r="F3" s="139" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G3" s="139"/>
       <c r="H3" s="139"/>
       <c r="J3" s="139" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K3" s="139"/>
       <c r="L3" s="139"/>
     </row>
     <row r="4" spans="1:16" ht="16.5">
       <c r="A4" s="59" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="60" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="D4" s="60"/>
       <c r="E4" s="61"/>
@@ -28622,11 +28590,11 @@
     </row>
     <row r="5" spans="1:16" ht="90" customHeight="1">
       <c r="A5" s="59" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B5" s="59"/>
       <c r="C5" s="142" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="D5" s="142"/>
       <c r="E5" s="65"/>
@@ -28654,11 +28622,11 @@
     </row>
     <row r="6" spans="1:16" ht="16.5">
       <c r="A6" s="68" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B6" s="68"/>
       <c r="C6" s="142" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D6" s="142"/>
       <c r="E6" s="65"/>
@@ -28686,7 +28654,7 @@
     </row>
     <row r="7" spans="1:16" ht="16.5">
       <c r="A7" s="68" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B7" s="68"/>
       <c r="C7" s="142"/>
@@ -28698,7 +28666,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="63" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I7" s="65"/>
       <c r="J7" s="141"/>
@@ -28707,7 +28675,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="63" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="M7" s="67"/>
       <c r="N7" s="61"/>
@@ -28716,7 +28684,7 @@
     </row>
     <row r="8" spans="1:16" ht="16.5">
       <c r="A8" s="68" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="B8" s="114"/>
       <c r="C8" s="69"/>
@@ -28725,19 +28693,19 @@
       <c r="F8" s="69"/>
       <c r="G8" s="66">
         <f>COUNTA($A11:$A17)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8" s="63" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I8" s="70"/>
       <c r="J8" s="69"/>
       <c r="K8" s="66">
         <f>COUNTA($A11:$A17)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L8" s="63" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="M8" s="70"/>
       <c r="N8" s="70"/>
@@ -28746,36 +28714,36 @@
     </row>
     <row r="9" spans="1:16" ht="33">
       <c r="A9" s="71" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D9" s="71" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E9" s="66"/>
       <c r="F9" s="71" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G9" s="71" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H9" s="71" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I9" s="72"/>
       <c r="J9" s="71" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="K9" s="71" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="L9" s="71" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M9" s="73"/>
       <c r="N9" s="73"/>
@@ -28785,7 +28753,7 @@
     <row r="10" spans="1:16" ht="16.5">
       <c r="A10" s="71"/>
       <c r="B10" s="136" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="C10" s="136"/>
       <c r="D10" s="137"/>
@@ -28804,13 +28772,13 @@
     </row>
     <row r="11" spans="1:16" ht="66">
       <c r="A11" s="82" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="C11" s="83" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="D11" s="83"/>
       <c r="E11" s="64"/>
@@ -28828,16 +28796,16 @@
     </row>
     <row r="12" spans="1:16" s="101" customFormat="1" ht="82.5">
       <c r="A12" s="82" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="B12" s="83" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="C12" s="83" t="s">
-        <v>588</v>
+        <v>608</v>
       </c>
       <c r="D12" s="83" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="E12" s="64"/>
       <c r="F12" s="83"/>
@@ -28852,16 +28820,16 @@
     </row>
     <row r="13" spans="1:16" s="101" customFormat="1" ht="82.5">
       <c r="A13" s="82" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="C13" s="83" t="s">
-        <v>591</v>
+        <v>607</v>
       </c>
       <c r="D13" s="83" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="E13" s="64"/>
       <c r="F13" s="83"/>
@@ -28876,16 +28844,16 @@
     </row>
     <row r="14" spans="1:16" s="101" customFormat="1" ht="66">
       <c r="A14" s="82" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="B14" s="83" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="C14" s="83" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="D14" s="83" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="E14" s="64"/>
       <c r="F14" s="83"/>
@@ -28898,11 +28866,19 @@
       <c r="M14" s="85"/>
       <c r="N14" s="85"/>
     </row>
-    <row r="15" spans="1:16" s="101" customFormat="1" ht="16.5">
-      <c r="A15" s="82"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
+    <row r="15" spans="1:16" s="101" customFormat="1" ht="82.5">
+      <c r="A15" s="82" t="s">
+        <v>611</v>
+      </c>
+      <c r="B15" s="83" t="s">
+        <v>605</v>
+      </c>
+      <c r="C15" s="83" t="s">
+        <v>609</v>
+      </c>
+      <c r="D15" s="83" t="s">
+        <v>610</v>
+      </c>
       <c r="E15" s="64"/>
       <c r="F15" s="83"/>
       <c r="G15" s="84"/>
@@ -28963,27 +28939,16 @@
     <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
-  <conditionalFormatting sqref="B11:C11 H11:H17 L11:L17 F11:F17 J10:J17 B12:D15">
-    <cfRule type="expression" dxfId="53" priority="28" stopIfTrue="1">
+  <conditionalFormatting sqref="B11:C11 B12:D15 J10:J17 F11:F17 H11:H17 L11:L17 D11:D17">
+    <cfRule type="expression" dxfId="50" priority="28" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="29" stopIfTrue="1">
-      <formula>#REF!="NA"</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:C17">
-    <cfRule type="expression" dxfId="51" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="13" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="14" stopIfTrue="1">
-      <formula>#REF!="NA"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:C17">
-    <cfRule type="expression" dxfId="49" priority="11" stopIfTrue="1">
-      <formula>#REF!="Pass"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="14" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28995,35 +28960,36 @@
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D15">
-    <cfRule type="expression" dxfId="45" priority="25" stopIfTrue="1">
+  <conditionalFormatting sqref="C16:D17">
+    <cfRule type="expression" dxfId="45" priority="8" stopIfTrue="1">
+      <formula>#REF!="Pass"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="9" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D17">
-    <cfRule type="expression" dxfId="44" priority="10" stopIfTrue="1">
+  <conditionalFormatting sqref="D11:D14 J10:J17 F11:F17 H11:H17 L11:L17 B12:D15">
+    <cfRule type="expression" dxfId="43" priority="25" stopIfTrue="1">
+      <formula>#REF!="NA"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D17">
+    <cfRule type="expression" dxfId="42" priority="3" stopIfTrue="1">
+      <formula>#REF!="NA"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E17 I11:I17 M11:N17">
+    <cfRule type="expression" dxfId="41" priority="1" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D17">
-    <cfRule type="expression" dxfId="43" priority="8" stopIfTrue="1">
+  <conditionalFormatting sqref="G10">
+    <cfRule type="expression" dxfId="40" priority="18" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="19" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D17">
-    <cfRule type="expression" dxfId="41" priority="3" stopIfTrue="1">
-      <formula>#REF!="NA"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E17 I11:I17 M11:N17">
-    <cfRule type="expression" dxfId="39" priority="1" stopIfTrue="1">
-      <formula>#REF!="Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
     <cfRule type="expression" dxfId="38" priority="20" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
@@ -29031,50 +28997,47 @@
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="36" priority="18" stopIfTrue="1">
+  <conditionalFormatting sqref="G11:G17 K11:K17">
+    <cfRule type="cellIs" dxfId="36" priority="23" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="24" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:I10">
+    <cfRule type="expression" dxfId="34" priority="22" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="19" stopIfTrue="1">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:J11">
+    <cfRule type="expression" dxfId="33" priority="6" stopIfTrue="1">
+      <formula>#REF!="Pass"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="7" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G17 K11:K17">
-    <cfRule type="cellIs" dxfId="34" priority="23" stopIfTrue="1" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="24" stopIfTrue="1" operator="equal">
-      <formula>"Pass"</formula>
+  <conditionalFormatting sqref="B11:C11">
+    <cfRule type="expression" dxfId="31" priority="29" stopIfTrue="1">
+      <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:J17">
-    <cfRule type="expression" dxfId="32" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="4" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="5" stopIfTrue="1">
       <formula>#REF!="NA"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:I10">
-    <cfRule type="expression" dxfId="30" priority="22" stopIfTrue="1">
+  <conditionalFormatting sqref="L10:N10">
+    <cfRule type="expression" dxfId="28" priority="17" stopIfTrue="1">
       <formula>#REF!="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10:J11">
-    <cfRule type="expression" dxfId="29" priority="6" stopIfTrue="1">
-      <formula>#REF!="Pass"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="7" stopIfTrue="1">
-      <formula>#REF!="NA"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L10:N10">
-    <cfRule type="expression" dxfId="27" priority="17" stopIfTrue="1">
-      <formula>#REF!="Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K65525:K65534 JG65525:JG65534 TC65525:TC65534 ACY65525:ACY65534 AMU65525:AMU65534 AWQ65525:AWQ65534 BGM65525:BGM65534 BQI65525:BQI65534 CAE65525:CAE65534 CKA65525:CKA65534 CTW65525:CTW65534 DDS65525:DDS65534 DNO65525:DNO65534 DXK65525:DXK65534 EHG65525:EHG65534 ERC65525:ERC65534 FAY65525:FAY65534 FKU65525:FKU65534 FUQ65525:FUQ65534 GEM65525:GEM65534 GOI65525:GOI65534 GYE65525:GYE65534 HIA65525:HIA65534 HRW65525:HRW65534 IBS65525:IBS65534 ILO65525:ILO65534 IVK65525:IVK65534 JFG65525:JFG65534 JPC65525:JPC65534 JYY65525:JYY65534 KIU65525:KIU65534 KSQ65525:KSQ65534 LCM65525:LCM65534 LMI65525:LMI65534 LWE65525:LWE65534 MGA65525:MGA65534 MPW65525:MPW65534 MZS65525:MZS65534 NJO65525:NJO65534 NTK65525:NTK65534 ODG65525:ODG65534 ONC65525:ONC65534 OWY65525:OWY65534 PGU65525:PGU65534 PQQ65525:PQQ65534 QAM65525:QAM65534 QKI65525:QKI65534 QUE65525:QUE65534 REA65525:REA65534 RNW65525:RNW65534 RXS65525:RXS65534 SHO65525:SHO65534 SRK65525:SRK65534 TBG65525:TBG65534 TLC65525:TLC65534 TUY65525:TUY65534 UEU65525:UEU65534 UOQ65525:UOQ65534 UYM65525:UYM65534 VII65525:VII65534 VSE65525:VSE65534 WCA65525:WCA65534 WLW65525:WLW65534 WVS65525:WVS65534 K131061:K131070 JG131061:JG131070 TC131061:TC131070 ACY131061:ACY131070 AMU131061:AMU131070 AWQ131061:AWQ131070 BGM131061:BGM131070 BQI131061:BQI131070 CAE131061:CAE131070 CKA131061:CKA131070 CTW131061:CTW131070 DDS131061:DDS131070 DNO131061:DNO131070 DXK131061:DXK131070 EHG131061:EHG131070 ERC131061:ERC131070 FAY131061:FAY131070 FKU131061:FKU131070 FUQ131061:FUQ131070 GEM131061:GEM131070 GOI131061:GOI131070 GYE131061:GYE131070 HIA131061:HIA131070 HRW131061:HRW131070 IBS131061:IBS131070 ILO131061:ILO131070 IVK131061:IVK131070 JFG131061:JFG131070 JPC131061:JPC131070 JYY131061:JYY131070 KIU131061:KIU131070 KSQ131061:KSQ131070 LCM131061:LCM131070 LMI131061:LMI131070 LWE131061:LWE131070 MGA131061:MGA131070 MPW131061:MPW131070 MZS131061:MZS131070 NJO131061:NJO131070 NTK131061:NTK131070 ODG131061:ODG131070 ONC131061:ONC131070 OWY131061:OWY131070 PGU131061:PGU131070 PQQ131061:PQQ131070 QAM131061:QAM131070 QKI131061:QKI131070 QUE131061:QUE131070 REA131061:REA131070 RNW131061:RNW131070 RXS131061:RXS131070 SHO131061:SHO131070 SRK131061:SRK131070 TBG131061:TBG131070 TLC131061:TLC131070 TUY131061:TUY131070 UEU131061:UEU131070 UOQ131061:UOQ131070 UYM131061:UYM131070 VII131061:VII131070 VSE131061:VSE131070 WCA131061:WCA131070 WLW131061:WLW131070 WVS131061:WVS131070 K196597:K196606 JG196597:JG196606 TC196597:TC196606 ACY196597:ACY196606 AMU196597:AMU196606 AWQ196597:AWQ196606 BGM196597:BGM196606 BQI196597:BQI196606 CAE196597:CAE196606 CKA196597:CKA196606 CTW196597:CTW196606 DDS196597:DDS196606 DNO196597:DNO196606 DXK196597:DXK196606 EHG196597:EHG196606 ERC196597:ERC196606 FAY196597:FAY196606 FKU196597:FKU196606 FUQ196597:FUQ196606 GEM196597:GEM196606 GOI196597:GOI196606 GYE196597:GYE196606 HIA196597:HIA196606 HRW196597:HRW196606 IBS196597:IBS196606 ILO196597:ILO196606 IVK196597:IVK196606 JFG196597:JFG196606 JPC196597:JPC196606 JYY196597:JYY196606 KIU196597:KIU196606 KSQ196597:KSQ196606 LCM196597:LCM196606 LMI196597:LMI196606 LWE196597:LWE196606 MGA196597:MGA196606 MPW196597:MPW196606 MZS196597:MZS196606 NJO196597:NJO196606 NTK196597:NTK196606 ODG196597:ODG196606 ONC196597:ONC196606 OWY196597:OWY196606 PGU196597:PGU196606 PQQ196597:PQQ196606 QAM196597:QAM196606 QKI196597:QKI196606 QUE196597:QUE196606 REA196597:REA196606 RNW196597:RNW196606 RXS196597:RXS196606 SHO196597:SHO196606 SRK196597:SRK196606 TBG196597:TBG196606 TLC196597:TLC196606 TUY196597:TUY196606 UEU196597:UEU196606 UOQ196597:UOQ196606 UYM196597:UYM196606 VII196597:VII196606 VSE196597:VSE196606 WCA196597:WCA196606 WLW196597:WLW196606 WVS196597:WVS196606 K262133:K262142 JG262133:JG262142 TC262133:TC262142 ACY262133:ACY262142 AMU262133:AMU262142 AWQ262133:AWQ262142 BGM262133:BGM262142 BQI262133:BQI262142 CAE262133:CAE262142 CKA262133:CKA262142 CTW262133:CTW262142 DDS262133:DDS262142 DNO262133:DNO262142 DXK262133:DXK262142 EHG262133:EHG262142 ERC262133:ERC262142 FAY262133:FAY262142 FKU262133:FKU262142 FUQ262133:FUQ262142 GEM262133:GEM262142 GOI262133:GOI262142 GYE262133:GYE262142 HIA262133:HIA262142 HRW262133:HRW262142 IBS262133:IBS262142 ILO262133:ILO262142 IVK262133:IVK262142 JFG262133:JFG262142 JPC262133:JPC262142 JYY262133:JYY262142 KIU262133:KIU262142 KSQ262133:KSQ262142 LCM262133:LCM262142 LMI262133:LMI262142 LWE262133:LWE262142 MGA262133:MGA262142 MPW262133:MPW262142 MZS262133:MZS262142 NJO262133:NJO262142 NTK262133:NTK262142 ODG262133:ODG262142 ONC262133:ONC262142 OWY262133:OWY262142 PGU262133:PGU262142 PQQ262133:PQQ262142 QAM262133:QAM262142 QKI262133:QKI262142 QUE262133:QUE262142 REA262133:REA262142 RNW262133:RNW262142 RXS262133:RXS262142 SHO262133:SHO262142 SRK262133:SRK262142 TBG262133:TBG262142 TLC262133:TLC262142 TUY262133:TUY262142 UEU262133:UEU262142 UOQ262133:UOQ262142 UYM262133:UYM262142 VII262133:VII262142 VSE262133:VSE262142 WCA262133:WCA262142 WLW262133:WLW262142 WVS262133:WVS262142 K327669:K327678 JG327669:JG327678 TC327669:TC327678 ACY327669:ACY327678 AMU327669:AMU327678 AWQ327669:AWQ327678 BGM327669:BGM327678 BQI327669:BQI327678 CAE327669:CAE327678 CKA327669:CKA327678 CTW327669:CTW327678 DDS327669:DDS327678 DNO327669:DNO327678 DXK327669:DXK327678 EHG327669:EHG327678 ERC327669:ERC327678 FAY327669:FAY327678 FKU327669:FKU327678 FUQ327669:FUQ327678 GEM327669:GEM327678 GOI327669:GOI327678 GYE327669:GYE327678 HIA327669:HIA327678 HRW327669:HRW327678 IBS327669:IBS327678 ILO327669:ILO327678 IVK327669:IVK327678 JFG327669:JFG327678 JPC327669:JPC327678 JYY327669:JYY327678 KIU327669:KIU327678 KSQ327669:KSQ327678 LCM327669:LCM327678 LMI327669:LMI327678 LWE327669:LWE327678 MGA327669:MGA327678 MPW327669:MPW327678 MZS327669:MZS327678 NJO327669:NJO327678 NTK327669:NTK327678 ODG327669:ODG327678 ONC327669:ONC327678 OWY327669:OWY327678 PGU327669:PGU327678 PQQ327669:PQQ327678 QAM327669:QAM327678 QKI327669:QKI327678 QUE327669:QUE327678 REA327669:REA327678 RNW327669:RNW327678 RXS327669:RXS327678 SHO327669:SHO327678 SRK327669:SRK327678 TBG327669:TBG327678 TLC327669:TLC327678 TUY327669:TUY327678 UEU327669:UEU327678 UOQ327669:UOQ327678 UYM327669:UYM327678 VII327669:VII327678 VSE327669:VSE327678 WCA327669:WCA327678 WLW327669:WLW327678 WVS327669:WVS327678 K393205:K393214 JG393205:JG393214 TC393205:TC393214 ACY393205:ACY393214 AMU393205:AMU393214 AWQ393205:AWQ393214 BGM393205:BGM393214 BQI393205:BQI393214 CAE393205:CAE393214 CKA393205:CKA393214 CTW393205:CTW393214 DDS393205:DDS393214 DNO393205:DNO393214 DXK393205:DXK393214 EHG393205:EHG393214 ERC393205:ERC393214 FAY393205:FAY393214 FKU393205:FKU393214 FUQ393205:FUQ393214 GEM393205:GEM393214 GOI393205:GOI393214 GYE393205:GYE393214 HIA393205:HIA393214 HRW393205:HRW393214 IBS393205:IBS393214 ILO393205:ILO393214 IVK393205:IVK393214 JFG393205:JFG393214 JPC393205:JPC393214 JYY393205:JYY393214 KIU393205:KIU393214 KSQ393205:KSQ393214 LCM393205:LCM393214 LMI393205:LMI393214 LWE393205:LWE393214 MGA393205:MGA393214 MPW393205:MPW393214 MZS393205:MZS393214 NJO393205:NJO393214 NTK393205:NTK393214 ODG393205:ODG393214 ONC393205:ONC393214 OWY393205:OWY393214 PGU393205:PGU393214 PQQ393205:PQQ393214 QAM393205:QAM393214 QKI393205:QKI393214 QUE393205:QUE393214 REA393205:REA393214 RNW393205:RNW393214 RXS393205:RXS393214 SHO393205:SHO393214 SRK393205:SRK393214 TBG393205:TBG393214 TLC393205:TLC393214 TUY393205:TUY393214 UEU393205:UEU393214 UOQ393205:UOQ393214 UYM393205:UYM393214 VII393205:VII393214 VSE393205:VSE393214 WCA393205:WCA393214 WLW393205:WLW393214 WVS393205:WVS393214 K458741:K458750 JG458741:JG458750 TC458741:TC458750 ACY458741:ACY458750 AMU458741:AMU458750 AWQ458741:AWQ458750 BGM458741:BGM458750 BQI458741:BQI458750 CAE458741:CAE458750 CKA458741:CKA458750 CTW458741:CTW458750 DDS458741:DDS458750 DNO458741:DNO458750 DXK458741:DXK458750 EHG458741:EHG458750 ERC458741:ERC458750 FAY458741:FAY458750 FKU458741:FKU458750 FUQ458741:FUQ458750 GEM458741:GEM458750 GOI458741:GOI458750 GYE458741:GYE458750 HIA458741:HIA458750 HRW458741:HRW458750 IBS458741:IBS458750 ILO458741:ILO458750 IVK458741:IVK458750 JFG458741:JFG458750 JPC458741:JPC458750 JYY458741:JYY458750 KIU458741:KIU458750 KSQ458741:KSQ458750 LCM458741:LCM458750 LMI458741:LMI458750 LWE458741:LWE458750 MGA458741:MGA458750 MPW458741:MPW458750 MZS458741:MZS458750 NJO458741:NJO458750 NTK458741:NTK458750 ODG458741:ODG458750 ONC458741:ONC458750 OWY458741:OWY458750 PGU458741:PGU458750 PQQ458741:PQQ458750 QAM458741:QAM458750 QKI458741:QKI458750 QUE458741:QUE458750 REA458741:REA458750 RNW458741:RNW458750 RXS458741:RXS458750 SHO458741:SHO458750 SRK458741:SRK458750 TBG458741:TBG458750 TLC458741:TLC458750 TUY458741:TUY458750 UEU458741:UEU458750 UOQ458741:UOQ458750 UYM458741:UYM458750 VII458741:VII458750 VSE458741:VSE458750 WCA458741:WCA458750 WLW458741:WLW458750 WVS458741:WVS458750 K524277:K524286 JG524277:JG524286 TC524277:TC524286 ACY524277:ACY524286 AMU524277:AMU524286 AWQ524277:AWQ524286 BGM524277:BGM524286 BQI524277:BQI524286 CAE524277:CAE524286 CKA524277:CKA524286 CTW524277:CTW524286 DDS524277:DDS524286 DNO524277:DNO524286 DXK524277:DXK524286 EHG524277:EHG524286 ERC524277:ERC524286 FAY524277:FAY524286 FKU524277:FKU524286 FUQ524277:FUQ524286 GEM524277:GEM524286 GOI524277:GOI524286 GYE524277:GYE524286 HIA524277:HIA524286 HRW524277:HRW524286 IBS524277:IBS524286 ILO524277:ILO524286 IVK524277:IVK524286 JFG524277:JFG524286 JPC524277:JPC524286 JYY524277:JYY524286 KIU524277:KIU524286 KSQ524277:KSQ524286 LCM524277:LCM524286 LMI524277:LMI524286 LWE524277:LWE524286 MGA524277:MGA524286 MPW524277:MPW524286 MZS524277:MZS524286 NJO524277:NJO524286 NTK524277:NTK524286 ODG524277:ODG524286 ONC524277:ONC524286 OWY524277:OWY524286 PGU524277:PGU524286 PQQ524277:PQQ524286 QAM524277:QAM524286 QKI524277:QKI524286 QUE524277:QUE524286 REA524277:REA524286 RNW524277:RNW524286 RXS524277:RXS524286 SHO524277:SHO524286 SRK524277:SRK524286 TBG524277:TBG524286 TLC524277:TLC524286 TUY524277:TUY524286 UEU524277:UEU524286 UOQ524277:UOQ524286 UYM524277:UYM524286 VII524277:VII524286 VSE524277:VSE524286 WCA524277:WCA524286 WLW524277:WLW524286 WVS524277:WVS524286 K589813:K589822 JG589813:JG589822 TC589813:TC589822 ACY589813:ACY589822 AMU589813:AMU589822 AWQ589813:AWQ589822 BGM589813:BGM589822 BQI589813:BQI589822 CAE589813:CAE589822 CKA589813:CKA589822 CTW589813:CTW589822 DDS589813:DDS589822 DNO589813:DNO589822 DXK589813:DXK589822 EHG589813:EHG589822 ERC589813:ERC589822 FAY589813:FAY589822 FKU589813:FKU589822 FUQ589813:FUQ589822 GEM589813:GEM589822 GOI589813:GOI589822 GYE589813:GYE589822 HIA589813:HIA589822 HRW589813:HRW589822 IBS589813:IBS589822 ILO589813:ILO589822 IVK589813:IVK589822 JFG589813:JFG589822 JPC589813:JPC589822 JYY589813:JYY589822 KIU589813:KIU589822 KSQ589813:KSQ589822 LCM589813:LCM589822 LMI589813:LMI589822 LWE589813:LWE589822 MGA589813:MGA589822 MPW589813:MPW589822 MZS589813:MZS589822 NJO589813:NJO589822 NTK589813:NTK589822 ODG589813:ODG589822 ONC589813:ONC589822 OWY589813:OWY589822 PGU589813:PGU589822 PQQ589813:PQQ589822 QAM589813:QAM589822 QKI589813:QKI589822 QUE589813:QUE589822 REA589813:REA589822 RNW589813:RNW589822 RXS589813:RXS589822 SHO589813:SHO589822 SRK589813:SRK589822 TBG589813:TBG589822 TLC589813:TLC589822 TUY589813:TUY589822 UEU589813:UEU589822 UOQ589813:UOQ589822 UYM589813:UYM589822 VII589813:VII589822 VSE589813:VSE589822 WCA589813:WCA589822 WLW589813:WLW589822 WVS589813:WVS589822 K655349:K655358 JG655349:JG655358 TC655349:TC655358 ACY655349:ACY655358 AMU655349:AMU655358 AWQ655349:AWQ655358 BGM655349:BGM655358 BQI655349:BQI655358 CAE655349:CAE655358 CKA655349:CKA655358 CTW655349:CTW655358 DDS655349:DDS655358 DNO655349:DNO655358 DXK655349:DXK655358 EHG655349:EHG655358 ERC655349:ERC655358 FAY655349:FAY655358 FKU655349:FKU655358 FUQ655349:FUQ655358 GEM655349:GEM655358 GOI655349:GOI655358 GYE655349:GYE655358 HIA655349:HIA655358 HRW655349:HRW655358 IBS655349:IBS655358 ILO655349:ILO655358 IVK655349:IVK655358 JFG655349:JFG655358 JPC655349:JPC655358 JYY655349:JYY655358 KIU655349:KIU655358 KSQ655349:KSQ655358 LCM655349:LCM655358 LMI655349:LMI655358 LWE655349:LWE655358 MGA655349:MGA655358 MPW655349:MPW655358 MZS655349:MZS655358 NJO655349:NJO655358 NTK655349:NTK655358 ODG655349:ODG655358 ONC655349:ONC655358 OWY655349:OWY655358 PGU655349:PGU655358 PQQ655349:PQQ655358 QAM655349:QAM655358 QKI655349:QKI655358 QUE655349:QUE655358 REA655349:REA655358 RNW655349:RNW655358 RXS655349:RXS655358 SHO655349:SHO655358 SRK655349:SRK655358 TBG655349:TBG655358 TLC655349:TLC655358 TUY655349:TUY655358 UEU655349:UEU655358 UOQ655349:UOQ655358 UYM655349:UYM655358 VII655349:VII655358 VSE655349:VSE655358 WCA655349:WCA655358 WLW655349:WLW655358 WVS655349:WVS655358 K720885:K720894 JG720885:JG720894 TC720885:TC720894 ACY720885:ACY720894 AMU720885:AMU720894 AWQ720885:AWQ720894 BGM720885:BGM720894 BQI720885:BQI720894 CAE720885:CAE720894 CKA720885:CKA720894 CTW720885:CTW720894 DDS720885:DDS720894 DNO720885:DNO720894 DXK720885:DXK720894 EHG720885:EHG720894 ERC720885:ERC720894 FAY720885:FAY720894 FKU720885:FKU720894 FUQ720885:FUQ720894 GEM720885:GEM720894 GOI720885:GOI720894 GYE720885:GYE720894 HIA720885:HIA720894 HRW720885:HRW720894 IBS720885:IBS720894 ILO720885:ILO720894 IVK720885:IVK720894 JFG720885:JFG720894 JPC720885:JPC720894 JYY720885:JYY720894 KIU720885:KIU720894 KSQ720885:KSQ720894 LCM720885:LCM720894 LMI720885:LMI720894 LWE720885:LWE720894 MGA720885:MGA720894 MPW720885:MPW720894 MZS720885:MZS720894 NJO720885:NJO720894 NTK720885:NTK720894 ODG720885:ODG720894 ONC720885:ONC720894 OWY720885:OWY720894 PGU720885:PGU720894 PQQ720885:PQQ720894 QAM720885:QAM720894 QKI720885:QKI720894 QUE720885:QUE720894 REA720885:REA720894 RNW720885:RNW720894 RXS720885:RXS720894 SHO720885:SHO720894 SRK720885:SRK720894 TBG720885:TBG720894 TLC720885:TLC720894 TUY720885:TUY720894 UEU720885:UEU720894 UOQ720885:UOQ720894 UYM720885:UYM720894 VII720885:VII720894 VSE720885:VSE720894 WCA720885:WCA720894 WLW720885:WLW720894 WVS720885:WVS720894 K786421:K786430 JG786421:JG786430 TC786421:TC786430 ACY786421:ACY786430 AMU786421:AMU786430 AWQ786421:AWQ786430 BGM786421:BGM786430 BQI786421:BQI786430 CAE786421:CAE786430 CKA786421:CKA786430 CTW786421:CTW786430 DDS786421:DDS786430 DNO786421:DNO786430 DXK786421:DXK786430 EHG786421:EHG786430 ERC786421:ERC786430 FAY786421:FAY786430 FKU786421:FKU786430 FUQ786421:FUQ786430 GEM786421:GEM786430 GOI786421:GOI786430 GYE786421:GYE786430 HIA786421:HIA786430 HRW786421:HRW786430 IBS786421:IBS786430 ILO786421:ILO786430 IVK786421:IVK786430 JFG786421:JFG786430 JPC786421:JPC786430 JYY786421:JYY786430 KIU786421:KIU786430 KSQ786421:KSQ786430 LCM786421:LCM786430 LMI786421:LMI786430 LWE786421:LWE786430 MGA786421:MGA786430 MPW786421:MPW786430 MZS786421:MZS786430 NJO786421:NJO786430 NTK786421:NTK786430 ODG786421:ODG786430 ONC786421:ONC786430 OWY786421:OWY786430 PGU786421:PGU786430 PQQ786421:PQQ786430 QAM786421:QAM786430 QKI786421:QKI786430 QUE786421:QUE786430 REA786421:REA786430 RNW786421:RNW786430 RXS786421:RXS786430 SHO786421:SHO786430 SRK786421:SRK786430 TBG786421:TBG786430 TLC786421:TLC786430 TUY786421:TUY786430 UEU786421:UEU786430 UOQ786421:UOQ786430 UYM786421:UYM786430 VII786421:VII786430 VSE786421:VSE786430 WCA786421:WCA786430 WLW786421:WLW786430 WVS786421:WVS786430 K851957:K851966 JG851957:JG851966 TC851957:TC851966 ACY851957:ACY851966 AMU851957:AMU851966 AWQ851957:AWQ851966 BGM851957:BGM851966 BQI851957:BQI851966 CAE851957:CAE851966 CKA851957:CKA851966 CTW851957:CTW851966 DDS851957:DDS851966 DNO851957:DNO851966 DXK851957:DXK851966 EHG851957:EHG851966 ERC851957:ERC851966 FAY851957:FAY851966 FKU851957:FKU851966 FUQ851957:FUQ851966 GEM851957:GEM851966 GOI851957:GOI851966 GYE851957:GYE851966 HIA851957:HIA851966 HRW851957:HRW851966 IBS851957:IBS851966 ILO851957:ILO851966 IVK851957:IVK851966 JFG851957:JFG851966 JPC851957:JPC851966 JYY851957:JYY851966 KIU851957:KIU851966 KSQ851957:KSQ851966 LCM851957:LCM851966 LMI851957:LMI851966 LWE851957:LWE851966 MGA851957:MGA851966 MPW851957:MPW851966 MZS851957:MZS851966 NJO851957:NJO851966 NTK851957:NTK851966 ODG851957:ODG851966 ONC851957:ONC851966 OWY851957:OWY851966 PGU851957:PGU851966 PQQ851957:PQQ851966 QAM851957:QAM851966 QKI851957:QKI851966 QUE851957:QUE851966 REA851957:REA851966 RNW851957:RNW851966 RXS851957:RXS851966 SHO851957:SHO851966 SRK851957:SRK851966 TBG851957:TBG851966 TLC851957:TLC851966 TUY851957:TUY851966 UEU851957:UEU851966 UOQ851957:UOQ851966 UYM851957:UYM851966 VII851957:VII851966 VSE851957:VSE851966 WCA851957:WCA851966 WLW851957:WLW851966 WVS851957:WVS851966 K917493:K917502 JG917493:JG917502 TC917493:TC917502 ACY917493:ACY917502 AMU917493:AMU917502 AWQ917493:AWQ917502 BGM917493:BGM917502 BQI917493:BQI917502 CAE917493:CAE917502 CKA917493:CKA917502 CTW917493:CTW917502 DDS917493:DDS917502 DNO917493:DNO917502 DXK917493:DXK917502 EHG917493:EHG917502 ERC917493:ERC917502 FAY917493:FAY917502 FKU917493:FKU917502 FUQ917493:FUQ917502 GEM917493:GEM917502 GOI917493:GOI917502 GYE917493:GYE917502 HIA917493:HIA917502 HRW917493:HRW917502 IBS917493:IBS917502 ILO917493:ILO917502 IVK917493:IVK917502 JFG917493:JFG917502 JPC917493:JPC917502 JYY917493:JYY917502 KIU917493:KIU917502 KSQ917493:KSQ917502 LCM917493:LCM917502 LMI917493:LMI917502 LWE917493:LWE917502 MGA917493:MGA917502 MPW917493:MPW917502 MZS917493:MZS917502 NJO917493:NJO917502 NTK917493:NTK917502 ODG917493:ODG917502 ONC917493:ONC917502 OWY917493:OWY917502 PGU917493:PGU917502 PQQ917493:PQQ917502 QAM917493:QAM917502 QKI917493:QKI917502 QUE917493:QUE917502 REA917493:REA917502 RNW917493:RNW917502 RXS917493:RXS917502 SHO917493:SHO917502 SRK917493:SRK917502 TBG917493:TBG917502 TLC917493:TLC917502 TUY917493:TUY917502 UEU917493:UEU917502 UOQ917493:UOQ917502 UYM917493:UYM917502 VII917493:VII917502 VSE917493:VSE917502 WCA917493:WCA917502 WLW917493:WLW917502 WVS917493:WVS917502 K983029:K983038 JG983029:JG983038 TC983029:TC983038 ACY983029:ACY983038 AMU983029:AMU983038 AWQ983029:AWQ983038 BGM983029:BGM983038 BQI983029:BQI983038 CAE983029:CAE983038 CKA983029:CKA983038 CTW983029:CTW983038 DDS983029:DDS983038 DNO983029:DNO983038 DXK983029:DXK983038 EHG983029:EHG983038 ERC983029:ERC983038 FAY983029:FAY983038 FKU983029:FKU983038 FUQ983029:FUQ983038 GEM983029:GEM983038 GOI983029:GOI983038 GYE983029:GYE983038 HIA983029:HIA983038 HRW983029:HRW983038 IBS983029:IBS983038 ILO983029:ILO983038 IVK983029:IVK983038 JFG983029:JFG983038 JPC983029:JPC983038 JYY983029:JYY983038 KIU983029:KIU983038 KSQ983029:KSQ983038 LCM983029:LCM983038 LMI983029:LMI983038 LWE983029:LWE983038 MGA983029:MGA983038 MPW983029:MPW983038 MZS983029:MZS983038 NJO983029:NJO983038 NTK983029:NTK983038 ODG983029:ODG983038 ONC983029:ONC983038 OWY983029:OWY983038 PGU983029:PGU983038 PQQ983029:PQQ983038 QAM983029:QAM983038 QKI983029:QKI983038 QUE983029:QUE983038 REA983029:REA983038 RNW983029:RNW983038 RXS983029:RXS983038 SHO983029:SHO983038 SRK983029:SRK983038 TBG983029:TBG983038 TLC983029:TLC983038 TUY983029:TUY983038 UEU983029:UEU983038 UOQ983029:UOQ983038 UYM983029:UYM983038 VII983029:VII983038 VSE983029:VSE983038 WCA983029:WCA983038 WLW983029:WLW983038 WVS983029:WVS983038 G65525:G65534 JC65525:JC65534 SY65525:SY65534 ACU65525:ACU65534 AMQ65525:AMQ65534 AWM65525:AWM65534 BGI65525:BGI65534 BQE65525:BQE65534 CAA65525:CAA65534 CJW65525:CJW65534 CTS65525:CTS65534 DDO65525:DDO65534 DNK65525:DNK65534 DXG65525:DXG65534 EHC65525:EHC65534 EQY65525:EQY65534 FAU65525:FAU65534 FKQ65525:FKQ65534 FUM65525:FUM65534 GEI65525:GEI65534 GOE65525:GOE65534 GYA65525:GYA65534 HHW65525:HHW65534 HRS65525:HRS65534 IBO65525:IBO65534 ILK65525:ILK65534 IVG65525:IVG65534 JFC65525:JFC65534 JOY65525:JOY65534 JYU65525:JYU65534 KIQ65525:KIQ65534 KSM65525:KSM65534 LCI65525:LCI65534 LME65525:LME65534 LWA65525:LWA65534 MFW65525:MFW65534 MPS65525:MPS65534 MZO65525:MZO65534 NJK65525:NJK65534 NTG65525:NTG65534 ODC65525:ODC65534 OMY65525:OMY65534 OWU65525:OWU65534 PGQ65525:PGQ65534 PQM65525:PQM65534 QAI65525:QAI65534 QKE65525:QKE65534 QUA65525:QUA65534 RDW65525:RDW65534 RNS65525:RNS65534 RXO65525:RXO65534 SHK65525:SHK65534 SRG65525:SRG65534 TBC65525:TBC65534 TKY65525:TKY65534 TUU65525:TUU65534 UEQ65525:UEQ65534 UOM65525:UOM65534 UYI65525:UYI65534 VIE65525:VIE65534 VSA65525:VSA65534 WBW65525:WBW65534 WLS65525:WLS65534 WVO65525:WVO65534 G131061:G131070 JC131061:JC131070 SY131061:SY131070 ACU131061:ACU131070 AMQ131061:AMQ131070 AWM131061:AWM131070 BGI131061:BGI131070 BQE131061:BQE131070 CAA131061:CAA131070 CJW131061:CJW131070 CTS131061:CTS131070 DDO131061:DDO131070 DNK131061:DNK131070 DXG131061:DXG131070 EHC131061:EHC131070 EQY131061:EQY131070 FAU131061:FAU131070 FKQ131061:FKQ131070 FUM131061:FUM131070 GEI131061:GEI131070 GOE131061:GOE131070 GYA131061:GYA131070 HHW131061:HHW131070 HRS131061:HRS131070 IBO131061:IBO131070 ILK131061:ILK131070 IVG131061:IVG131070 JFC131061:JFC131070 JOY131061:JOY131070 JYU131061:JYU131070 KIQ131061:KIQ131070 KSM131061:KSM131070 LCI131061:LCI131070 LME131061:LME131070 LWA131061:LWA131070 MFW131061:MFW131070 MPS131061:MPS131070 MZO131061:MZO131070 NJK131061:NJK131070 NTG131061:NTG131070 ODC131061:ODC131070 OMY131061:OMY131070 OWU131061:OWU131070 PGQ131061:PGQ131070 PQM131061:PQM131070 QAI131061:QAI131070 QKE131061:QKE131070 QUA131061:QUA131070 RDW131061:RDW131070 RNS131061:RNS131070 RXO131061:RXO131070 SHK131061:SHK131070 SRG131061:SRG131070 TBC131061:TBC131070 TKY131061:TKY131070 TUU131061:TUU131070 UEQ131061:UEQ131070 UOM131061:UOM131070 UYI131061:UYI131070 VIE131061:VIE131070 VSA131061:VSA131070 WBW131061:WBW131070 WLS131061:WLS131070 WVO131061:WVO131070 G196597:G196606 JC196597:JC196606 SY196597:SY196606 ACU196597:ACU196606 AMQ196597:AMQ196606 AWM196597:AWM196606 BGI196597:BGI196606 BQE196597:BQE196606 CAA196597:CAA196606 CJW196597:CJW196606 CTS196597:CTS196606 DDO196597:DDO196606 DNK196597:DNK196606 DXG196597:DXG196606 EHC196597:EHC196606 EQY196597:EQY196606 FAU196597:FAU196606 FKQ196597:FKQ196606 FUM196597:FUM196606 GEI196597:GEI196606 GOE196597:GOE196606 GYA196597:GYA196606 HHW196597:HHW196606 HRS196597:HRS196606 IBO196597:IBO196606 ILK196597:ILK196606 IVG196597:IVG196606 JFC196597:JFC196606 JOY196597:JOY196606 JYU196597:JYU196606 KIQ196597:KIQ196606 KSM196597:KSM196606 LCI196597:LCI196606 LME196597:LME196606 LWA196597:LWA196606 MFW196597:MFW196606 MPS196597:MPS196606 MZO196597:MZO196606 NJK196597:NJK196606 NTG196597:NTG196606 ODC196597:ODC196606 OMY196597:OMY196606 OWU196597:OWU196606 PGQ196597:PGQ196606 PQM196597:PQM196606 QAI196597:QAI196606 QKE196597:QKE196606 QUA196597:QUA196606 RDW196597:RDW196606 RNS196597:RNS196606 RXO196597:RXO196606 SHK196597:SHK196606 SRG196597:SRG196606 TBC196597:TBC196606 TKY196597:TKY196606 TUU196597:TUU196606 UEQ196597:UEQ196606 UOM196597:UOM196606 UYI196597:UYI196606 VIE196597:VIE196606 VSA196597:VSA196606 WBW196597:WBW196606 WLS196597:WLS196606 WVO196597:WVO196606 G262133:G262142 JC262133:JC262142 SY262133:SY262142 ACU262133:ACU262142 AMQ262133:AMQ262142 AWM262133:AWM262142 BGI262133:BGI262142 BQE262133:BQE262142 CAA262133:CAA262142 CJW262133:CJW262142 CTS262133:CTS262142 DDO262133:DDO262142 DNK262133:DNK262142 DXG262133:DXG262142 EHC262133:EHC262142 EQY262133:EQY262142 FAU262133:FAU262142 FKQ262133:FKQ262142 FUM262133:FUM262142 GEI262133:GEI262142 GOE262133:GOE262142 GYA262133:GYA262142 HHW262133:HHW262142 HRS262133:HRS262142 IBO262133:IBO262142 ILK262133:ILK262142 IVG262133:IVG262142 JFC262133:JFC262142 JOY262133:JOY262142 JYU262133:JYU262142 KIQ262133:KIQ262142 KSM262133:KSM262142 LCI262133:LCI262142 LME262133:LME262142 LWA262133:LWA262142 MFW262133:MFW262142 MPS262133:MPS262142 MZO262133:MZO262142 NJK262133:NJK262142 NTG262133:NTG262142 ODC262133:ODC262142 OMY262133:OMY262142 OWU262133:OWU262142 PGQ262133:PGQ262142 PQM262133:PQM262142 QAI262133:QAI262142 QKE262133:QKE262142 QUA262133:QUA262142 RDW262133:RDW262142 RNS262133:RNS262142 RXO262133:RXO262142 SHK262133:SHK262142 SRG262133:SRG262142 TBC262133:TBC262142 TKY262133:TKY262142 TUU262133:TUU262142 UEQ262133:UEQ262142 UOM262133:UOM262142 UYI262133:UYI262142 VIE262133:VIE262142 VSA262133:VSA262142 WBW262133:WBW262142 WLS262133:WLS262142 WVO262133:WVO262142 G327669:G327678 JC327669:JC327678 SY327669:SY327678 ACU327669:ACU327678 AMQ327669:AMQ327678 AWM327669:AWM327678 BGI327669:BGI327678 BQE327669:BQE327678 CAA327669:CAA327678 CJW327669:CJW327678 CTS327669:CTS327678 DDO327669:DDO327678 DNK327669:DNK327678 DXG327669:DXG327678 EHC327669:EHC327678 EQY327669:EQY327678 FAU327669:FAU327678 FKQ327669:FKQ327678 FUM327669:FUM327678 GEI327669:GEI327678 GOE327669:GOE327678 GYA327669:GYA327678 HHW327669:HHW327678 HRS327669:HRS327678 IBO327669:IBO327678 ILK327669:ILK327678 IVG327669:IVG327678 JFC327669:JFC327678 JOY327669:JOY327678 JYU327669:JYU327678 KIQ327669:KIQ327678 KSM327669:KSM327678 LCI327669:LCI327678 LME327669:LME327678 LWA327669:LWA327678 MFW327669:MFW327678 MPS327669:MPS327678 MZO327669:MZO327678 NJK327669:NJK327678 NTG327669:NTG327678 ODC327669:ODC327678 OMY327669:OMY327678 OWU327669:OWU327678 PGQ327669:PGQ327678 PQM327669:PQM327678 QAI327669:QAI327678 QKE327669:QKE327678 QUA327669:QUA327678 RDW327669:RDW327678 RNS327669:RNS327678 RXO327669:RXO327678 SHK327669:SHK327678 SRG327669:SRG327678 TBC327669:TBC327678 TKY327669:TKY327678 TUU327669:TUU327678 UEQ327669:UEQ327678 UOM327669:UOM327678 UYI327669:UYI327678 VIE327669:VIE327678 VSA327669:VSA327678 WBW327669:WBW327678 WLS327669:WLS327678 WVO327669:WVO327678 G393205:G393214 JC393205:JC393214 SY393205:SY393214 ACU393205:ACU393214 AMQ393205:AMQ393214 AWM393205:AWM393214 BGI393205:BGI393214 BQE393205:BQE393214 CAA393205:CAA393214 CJW393205:CJW393214 CTS393205:CTS393214 DDO393205:DDO393214 DNK393205:DNK393214 DXG393205:DXG393214 EHC393205:EHC393214 EQY393205:EQY393214 FAU393205:FAU393214 FKQ393205:FKQ393214 FUM393205:FUM393214 GEI393205:GEI393214 GOE393205:GOE393214 GYA393205:GYA393214 HHW393205:HHW393214 HRS393205:HRS393214 IBO393205:IBO393214 ILK393205:ILK393214 IVG393205:IVG393214 JFC393205:JFC393214 JOY393205:JOY393214 JYU393205:JYU393214 KIQ393205:KIQ393214 KSM393205:KSM393214 LCI393205:LCI393214 LME393205:LME393214 LWA393205:LWA393214 MFW393205:MFW393214 MPS393205:MPS393214 MZO393205:MZO393214 NJK393205:NJK393214 NTG393205:NTG393214 ODC393205:ODC393214 OMY393205:OMY393214 OWU393205:OWU393214 PGQ393205:PGQ393214 PQM393205:PQM393214 QAI393205:QAI393214 QKE393205:QKE393214 QUA393205:QUA393214 RDW393205:RDW393214 RNS393205:RNS393214 RXO393205:RXO393214 SHK393205:SHK393214 SRG393205:SRG393214 TBC393205:TBC393214 TKY393205:TKY393214 TUU393205:TUU393214 UEQ393205:UEQ393214 UOM393205:UOM393214 UYI393205:UYI393214 VIE393205:VIE393214 VSA393205:VSA393214 WBW393205:WBW393214 WLS393205:WLS393214 WVO393205:WVO393214 G458741:G458750 JC458741:JC458750 SY458741:SY458750 ACU458741:ACU458750 AMQ458741:AMQ458750 AWM458741:AWM458750 BGI458741:BGI458750 BQE458741:BQE458750 CAA458741:CAA458750 CJW458741:CJW458750 CTS458741:CTS458750 DDO458741:DDO458750 DNK458741:DNK458750 DXG458741:DXG458750 EHC458741:EHC458750 EQY458741:EQY458750 FAU458741:FAU458750 FKQ458741:FKQ458750 FUM458741:FUM458750 GEI458741:GEI458750 GOE458741:GOE458750 GYA458741:GYA458750 HHW458741:HHW458750 HRS458741:HRS458750 IBO458741:IBO458750 ILK458741:ILK458750 IVG458741:IVG458750 JFC458741:JFC458750 JOY458741:JOY458750 JYU458741:JYU458750 KIQ458741:KIQ458750 KSM458741:KSM458750 LCI458741:LCI458750 LME458741:LME458750 LWA458741:LWA458750 MFW458741:MFW458750 MPS458741:MPS458750 MZO458741:MZO458750 NJK458741:NJK458750 NTG458741:NTG458750 ODC458741:ODC458750 OMY458741:OMY458750 OWU458741:OWU458750 PGQ458741:PGQ458750 PQM458741:PQM458750 QAI458741:QAI458750 QKE458741:QKE458750 QUA458741:QUA458750 RDW458741:RDW458750 RNS458741:RNS458750 RXO458741:RXO458750 SHK458741:SHK458750 SRG458741:SRG458750 TBC458741:TBC458750 TKY458741:TKY458750 TUU458741:TUU458750 UEQ458741:UEQ458750 UOM458741:UOM458750 UYI458741:UYI458750 VIE458741:VIE458750 VSA458741:VSA458750 WBW458741:WBW458750 WLS458741:WLS458750 WVO458741:WVO458750 G524277:G524286 JC524277:JC524286 SY524277:SY524286 ACU524277:ACU524286 AMQ524277:AMQ524286 AWM524277:AWM524286 BGI524277:BGI524286 BQE524277:BQE524286 CAA524277:CAA524286 CJW524277:CJW524286 CTS524277:CTS524286 DDO524277:DDO524286 DNK524277:DNK524286 DXG524277:DXG524286 EHC524277:EHC524286 EQY524277:EQY524286 FAU524277:FAU524286 FKQ524277:FKQ524286 FUM524277:FUM524286 GEI524277:GEI524286 GOE524277:GOE524286 GYA524277:GYA524286 HHW524277:HHW524286 HRS524277:HRS524286 IBO524277:IBO524286 ILK524277:ILK524286 IVG524277:IVG524286 JFC524277:JFC524286 JOY524277:JOY524286 JYU524277:JYU524286 KIQ524277:KIQ524286 KSM524277:KSM524286 LCI524277:LCI524286 LME524277:LME524286 LWA524277:LWA524286 MFW524277:MFW524286 MPS524277:MPS524286 MZO524277:MZO524286 NJK524277:NJK524286 NTG524277:NTG524286 ODC524277:ODC524286 OMY524277:OMY524286 OWU524277:OWU524286 PGQ524277:PGQ524286 PQM524277:PQM524286 QAI524277:QAI524286 QKE524277:QKE524286 QUA524277:QUA524286 RDW524277:RDW524286 RNS524277:RNS524286 RXO524277:RXO524286 SHK524277:SHK524286 SRG524277:SRG524286 TBC524277:TBC524286 TKY524277:TKY524286 TUU524277:TUU524286 UEQ524277:UEQ524286 UOM524277:UOM524286 UYI524277:UYI524286 VIE524277:VIE524286 VSA524277:VSA524286 WBW524277:WBW524286 WLS524277:WLS524286 WVO524277:WVO524286 G589813:G589822 JC589813:JC589822 SY589813:SY589822 ACU589813:ACU589822 AMQ589813:AMQ589822 AWM589813:AWM589822 BGI589813:BGI589822 BQE589813:BQE589822 CAA589813:CAA589822 CJW589813:CJW589822 CTS589813:CTS589822 DDO589813:DDO589822 DNK589813:DNK589822 DXG589813:DXG589822 EHC589813:EHC589822 EQY589813:EQY589822 FAU589813:FAU589822 FKQ589813:FKQ589822 FUM589813:FUM589822 GEI589813:GEI589822 GOE589813:GOE589822 GYA589813:GYA589822 HHW589813:HHW589822 HRS589813:HRS589822 IBO589813:IBO589822 ILK589813:ILK589822 IVG589813:IVG589822 JFC589813:JFC589822 JOY589813:JOY589822 JYU589813:JYU589822 KIQ589813:KIQ589822 KSM589813:KSM589822 LCI589813:LCI589822 LME589813:LME589822 LWA589813:LWA589822 MFW589813:MFW589822 MPS589813:MPS589822 MZO589813:MZO589822 NJK589813:NJK589822 NTG589813:NTG589822 ODC589813:ODC589822 OMY589813:OMY589822 OWU589813:OWU589822 PGQ589813:PGQ589822 PQM589813:PQM589822 QAI589813:QAI589822 QKE589813:QKE589822 QUA589813:QUA589822 RDW589813:RDW589822 RNS589813:RNS589822 RXO589813:RXO589822 SHK589813:SHK589822 SRG589813:SRG589822 TBC589813:TBC589822 TKY589813:TKY589822 TUU589813:TUU589822 UEQ589813:UEQ589822 UOM589813:UOM589822 UYI589813:UYI589822 VIE589813:VIE589822 VSA589813:VSA589822 WBW589813:WBW589822 WLS589813:WLS589822 WVO589813:WVO589822 G655349:G655358 JC655349:JC655358 SY655349:SY655358 ACU655349:ACU655358 AMQ655349:AMQ655358 AWM655349:AWM655358 BGI655349:BGI655358 BQE655349:BQE655358 CAA655349:CAA655358 CJW655349:CJW655358 CTS655349:CTS655358 DDO655349:DDO655358 DNK655349:DNK655358 DXG655349:DXG655358 EHC655349:EHC655358 EQY655349:EQY655358 FAU655349:FAU655358 FKQ655349:FKQ655358 FUM655349:FUM655358 GEI655349:GEI655358 GOE655349:GOE655358 GYA655349:GYA655358 HHW655349:HHW655358 HRS655349:HRS655358 IBO655349:IBO655358 ILK655349:ILK655358 IVG655349:IVG655358 JFC655349:JFC655358 JOY655349:JOY655358 JYU655349:JYU655358 KIQ655349:KIQ655358 KSM655349:KSM655358 LCI655349:LCI655358 LME655349:LME655358 LWA655349:LWA655358 MFW655349:MFW655358 MPS655349:MPS655358 MZO655349:MZO655358 NJK655349:NJK655358 NTG655349:NTG655358 ODC655349:ODC655358 OMY655349:OMY655358 OWU655349:OWU655358 PGQ655349:PGQ655358 PQM655349:PQM655358 QAI655349:QAI655358 QKE655349:QKE655358 QUA655349:QUA655358 RDW655349:RDW655358 RNS655349:RNS655358 RXO655349:RXO655358 SHK655349:SHK655358 SRG655349:SRG655358 TBC655349:TBC655358 TKY655349:TKY655358 TUU655349:TUU655358 UEQ655349:UEQ655358 UOM655349:UOM655358 UYI655349:UYI655358 VIE655349:VIE655358 VSA655349:VSA655358 WBW655349:WBW655358 WLS655349:WLS655358 WVO655349:WVO655358 G720885:G720894 JC720885:JC720894 SY720885:SY720894 ACU720885:ACU720894 AMQ720885:AMQ720894 AWM720885:AWM720894 BGI720885:BGI720894 BQE720885:BQE720894 CAA720885:CAA720894 CJW720885:CJW720894 CTS720885:CTS720894 DDO720885:DDO720894 DNK720885:DNK720894 DXG720885:DXG720894 EHC720885:EHC720894 EQY720885:EQY720894 FAU720885:FAU720894 FKQ720885:FKQ720894 FUM720885:FUM720894 GEI720885:GEI720894 GOE720885:GOE720894 GYA720885:GYA720894 HHW720885:HHW720894 HRS720885:HRS720894 IBO720885:IBO720894 ILK720885:ILK720894 IVG720885:IVG720894 JFC720885:JFC720894 JOY720885:JOY720894 JYU720885:JYU720894 KIQ720885:KIQ720894 KSM720885:KSM720894 LCI720885:LCI720894 LME720885:LME720894 LWA720885:LWA720894 MFW720885:MFW720894 MPS720885:MPS720894 MZO720885:MZO720894 NJK720885:NJK720894 NTG720885:NTG720894 ODC720885:ODC720894 OMY720885:OMY720894 OWU720885:OWU720894 PGQ720885:PGQ720894 PQM720885:PQM720894 QAI720885:QAI720894 QKE720885:QKE720894 QUA720885:QUA720894 RDW720885:RDW720894 RNS720885:RNS720894 RXO720885:RXO720894 SHK720885:SHK720894 SRG720885:SRG720894 TBC720885:TBC720894 TKY720885:TKY720894 TUU720885:TUU720894 UEQ720885:UEQ720894 UOM720885:UOM720894 UYI720885:UYI720894 VIE720885:VIE720894 VSA720885:VSA720894 WBW720885:WBW720894 WLS720885:WLS720894 WVO720885:WVO720894 G786421:G786430 JC786421:JC786430 SY786421:SY786430 ACU786421:ACU786430 AMQ786421:AMQ786430 AWM786421:AWM786430 BGI786421:BGI786430 BQE786421:BQE786430 CAA786421:CAA786430 CJW786421:CJW786430 CTS786421:CTS786430 DDO786421:DDO786430 DNK786421:DNK786430 DXG786421:DXG786430 EHC786421:EHC786430 EQY786421:EQY786430 FAU786421:FAU786430 FKQ786421:FKQ786430 FUM786421:FUM786430 GEI786421:GEI786430 GOE786421:GOE786430 GYA786421:GYA786430 HHW786421:HHW786430 HRS786421:HRS786430 IBO786421:IBO786430 ILK786421:ILK786430 IVG786421:IVG786430 JFC786421:JFC786430 JOY786421:JOY786430 JYU786421:JYU786430 KIQ786421:KIQ786430 KSM786421:KSM786430 LCI786421:LCI786430 LME786421:LME786430 LWA786421:LWA786430 MFW786421:MFW786430 MPS786421:MPS786430 MZO786421:MZO786430 NJK786421:NJK786430 NTG786421:NTG786430 ODC786421:ODC786430 OMY786421:OMY786430 OWU786421:OWU786430 PGQ786421:PGQ786430 PQM786421:PQM786430 QAI786421:QAI786430 QKE786421:QKE786430 QUA786421:QUA786430 RDW786421:RDW786430 RNS786421:RNS786430 RXO786421:RXO786430 SHK786421:SHK786430 SRG786421:SRG786430 TBC786421:TBC786430 TKY786421:TKY786430 TUU786421:TUU786430 UEQ786421:UEQ786430 UOM786421:UOM786430 UYI786421:UYI786430 VIE786421:VIE786430 VSA786421:VSA786430 WBW786421:WBW786430 WLS786421:WLS786430 WVO786421:WVO786430 G851957:G851966 JC851957:JC851966 SY851957:SY851966 ACU851957:ACU851966 AMQ851957:AMQ851966 AWM851957:AWM851966 BGI851957:BGI851966 BQE851957:BQE851966 CAA851957:CAA851966 CJW851957:CJW851966 CTS851957:CTS851966 DDO851957:DDO851966 DNK851957:DNK851966 DXG851957:DXG851966 EHC851957:EHC851966 EQY851957:EQY851966 FAU851957:FAU851966 FKQ851957:FKQ851966 FUM851957:FUM851966 GEI851957:GEI851966 GOE851957:GOE851966 GYA851957:GYA851966 HHW851957:HHW851966 HRS851957:HRS851966 IBO851957:IBO851966 ILK851957:ILK851966 IVG851957:IVG851966 JFC851957:JFC851966 JOY851957:JOY851966 JYU851957:JYU851966 KIQ851957:KIQ851966 KSM851957:KSM851966 LCI851957:LCI851966 LME851957:LME851966 LWA851957:LWA851966 MFW851957:MFW851966 MPS851957:MPS851966 MZO851957:MZO851966 NJK851957:NJK851966 NTG851957:NTG851966 ODC851957:ODC851966 OMY851957:OMY851966 OWU851957:OWU851966 PGQ851957:PGQ851966 PQM851957:PQM851966 QAI851957:QAI851966 QKE851957:QKE851966 QUA851957:QUA851966 RDW851957:RDW851966 RNS851957:RNS851966 RXO851957:RXO851966 SHK851957:SHK851966 SRG851957:SRG851966 TBC851957:TBC851966 TKY851957:TKY851966 TUU851957:TUU851966 UEQ851957:UEQ851966 UOM851957:UOM851966 UYI851957:UYI851966 VIE851957:VIE851966 VSA851957:VSA851966 WBW851957:WBW851966 WLS851957:WLS851966 WVO851957:WVO851966 G917493:G917502 JC917493:JC917502 SY917493:SY917502 ACU917493:ACU917502 AMQ917493:AMQ917502 AWM917493:AWM917502 BGI917493:BGI917502 BQE917493:BQE917502 CAA917493:CAA917502 CJW917493:CJW917502 CTS917493:CTS917502 DDO917493:DDO917502 DNK917493:DNK917502 DXG917493:DXG917502 EHC917493:EHC917502 EQY917493:EQY917502 FAU917493:FAU917502 FKQ917493:FKQ917502 FUM917493:FUM917502 GEI917493:GEI917502 GOE917493:GOE917502 GYA917493:GYA917502 HHW917493:HHW917502 HRS917493:HRS917502 IBO917493:IBO917502 ILK917493:ILK917502 IVG917493:IVG917502 JFC917493:JFC917502 JOY917493:JOY917502 JYU917493:JYU917502 KIQ917493:KIQ917502 KSM917493:KSM917502 LCI917493:LCI917502 LME917493:LME917502 LWA917493:LWA917502 MFW917493:MFW917502 MPS917493:MPS917502 MZO917493:MZO917502 NJK917493:NJK917502 NTG917493:NTG917502 ODC917493:ODC917502 OMY917493:OMY917502 OWU917493:OWU917502 PGQ917493:PGQ917502 PQM917493:PQM917502 QAI917493:QAI917502 QKE917493:QKE917502 QUA917493:QUA917502 RDW917493:RDW917502 RNS917493:RNS917502 RXO917493:RXO917502 SHK917493:SHK917502 SRG917493:SRG917502 TBC917493:TBC917502 TKY917493:TKY917502 TUU917493:TUU917502 UEQ917493:UEQ917502 UOM917493:UOM917502 UYI917493:UYI917502 VIE917493:VIE917502 VSA917493:VSA917502 WBW917493:WBW917502 WLS917493:WLS917502 WVO917493:WVO917502 G983029:G983038 JC983029:JC983038 SY983029:SY983038 ACU983029:ACU983038 AMQ983029:AMQ983038 AWM983029:AWM983038 BGI983029:BGI983038 BQE983029:BQE983038 CAA983029:CAA983038 CJW983029:CJW983038 CTS983029:CTS983038 DDO983029:DDO983038 DNK983029:DNK983038 DXG983029:DXG983038 EHC983029:EHC983038 EQY983029:EQY983038 FAU983029:FAU983038 FKQ983029:FKQ983038 FUM983029:FUM983038 GEI983029:GEI983038 GOE983029:GOE983038 GYA983029:GYA983038 HHW983029:HHW983038 HRS983029:HRS983038 IBO983029:IBO983038 ILK983029:ILK983038 IVG983029:IVG983038 JFC983029:JFC983038 JOY983029:JOY983038 JYU983029:JYU983038 KIQ983029:KIQ983038 KSM983029:KSM983038 LCI983029:LCI983038 LME983029:LME983038 LWA983029:LWA983038 MFW983029:MFW983038 MPS983029:MPS983038 MZO983029:MZO983038 NJK983029:NJK983038 NTG983029:NTG983038 ODC983029:ODC983038 OMY983029:OMY983038 OWU983029:OWU983038 PGQ983029:PGQ983038 PQM983029:PQM983038 QAI983029:QAI983038 QKE983029:QKE983038 QUA983029:QUA983038 RDW983029:RDW983038 RNS983029:RNS983038 RXO983029:RXO983038 SHK983029:SHK983038 SRG983029:SRG983038 TBC983029:TBC983038 TKY983029:TKY983038 TUU983029:TUU983038 UEQ983029:UEQ983038 UOM983029:UOM983038 UYI983029:UYI983038 VIE983029:VIE983038 VSA983029:VSA983038 WBW983029:WBW983038 WLS983029:WLS983038 WVO983029:WVO983038 WLS11:WLS17 WBW11:WBW17 VSA11:VSA17 VIE11:VIE17 UYI11:UYI17 UOM11:UOM17 UEQ11:UEQ17 TUU11:TUU17 TKY11:TKY17 TBC11:TBC17 SRG11:SRG17 SHK11:SHK17 RXO11:RXO17 RNS11:RNS17 RDW11:RDW17 QUA11:QUA17 QKE11:QKE17 QAI11:QAI17 PQM11:PQM17 PGQ11:PGQ17 OWU11:OWU17 OMY11:OMY17 ODC11:ODC17 NTG11:NTG17 NJK11:NJK17 MZO11:MZO17 MPS11:MPS17 MFW11:MFW17 LWA11:LWA17 LME11:LME17 LCI11:LCI17 KSM11:KSM17 KIQ11:KIQ17 JYU11:JYU17 JOY11:JOY17 JFC11:JFC17 IVG11:IVG17 ILK11:ILK17 IBO11:IBO17 HRS11:HRS17 HHW11:HHW17 GYA11:GYA17 GOE11:GOE17 GEI11:GEI17 FUM11:FUM17 FKQ11:FKQ17 FAU11:FAU17 EQY11:EQY17 EHC11:EHC17 DXG11:DXG17 DNK11:DNK17 DDO11:DDO17 CTS11:CTS17 CJW11:CJW17 CAA11:CAA17 BQE11:BQE17 BGI11:BGI17 AWM11:AWM17 AMQ11:AMQ17 ACU11:ACU17 SY11:SY17 JC11:JC17 G11:G17 WVS11:WVS17 WLW11:WLW17 WCA11:WCA17 VSE11:VSE17 VII11:VII17 UYM11:UYM17 UOQ11:UOQ17 UEU11:UEU17 TUY11:TUY17 TLC11:TLC17 TBG11:TBG17 SRK11:SRK17 SHO11:SHO17 RXS11:RXS17 RNW11:RNW17 REA11:REA17 QUE11:QUE17 QKI11:QKI17 QAM11:QAM17 PQQ11:PQQ17 PGU11:PGU17 OWY11:OWY17 ONC11:ONC17 ODG11:ODG17 NTK11:NTK17 NJO11:NJO17 MZS11:MZS17 MPW11:MPW17 MGA11:MGA17 LWE11:LWE17 LMI11:LMI17 LCM11:LCM17 KSQ11:KSQ17 KIU11:KIU17 JYY11:JYY17 JPC11:JPC17 JFG11:JFG17 IVK11:IVK17 ILO11:ILO17 IBS11:IBS17 HRW11:HRW17 HIA11:HIA17 GYE11:GYE17 GOI11:GOI17 GEM11:GEM17 FUQ11:FUQ17 FKU11:FKU17 FAY11:FAY17 ERC11:ERC17 EHG11:EHG17 DXK11:DXK17 DNO11:DNO17 DDS11:DDS17 CTW11:CTW17 CKA11:CKA17 CAE11:CAE17 BQI11:BQI17 BGM11:BGM17 AWQ11:AWQ17 AMU11:AMU17 ACY11:ACY17 TC11:TC17 JG11:JG17 K11:K17 WVO11:WVO17" xr:uid="{E161802E-B59F-490F-A3E5-9D3B9DBC24AC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K65525:K65534 JG65525:JG65534 TC65525:TC65534 ACY65525:ACY65534 AMU65525:AMU65534 AWQ65525:AWQ65534 BGM65525:BGM65534 BQI65525:BQI65534 CAE65525:CAE65534 CKA65525:CKA65534 CTW65525:CTW65534 DDS65525:DDS65534 DNO65525:DNO65534 DXK65525:DXK65534 EHG65525:EHG65534 ERC65525:ERC65534 FAY65525:FAY65534 FKU65525:FKU65534 FUQ65525:FUQ65534 GEM65525:GEM65534 GOI65525:GOI65534 GYE65525:GYE65534 HIA65525:HIA65534 HRW65525:HRW65534 IBS65525:IBS65534 ILO65525:ILO65534 IVK65525:IVK65534 JFG65525:JFG65534 JPC65525:JPC65534 JYY65525:JYY65534 KIU65525:KIU65534 KSQ65525:KSQ65534 LCM65525:LCM65534 LMI65525:LMI65534 LWE65525:LWE65534 MGA65525:MGA65534 MPW65525:MPW65534 MZS65525:MZS65534 NJO65525:NJO65534 NTK65525:NTK65534 ODG65525:ODG65534 ONC65525:ONC65534 OWY65525:OWY65534 PGU65525:PGU65534 PQQ65525:PQQ65534 QAM65525:QAM65534 QKI65525:QKI65534 QUE65525:QUE65534 REA65525:REA65534 RNW65525:RNW65534 RXS65525:RXS65534 SHO65525:SHO65534 SRK65525:SRK65534 TBG65525:TBG65534 TLC65525:TLC65534 TUY65525:TUY65534 UEU65525:UEU65534 UOQ65525:UOQ65534 UYM65525:UYM65534 VII65525:VII65534 VSE65525:VSE65534 WCA65525:WCA65534 WLW65525:WLW65534 WVS65525:WVS65534 K131061:K131070 JG131061:JG131070 TC131061:TC131070 ACY131061:ACY131070 AMU131061:AMU131070 AWQ131061:AWQ131070 BGM131061:BGM131070 BQI131061:BQI131070 CAE131061:CAE131070 CKA131061:CKA131070 CTW131061:CTW131070 DDS131061:DDS131070 DNO131061:DNO131070 DXK131061:DXK131070 EHG131061:EHG131070 ERC131061:ERC131070 FAY131061:FAY131070 FKU131061:FKU131070 FUQ131061:FUQ131070 GEM131061:GEM131070 GOI131061:GOI131070 GYE131061:GYE131070 HIA131061:HIA131070 HRW131061:HRW131070 IBS131061:IBS131070 ILO131061:ILO131070 IVK131061:IVK131070 JFG131061:JFG131070 JPC131061:JPC131070 JYY131061:JYY131070 KIU131061:KIU131070 KSQ131061:KSQ131070 LCM131061:LCM131070 LMI131061:LMI131070 LWE131061:LWE131070 MGA131061:MGA131070 MPW131061:MPW131070 MZS131061:MZS131070 NJO131061:NJO131070 NTK131061:NTK131070 ODG131061:ODG131070 ONC131061:ONC131070 OWY131061:OWY131070 PGU131061:PGU131070 PQQ131061:PQQ131070 QAM131061:QAM131070 QKI131061:QKI131070 QUE131061:QUE131070 REA131061:REA131070 RNW131061:RNW131070 RXS131061:RXS131070 SHO131061:SHO131070 SRK131061:SRK131070 TBG131061:TBG131070 TLC131061:TLC131070 TUY131061:TUY131070 UEU131061:UEU131070 UOQ131061:UOQ131070 UYM131061:UYM131070 VII131061:VII131070 VSE131061:VSE131070 WCA131061:WCA131070 WLW131061:WLW131070 WVS131061:WVS131070 K196597:K196606 JG196597:JG196606 TC196597:TC196606 ACY196597:ACY196606 AMU196597:AMU196606 AWQ196597:AWQ196606 BGM196597:BGM196606 BQI196597:BQI196606 CAE196597:CAE196606 CKA196597:CKA196606 CTW196597:CTW196606 DDS196597:DDS196606 DNO196597:DNO196606 DXK196597:DXK196606 EHG196597:EHG196606 ERC196597:ERC196606 FAY196597:FAY196606 FKU196597:FKU196606 FUQ196597:FUQ196606 GEM196597:GEM196606 GOI196597:GOI196606 GYE196597:GYE196606 HIA196597:HIA196606 HRW196597:HRW196606 IBS196597:IBS196606 ILO196597:ILO196606 IVK196597:IVK196606 JFG196597:JFG196606 JPC196597:JPC196606 JYY196597:JYY196606 KIU196597:KIU196606 KSQ196597:KSQ196606 LCM196597:LCM196606 LMI196597:LMI196606 LWE196597:LWE196606 MGA196597:MGA196606 MPW196597:MPW196606 MZS196597:MZS196606 NJO196597:NJO196606 NTK196597:NTK196606 ODG196597:ODG196606 ONC196597:ONC196606 OWY196597:OWY196606 PGU196597:PGU196606 PQQ196597:PQQ196606 QAM196597:QAM196606 QKI196597:QKI196606 QUE196597:QUE196606 REA196597:REA196606 RNW196597:RNW196606 RXS196597:RXS196606 SHO196597:SHO196606 SRK196597:SRK196606 TBG196597:TBG196606 TLC196597:TLC196606 TUY196597:TUY196606 UEU196597:UEU196606 UOQ196597:UOQ196606 UYM196597:UYM196606 VII196597:VII196606 VSE196597:VSE196606 WCA196597:WCA196606 WLW196597:WLW196606 WVS196597:WVS196606 K262133:K262142 JG262133:JG262142 TC262133:TC262142 ACY262133:ACY262142 AMU262133:AMU262142 AWQ262133:AWQ262142 BGM262133:BGM262142 BQI262133:BQI262142 CAE262133:CAE262142 CKA262133:CKA262142 CTW262133:CTW262142 DDS262133:DDS262142 DNO262133:DNO262142 DXK262133:DXK262142 EHG262133:EHG262142 ERC262133:ERC262142 FAY262133:FAY262142 FKU262133:FKU262142 FUQ262133:FUQ262142 GEM262133:GEM262142 GOI262133:GOI262142 GYE262133:GYE262142 HIA262133:HIA262142 HRW262133:HRW262142 IBS262133:IBS262142 ILO262133:ILO262142 IVK262133:IVK262142 JFG262133:JFG262142 JPC262133:JPC262142 JYY262133:JYY262142 KIU262133:KIU262142 KSQ262133:KSQ262142 LCM262133:LCM262142 LMI262133:LMI262142 LWE262133:LWE262142 MGA262133:MGA262142 MPW262133:MPW262142 MZS262133:MZS262142 NJO262133:NJO262142 NTK262133:NTK262142 ODG262133:ODG262142 ONC262133:ONC262142 OWY262133:OWY262142 PGU262133:PGU262142 PQQ262133:PQQ262142 QAM262133:QAM262142 QKI262133:QKI262142 QUE262133:QUE262142 REA262133:REA262142 RNW262133:RNW262142 RXS262133:RXS262142 SHO262133:SHO262142 SRK262133:SRK262142 TBG262133:TBG262142 TLC262133:TLC262142 TUY262133:TUY262142 UEU262133:UEU262142 UOQ262133:UOQ262142 UYM262133:UYM262142 VII262133:VII262142 VSE262133:VSE262142 WCA262133:WCA262142 WLW262133:WLW262142 WVS262133:WVS262142 K327669:K327678 JG327669:JG327678 TC327669:TC327678 ACY327669:ACY327678 AMU327669:AMU327678 AWQ327669:AWQ327678 BGM327669:BGM327678 BQI327669:BQI327678 CAE327669:CAE327678 CKA327669:CKA327678 CTW327669:CTW327678 DDS327669:DDS327678 DNO327669:DNO327678 DXK327669:DXK327678 EHG327669:EHG327678 ERC327669:ERC327678 FAY327669:FAY327678 FKU327669:FKU327678 FUQ327669:FUQ327678 GEM327669:GEM327678 GOI327669:GOI327678 GYE327669:GYE327678 HIA327669:HIA327678 HRW327669:HRW327678 IBS327669:IBS327678 ILO327669:ILO327678 IVK327669:IVK327678 JFG327669:JFG327678 JPC327669:JPC327678 JYY327669:JYY327678 KIU327669:KIU327678 KSQ327669:KSQ327678 LCM327669:LCM327678 LMI327669:LMI327678 LWE327669:LWE327678 MGA327669:MGA327678 MPW327669:MPW327678 MZS327669:MZS327678 NJO327669:NJO327678 NTK327669:NTK327678 ODG327669:ODG327678 ONC327669:ONC327678 OWY327669:OWY327678 PGU327669:PGU327678 PQQ327669:PQQ327678 QAM327669:QAM327678 QKI327669:QKI327678 QUE327669:QUE327678 REA327669:REA327678 RNW327669:RNW327678 RXS327669:RXS327678 SHO327669:SHO327678 SRK327669:SRK327678 TBG327669:TBG327678 TLC327669:TLC327678 TUY327669:TUY327678 UEU327669:UEU327678 UOQ327669:UOQ327678 UYM327669:UYM327678 VII327669:VII327678 VSE327669:VSE327678 WCA327669:WCA327678 WLW327669:WLW327678 WVS327669:WVS327678 K393205:K393214 JG393205:JG393214 TC393205:TC393214 ACY393205:ACY393214 AMU393205:AMU393214 AWQ393205:AWQ393214 BGM393205:BGM393214 BQI393205:BQI393214 CAE393205:CAE393214 CKA393205:CKA393214 CTW393205:CTW393214 DDS393205:DDS393214 DNO393205:DNO393214 DXK393205:DXK393214 EHG393205:EHG393214 ERC393205:ERC393214 FAY393205:FAY393214 FKU393205:FKU393214 FUQ393205:FUQ393214 GEM393205:GEM393214 GOI393205:GOI393214 GYE393205:GYE393214 HIA393205:HIA393214 HRW393205:HRW393214 IBS393205:IBS393214 ILO393205:ILO393214 IVK393205:IVK393214 JFG393205:JFG393214 JPC393205:JPC393214 JYY393205:JYY393214 KIU393205:KIU393214 KSQ393205:KSQ393214 LCM393205:LCM393214 LMI393205:LMI393214 LWE393205:LWE393214 MGA393205:MGA393214 MPW393205:MPW393214 MZS393205:MZS393214 NJO393205:NJO393214 NTK393205:NTK393214 ODG393205:ODG393214 ONC393205:ONC393214 OWY393205:OWY393214 PGU393205:PGU393214 PQQ393205:PQQ393214 QAM393205:QAM393214 QKI393205:QKI393214 QUE393205:QUE393214 REA393205:REA393214 RNW393205:RNW393214 RXS393205:RXS393214 SHO393205:SHO393214 SRK393205:SRK393214 TBG393205:TBG393214 TLC393205:TLC393214 TUY393205:TUY393214 UEU393205:UEU393214 UOQ393205:UOQ393214 UYM393205:UYM393214 VII393205:VII393214 VSE393205:VSE393214 WCA393205:WCA393214 WLW393205:WLW393214 WVS393205:WVS393214 K458741:K458750 JG458741:JG458750 TC458741:TC458750 ACY458741:ACY458750 AMU458741:AMU458750 AWQ458741:AWQ458750 BGM458741:BGM458750 BQI458741:BQI458750 CAE458741:CAE458750 CKA458741:CKA458750 CTW458741:CTW458750 DDS458741:DDS458750 DNO458741:DNO458750 DXK458741:DXK458750 EHG458741:EHG458750 ERC458741:ERC458750 FAY458741:FAY458750 FKU458741:FKU458750 FUQ458741:FUQ458750 GEM458741:GEM458750 GOI458741:GOI458750 GYE458741:GYE458750 HIA458741:HIA458750 HRW458741:HRW458750 IBS458741:IBS458750 ILO458741:ILO458750 IVK458741:IVK458750 JFG458741:JFG458750 JPC458741:JPC458750 JYY458741:JYY458750 KIU458741:KIU458750 KSQ458741:KSQ458750 LCM458741:LCM458750 LMI458741:LMI458750 LWE458741:LWE458750 MGA458741:MGA458750 MPW458741:MPW458750 MZS458741:MZS458750 NJO458741:NJO458750 NTK458741:NTK458750 ODG458741:ODG458750 ONC458741:ONC458750 OWY458741:OWY458750 PGU458741:PGU458750 PQQ458741:PQQ458750 QAM458741:QAM458750 QKI458741:QKI458750 QUE458741:QUE458750 REA458741:REA458750 RNW458741:RNW458750 RXS458741:RXS458750 SHO458741:SHO458750 SRK458741:SRK458750 TBG458741:TBG458750 TLC458741:TLC458750 TUY458741:TUY458750 UEU458741:UEU458750 UOQ458741:UOQ458750 UYM458741:UYM458750 VII458741:VII458750 VSE458741:VSE458750 WCA458741:WCA458750 WLW458741:WLW458750 WVS458741:WVS458750 K524277:K524286 JG524277:JG524286 TC524277:TC524286 ACY524277:ACY524286 AMU524277:AMU524286 AWQ524277:AWQ524286 BGM524277:BGM524286 BQI524277:BQI524286 CAE524277:CAE524286 CKA524277:CKA524286 CTW524277:CTW524286 DDS524277:DDS524286 DNO524277:DNO524286 DXK524277:DXK524286 EHG524277:EHG524286 ERC524277:ERC524286 FAY524277:FAY524286 FKU524277:FKU524286 FUQ524277:FUQ524286 GEM524277:GEM524286 GOI524277:GOI524286 GYE524277:GYE524286 HIA524277:HIA524286 HRW524277:HRW524286 IBS524277:IBS524286 ILO524277:ILO524286 IVK524277:IVK524286 JFG524277:JFG524286 JPC524277:JPC524286 JYY524277:JYY524286 KIU524277:KIU524286 KSQ524277:KSQ524286 LCM524277:LCM524286 LMI524277:LMI524286 LWE524277:LWE524286 MGA524277:MGA524286 MPW524277:MPW524286 MZS524277:MZS524286 NJO524277:NJO524286 NTK524277:NTK524286 ODG524277:ODG524286 ONC524277:ONC524286 OWY524277:OWY524286 PGU524277:PGU524286 PQQ524277:PQQ524286 QAM524277:QAM524286 QKI524277:QKI524286 QUE524277:QUE524286 REA524277:REA524286 RNW524277:RNW524286 RXS524277:RXS524286 SHO524277:SHO524286 SRK524277:SRK524286 TBG524277:TBG524286 TLC524277:TLC524286 TUY524277:TUY524286 UEU524277:UEU524286 UOQ524277:UOQ524286 UYM524277:UYM524286 VII524277:VII524286 VSE524277:VSE524286 WCA524277:WCA524286 WLW524277:WLW524286 WVS524277:WVS524286 K589813:K589822 JG589813:JG589822 TC589813:TC589822 ACY589813:ACY589822 AMU589813:AMU589822 AWQ589813:AWQ589822 BGM589813:BGM589822 BQI589813:BQI589822 CAE589813:CAE589822 CKA589813:CKA589822 CTW589813:CTW589822 DDS589813:DDS589822 DNO589813:DNO589822 DXK589813:DXK589822 EHG589813:EHG589822 ERC589813:ERC589822 FAY589813:FAY589822 FKU589813:FKU589822 FUQ589813:FUQ589822 GEM589813:GEM589822 GOI589813:GOI589822 GYE589813:GYE589822 HIA589813:HIA589822 HRW589813:HRW589822 IBS589813:IBS589822 ILO589813:ILO589822 IVK589813:IVK589822 JFG589813:JFG589822 JPC589813:JPC589822 JYY589813:JYY589822 KIU589813:KIU589822 KSQ589813:KSQ589822 LCM589813:LCM589822 LMI589813:LMI589822 LWE589813:LWE589822 MGA589813:MGA589822 MPW589813:MPW589822 MZS589813:MZS589822 NJO589813:NJO589822 NTK589813:NTK589822 ODG589813:ODG589822 ONC589813:ONC589822 OWY589813:OWY589822 PGU589813:PGU589822 PQQ589813:PQQ589822 QAM589813:QAM589822 QKI589813:QKI589822 QUE589813:QUE589822 REA589813:REA589822 RNW589813:RNW589822 RXS589813:RXS589822 SHO589813:SHO589822 SRK589813:SRK589822 TBG589813:TBG589822 TLC589813:TLC589822 TUY589813:TUY589822 UEU589813:UEU589822 UOQ589813:UOQ589822 UYM589813:UYM589822 VII589813:VII589822 VSE589813:VSE589822 WCA589813:WCA589822 WLW589813:WLW589822 WVS589813:WVS589822 K655349:K655358 JG655349:JG655358 TC655349:TC655358 ACY655349:ACY655358 AMU655349:AMU655358 AWQ655349:AWQ655358 BGM655349:BGM655358 BQI655349:BQI655358 CAE655349:CAE655358 CKA655349:CKA655358 CTW655349:CTW655358 DDS655349:DDS655358 DNO655349:DNO655358 DXK655349:DXK655358 EHG655349:EHG655358 ERC655349:ERC655358 FAY655349:FAY655358 FKU655349:FKU655358 FUQ655349:FUQ655358 GEM655349:GEM655358 GOI655349:GOI655358 GYE655349:GYE655358 HIA655349:HIA655358 HRW655349:HRW655358 IBS655349:IBS655358 ILO655349:ILO655358 IVK655349:IVK655358 JFG655349:JFG655358 JPC655349:JPC655358 JYY655349:JYY655358 KIU655349:KIU655358 KSQ655349:KSQ655358 LCM655349:LCM655358 LMI655349:LMI655358 LWE655349:LWE655358 MGA655349:MGA655358 MPW655349:MPW655358 MZS655349:MZS655358 NJO655349:NJO655358 NTK655349:NTK655358 ODG655349:ODG655358 ONC655349:ONC655358 OWY655349:OWY655358 PGU655349:PGU655358 PQQ655349:PQQ655358 QAM655349:QAM655358 QKI655349:QKI655358 QUE655349:QUE655358 REA655349:REA655358 RNW655349:RNW655358 RXS655349:RXS655358 SHO655349:SHO655358 SRK655349:SRK655358 TBG655349:TBG655358 TLC655349:TLC655358 TUY655349:TUY655358 UEU655349:UEU655358 UOQ655349:UOQ655358 UYM655349:UYM655358 VII655349:VII655358 VSE655349:VSE655358 WCA655349:WCA655358 WLW655349:WLW655358 WVS655349:WVS655358 K720885:K720894 JG720885:JG720894 TC720885:TC720894 ACY720885:ACY720894 AMU720885:AMU720894 AWQ720885:AWQ720894 BGM720885:BGM720894 BQI720885:BQI720894 CAE720885:CAE720894 CKA720885:CKA720894 CTW720885:CTW720894 DDS720885:DDS720894 DNO720885:DNO720894 DXK720885:DXK720894 EHG720885:EHG720894 ERC720885:ERC720894 FAY720885:FAY720894 FKU720885:FKU720894 FUQ720885:FUQ720894 GEM720885:GEM720894 GOI720885:GOI720894 GYE720885:GYE720894 HIA720885:HIA720894 HRW720885:HRW720894 IBS720885:IBS720894 ILO720885:ILO720894 IVK720885:IVK720894 JFG720885:JFG720894 JPC720885:JPC720894 JYY720885:JYY720894 KIU720885:KIU720894 KSQ720885:KSQ720894 LCM720885:LCM720894 LMI720885:LMI720894 LWE720885:LWE720894 MGA720885:MGA720894 MPW720885:MPW720894 MZS720885:MZS720894 NJO720885:NJO720894 NTK720885:NTK720894 ODG720885:ODG720894 ONC720885:ONC720894 OWY720885:OWY720894 PGU720885:PGU720894 PQQ720885:PQQ720894 QAM720885:QAM720894 QKI720885:QKI720894 QUE720885:QUE720894 REA720885:REA720894 RNW720885:RNW720894 RXS720885:RXS720894 SHO720885:SHO720894 SRK720885:SRK720894 TBG720885:TBG720894 TLC720885:TLC720894 TUY720885:TUY720894 UEU720885:UEU720894 UOQ720885:UOQ720894 UYM720885:UYM720894 VII720885:VII720894 VSE720885:VSE720894 WCA720885:WCA720894 WLW720885:WLW720894 WVS720885:WVS720894 K786421:K786430 JG786421:JG786430 TC786421:TC786430 ACY786421:ACY786430 AMU786421:AMU786430 AWQ786421:AWQ786430 BGM786421:BGM786430 BQI786421:BQI786430 CAE786421:CAE786430 CKA786421:CKA786430 CTW786421:CTW786430 DDS786421:DDS786430 DNO786421:DNO786430 DXK786421:DXK786430 EHG786421:EHG786430 ERC786421:ERC786430 FAY786421:FAY786430 FKU786421:FKU786430 FUQ786421:FUQ786430 GEM786421:GEM786430 GOI786421:GOI786430 GYE786421:GYE786430 HIA786421:HIA786430 HRW786421:HRW786430 IBS786421:IBS786430 ILO786421:ILO786430 IVK786421:IVK786430 JFG786421:JFG786430 JPC786421:JPC786430 JYY786421:JYY786430 KIU786421:KIU786430 KSQ786421:KSQ786430 LCM786421:LCM786430 LMI786421:LMI786430 LWE786421:LWE786430 MGA786421:MGA786430 MPW786421:MPW786430 MZS786421:MZS786430 NJO786421:NJO786430 NTK786421:NTK786430 ODG786421:ODG786430 ONC786421:ONC786430 OWY786421:OWY786430 PGU786421:PGU786430 PQQ786421:PQQ786430 QAM786421:QAM786430 QKI786421:QKI786430 QUE786421:QUE786430 REA786421:REA786430 RNW786421:RNW786430 RXS786421:RXS786430 SHO786421:SHO786430 SRK786421:SRK786430 TBG786421:TBG786430 TLC786421:TLC786430 TUY786421:TUY786430 UEU786421:UEU786430 UOQ786421:UOQ786430 UYM786421:UYM786430 VII786421:VII786430 VSE786421:VSE786430 WCA786421:WCA786430 WLW786421:WLW786430 WVS786421:WVS786430 K851957:K851966 JG851957:JG851966 TC851957:TC851966 ACY851957:ACY851966 AMU851957:AMU851966 AWQ851957:AWQ851966 BGM851957:BGM851966 BQI851957:BQI851966 CAE851957:CAE851966 CKA851957:CKA851966 CTW851957:CTW851966 DDS851957:DDS851966 DNO851957:DNO851966 DXK851957:DXK851966 EHG851957:EHG851966 ERC851957:ERC851966 FAY851957:FAY851966 FKU851957:FKU851966 FUQ851957:FUQ851966 GEM851957:GEM851966 GOI851957:GOI851966 GYE851957:GYE851966 HIA851957:HIA851966 HRW851957:HRW851966 IBS851957:IBS851966 ILO851957:ILO851966 IVK851957:IVK851966 JFG851957:JFG851966 JPC851957:JPC851966 JYY851957:JYY851966 KIU851957:KIU851966 KSQ851957:KSQ851966 LCM851957:LCM851966 LMI851957:LMI851966 LWE851957:LWE851966 MGA851957:MGA851966 MPW851957:MPW851966 MZS851957:MZS851966 NJO851957:NJO851966 NTK851957:NTK851966 ODG851957:ODG851966 ONC851957:ONC851966 OWY851957:OWY851966 PGU851957:PGU851966 PQQ851957:PQQ851966 QAM851957:QAM851966 QKI851957:QKI851966 QUE851957:QUE851966 REA851957:REA851966 RNW851957:RNW851966 RXS851957:RXS851966 SHO851957:SHO851966 SRK851957:SRK851966 TBG851957:TBG851966 TLC851957:TLC851966 TUY851957:TUY851966 UEU851957:UEU851966 UOQ851957:UOQ851966 UYM851957:UYM851966 VII851957:VII851966 VSE851957:VSE851966 WCA851957:WCA851966 WLW851957:WLW851966 WVS851957:WVS851966 K917493:K917502 JG917493:JG917502 TC917493:TC917502 ACY917493:ACY917502 AMU917493:AMU917502 AWQ917493:AWQ917502 BGM917493:BGM917502 BQI917493:BQI917502 CAE917493:CAE917502 CKA917493:CKA917502 CTW917493:CTW917502 DDS917493:DDS917502 DNO917493:DNO917502 DXK917493:DXK917502 EHG917493:EHG917502 ERC917493:ERC917502 FAY917493:FAY917502 FKU917493:FKU917502 FUQ917493:FUQ917502 GEM917493:GEM917502 GOI917493:GOI917502 GYE917493:GYE917502 HIA917493:HIA917502 HRW917493:HRW917502 IBS917493:IBS917502 ILO917493:ILO917502 IVK917493:IVK917502 JFG917493:JFG917502 JPC917493:JPC917502 JYY917493:JYY917502 KIU917493:KIU917502 KSQ917493:KSQ917502 LCM917493:LCM917502 LMI917493:LMI917502 LWE917493:LWE917502 MGA917493:MGA917502 MPW917493:MPW917502 MZS917493:MZS917502 NJO917493:NJO917502 NTK917493:NTK917502 ODG917493:ODG917502 ONC917493:ONC917502 OWY917493:OWY917502 PGU917493:PGU917502 PQQ917493:PQQ917502 QAM917493:QAM917502 QKI917493:QKI917502 QUE917493:QUE917502 REA917493:REA917502 RNW917493:RNW917502 RXS917493:RXS917502 SHO917493:SHO917502 SRK917493:SRK917502 TBG917493:TBG917502 TLC917493:TLC917502 TUY917493:TUY917502 UEU917493:UEU917502 UOQ917493:UOQ917502 UYM917493:UYM917502 VII917493:VII917502 VSE917493:VSE917502 WCA917493:WCA917502 WLW917493:WLW917502 WVS917493:WVS917502 K983029:K983038 JG983029:JG983038 TC983029:TC983038 ACY983029:ACY983038 AMU983029:AMU983038 AWQ983029:AWQ983038 BGM983029:BGM983038 BQI983029:BQI983038 CAE983029:CAE983038 CKA983029:CKA983038 CTW983029:CTW983038 DDS983029:DDS983038 DNO983029:DNO983038 DXK983029:DXK983038 EHG983029:EHG983038 ERC983029:ERC983038 FAY983029:FAY983038 FKU983029:FKU983038 FUQ983029:FUQ983038 GEM983029:GEM983038 GOI983029:GOI983038 GYE983029:GYE983038 HIA983029:HIA983038 HRW983029:HRW983038 IBS983029:IBS983038 ILO983029:ILO983038 IVK983029:IVK983038 JFG983029:JFG983038 JPC983029:JPC983038 JYY983029:JYY983038 KIU983029:KIU983038 KSQ983029:KSQ983038 LCM983029:LCM983038 LMI983029:LMI983038 LWE983029:LWE983038 MGA983029:MGA983038 MPW983029:MPW983038 MZS983029:MZS983038 NJO983029:NJO983038 NTK983029:NTK983038 ODG983029:ODG983038 ONC983029:ONC983038 OWY983029:OWY983038 PGU983029:PGU983038 PQQ983029:PQQ983038 QAM983029:QAM983038 QKI983029:QKI983038 QUE983029:QUE983038 REA983029:REA983038 RNW983029:RNW983038 RXS983029:RXS983038 SHO983029:SHO983038 SRK983029:SRK983038 TBG983029:TBG983038 TLC983029:TLC983038 TUY983029:TUY983038 UEU983029:UEU983038 UOQ983029:UOQ983038 UYM983029:UYM983038 VII983029:VII983038 VSE983029:VSE983038 WCA983029:WCA983038 WLW983029:WLW983038 WVS983029:WVS983038 G65525:G65534 JC65525:JC65534 SY65525:SY65534 ACU65525:ACU65534 AMQ65525:AMQ65534 AWM65525:AWM65534 BGI65525:BGI65534 BQE65525:BQE65534 CAA65525:CAA65534 CJW65525:CJW65534 CTS65525:CTS65534 DDO65525:DDO65534 DNK65525:DNK65534 DXG65525:DXG65534 EHC65525:EHC65534 EQY65525:EQY65534 FAU65525:FAU65534 FKQ65525:FKQ65534 FUM65525:FUM65534 GEI65525:GEI65534 GOE65525:GOE65534 GYA65525:GYA65534 HHW65525:HHW65534 HRS65525:HRS65534 IBO65525:IBO65534 ILK65525:ILK65534 IVG65525:IVG65534 JFC65525:JFC65534 JOY65525:JOY65534 JYU65525:JYU65534 KIQ65525:KIQ65534 KSM65525:KSM65534 LCI65525:LCI65534 LME65525:LME65534 LWA65525:LWA65534 MFW65525:MFW65534 MPS65525:MPS65534 MZO65525:MZO65534 NJK65525:NJK65534 NTG65525:NTG65534 ODC65525:ODC65534 OMY65525:OMY65534 OWU65525:OWU65534 PGQ65525:PGQ65534 PQM65525:PQM65534 QAI65525:QAI65534 QKE65525:QKE65534 QUA65525:QUA65534 RDW65525:RDW65534 RNS65525:RNS65534 RXO65525:RXO65534 SHK65525:SHK65534 SRG65525:SRG65534 TBC65525:TBC65534 TKY65525:TKY65534 TUU65525:TUU65534 UEQ65525:UEQ65534 UOM65525:UOM65534 UYI65525:UYI65534 VIE65525:VIE65534 VSA65525:VSA65534 WBW65525:WBW65534 WLS65525:WLS65534 WVO65525:WVO65534 G131061:G131070 JC131061:JC131070 SY131061:SY131070 ACU131061:ACU131070 AMQ131061:AMQ131070 AWM131061:AWM131070 BGI131061:BGI131070 BQE131061:BQE131070 CAA131061:CAA131070 CJW131061:CJW131070 CTS131061:CTS131070 DDO131061:DDO131070 DNK131061:DNK131070 DXG131061:DXG131070 EHC131061:EHC131070 EQY131061:EQY131070 FAU131061:FAU131070 FKQ131061:FKQ131070 FUM131061:FUM131070 GEI131061:GEI131070 GOE131061:GOE131070 GYA131061:GYA131070 HHW131061:HHW131070 HRS131061:HRS131070 IBO131061:IBO131070 ILK131061:ILK131070 IVG131061:IVG131070 JFC131061:JFC131070 JOY131061:JOY131070 JYU131061:JYU131070 KIQ131061:KIQ131070 KSM131061:KSM131070 LCI131061:LCI131070 LME131061:LME131070 LWA131061:LWA131070 MFW131061:MFW131070 MPS131061:MPS131070 MZO131061:MZO131070 NJK131061:NJK131070 NTG131061:NTG131070 ODC131061:ODC131070 OMY131061:OMY131070 OWU131061:OWU131070 PGQ131061:PGQ131070 PQM131061:PQM131070 QAI131061:QAI131070 QKE131061:QKE131070 QUA131061:QUA131070 RDW131061:RDW131070 RNS131061:RNS131070 RXO131061:RXO131070 SHK131061:SHK131070 SRG131061:SRG131070 TBC131061:TBC131070 TKY131061:TKY131070 TUU131061:TUU131070 UEQ131061:UEQ131070 UOM131061:UOM131070 UYI131061:UYI131070 VIE131061:VIE131070 VSA131061:VSA131070 WBW131061:WBW131070 WLS131061:WLS131070 WVO131061:WVO131070 G196597:G196606 JC196597:JC196606 SY196597:SY196606 ACU196597:ACU196606 AMQ196597:AMQ196606 AWM196597:AWM196606 BGI196597:BGI196606 BQE196597:BQE196606 CAA196597:CAA196606 CJW196597:CJW196606 CTS196597:CTS196606 DDO196597:DDO196606 DNK196597:DNK196606 DXG196597:DXG196606 EHC196597:EHC196606 EQY196597:EQY196606 FAU196597:FAU196606 FKQ196597:FKQ196606 FUM196597:FUM196606 GEI196597:GEI196606 GOE196597:GOE196606 GYA196597:GYA196606 HHW196597:HHW196606 HRS196597:HRS196606 IBO196597:IBO196606 ILK196597:ILK196606 IVG196597:IVG196606 JFC196597:JFC196606 JOY196597:JOY196606 JYU196597:JYU196606 KIQ196597:KIQ196606 KSM196597:KSM196606 LCI196597:LCI196606 LME196597:LME196606 LWA196597:LWA196606 MFW196597:MFW196606 MPS196597:MPS196606 MZO196597:MZO196606 NJK196597:NJK196606 NTG196597:NTG196606 ODC196597:ODC196606 OMY196597:OMY196606 OWU196597:OWU196606 PGQ196597:PGQ196606 PQM196597:PQM196606 QAI196597:QAI196606 QKE196597:QKE196606 QUA196597:QUA196606 RDW196597:RDW196606 RNS196597:RNS196606 RXO196597:RXO196606 SHK196597:SHK196606 SRG196597:SRG196606 TBC196597:TBC196606 TKY196597:TKY196606 TUU196597:TUU196606 UEQ196597:UEQ196606 UOM196597:UOM196606 UYI196597:UYI196606 VIE196597:VIE196606 VSA196597:VSA196606 WBW196597:WBW196606 WLS196597:WLS196606 WVO196597:WVO196606 G262133:G262142 JC262133:JC262142 SY262133:SY262142 ACU262133:ACU262142 AMQ262133:AMQ262142 AWM262133:AWM262142 BGI262133:BGI262142 BQE262133:BQE262142 CAA262133:CAA262142 CJW262133:CJW262142 CTS262133:CTS262142 DDO262133:DDO262142 DNK262133:DNK262142 DXG262133:DXG262142 EHC262133:EHC262142 EQY262133:EQY262142 FAU262133:FAU262142 FKQ262133:FKQ262142 FUM262133:FUM262142 GEI262133:GEI262142 GOE262133:GOE262142 GYA262133:GYA262142 HHW262133:HHW262142 HRS262133:HRS262142 IBO262133:IBO262142 ILK262133:ILK262142 IVG262133:IVG262142 JFC262133:JFC262142 JOY262133:JOY262142 JYU262133:JYU262142 KIQ262133:KIQ262142 KSM262133:KSM262142 LCI262133:LCI262142 LME262133:LME262142 LWA262133:LWA262142 MFW262133:MFW262142 MPS262133:MPS262142 MZO262133:MZO262142 NJK262133:NJK262142 NTG262133:NTG262142 ODC262133:ODC262142 OMY262133:OMY262142 OWU262133:OWU262142 PGQ262133:PGQ262142 PQM262133:PQM262142 QAI262133:QAI262142 QKE262133:QKE262142 QUA262133:QUA262142 RDW262133:RDW262142 RNS262133:RNS262142 RXO262133:RXO262142 SHK262133:SHK262142 SRG262133:SRG262142 TBC262133:TBC262142 TKY262133:TKY262142 TUU262133:TUU262142 UEQ262133:UEQ262142 UOM262133:UOM262142 UYI262133:UYI262142 VIE262133:VIE262142 VSA262133:VSA262142 WBW262133:WBW262142 WLS262133:WLS262142 WVO262133:WVO262142 G327669:G327678 JC327669:JC327678 SY327669:SY327678 ACU327669:ACU327678 AMQ327669:AMQ327678 AWM327669:AWM327678 BGI327669:BGI327678 BQE327669:BQE327678 CAA327669:CAA327678 CJW327669:CJW327678 CTS327669:CTS327678 DDO327669:DDO327678 DNK327669:DNK327678 DXG327669:DXG327678 EHC327669:EHC327678 EQY327669:EQY327678 FAU327669:FAU327678 FKQ327669:FKQ327678 FUM327669:FUM327678 GEI327669:GEI327678 GOE327669:GOE327678 GYA327669:GYA327678 HHW327669:HHW327678 HRS327669:HRS327678 IBO327669:IBO327678 ILK327669:ILK327678 IVG327669:IVG327678 JFC327669:JFC327678 JOY327669:JOY327678 JYU327669:JYU327678 KIQ327669:KIQ327678 KSM327669:KSM327678 LCI327669:LCI327678 LME327669:LME327678 LWA327669:LWA327678 MFW327669:MFW327678 MPS327669:MPS327678 MZO327669:MZO327678 NJK327669:NJK327678 NTG327669:NTG327678 ODC327669:ODC327678 OMY327669:OMY327678 OWU327669:OWU327678 PGQ327669:PGQ327678 PQM327669:PQM327678 QAI327669:QAI327678 QKE327669:QKE327678 QUA327669:QUA327678 RDW327669:RDW327678 RNS327669:RNS327678 RXO327669:RXO327678 SHK327669:SHK327678 SRG327669:SRG327678 TBC327669:TBC327678 TKY327669:TKY327678 TUU327669:TUU327678 UEQ327669:UEQ327678 UOM327669:UOM327678 UYI327669:UYI327678 VIE327669:VIE327678 VSA327669:VSA327678 WBW327669:WBW327678 WLS327669:WLS327678 WVO327669:WVO327678 G393205:G393214 JC393205:JC393214 SY393205:SY393214 ACU393205:ACU393214 AMQ393205:AMQ393214 AWM393205:AWM393214 BGI393205:BGI393214 BQE393205:BQE393214 CAA393205:CAA393214 CJW393205:CJW393214 CTS393205:CTS393214 DDO393205:DDO393214 DNK393205:DNK393214 DXG393205:DXG393214 EHC393205:EHC393214 EQY393205:EQY393214 FAU393205:FAU393214 FKQ393205:FKQ393214 FUM393205:FUM393214 GEI393205:GEI393214 GOE393205:GOE393214 GYA393205:GYA393214 HHW393205:HHW393214 HRS393205:HRS393214 IBO393205:IBO393214 ILK393205:ILK393214 IVG393205:IVG393214 JFC393205:JFC393214 JOY393205:JOY393214 JYU393205:JYU393214 KIQ393205:KIQ393214 KSM393205:KSM393214 LCI393205:LCI393214 LME393205:LME393214 LWA393205:LWA393214 MFW393205:MFW393214 MPS393205:MPS393214 MZO393205:MZO393214 NJK393205:NJK393214 NTG393205:NTG393214 ODC393205:ODC393214 OMY393205:OMY393214 OWU393205:OWU393214 PGQ393205:PGQ393214 PQM393205:PQM393214 QAI393205:QAI393214 QKE393205:QKE393214 QUA393205:QUA393214 RDW393205:RDW393214 RNS393205:RNS393214 RXO393205:RXO393214 SHK393205:SHK393214 SRG393205:SRG393214 TBC393205:TBC393214 TKY393205:TKY393214 TUU393205:TUU393214 UEQ393205:UEQ393214 UOM393205:UOM393214 UYI393205:UYI393214 VIE393205:VIE393214 VSA393205:VSA393214 WBW393205:WBW393214 WLS393205:WLS393214 WVO393205:WVO393214 G458741:G458750 JC458741:JC458750 SY458741:SY458750 ACU458741:ACU458750 AMQ458741:AMQ458750 AWM458741:AWM458750 BGI458741:BGI458750 BQE458741:BQE458750 CAA458741:CAA458750 CJW458741:CJW458750 CTS458741:CTS458750 DDO458741:DDO458750 DNK458741:DNK458750 DXG458741:DXG458750 EHC458741:EHC458750 EQY458741:EQY458750 FAU458741:FAU458750 FKQ458741:FKQ458750 FUM458741:FUM458750 GEI458741:GEI458750 GOE458741:GOE458750 GYA458741:GYA458750 HHW458741:HHW458750 HRS458741:HRS458750 IBO458741:IBO458750 ILK458741:ILK458750 IVG458741:IVG458750 JFC458741:JFC458750 JOY458741:JOY458750 JYU458741:JYU458750 KIQ458741:KIQ458750 KSM458741:KSM458750 LCI458741:LCI458750 LME458741:LME458750 LWA458741:LWA458750 MFW458741:MFW458750 MPS458741:MPS458750 MZO458741:MZO458750 NJK458741:NJK458750 NTG458741:NTG458750 ODC458741:ODC458750 OMY458741:OMY458750 OWU458741:OWU458750 PGQ458741:PGQ458750 PQM458741:PQM458750 QAI458741:QAI458750 QKE458741:QKE458750 QUA458741:QUA458750 RDW458741:RDW458750 RNS458741:RNS458750 RXO458741:RXO458750 SHK458741:SHK458750 SRG458741:SRG458750 TBC458741:TBC458750 TKY458741:TKY458750 TUU458741:TUU458750 UEQ458741:UEQ458750 UOM458741:UOM458750 UYI458741:UYI458750 VIE458741:VIE458750 VSA458741:VSA458750 WBW458741:WBW458750 WLS458741:WLS458750 WVO458741:WVO458750 G524277:G524286 JC524277:JC524286 SY524277:SY524286 ACU524277:ACU524286 AMQ524277:AMQ524286 AWM524277:AWM524286 BGI524277:BGI524286 BQE524277:BQE524286 CAA524277:CAA524286 CJW524277:CJW524286 CTS524277:CTS524286 DDO524277:DDO524286 DNK524277:DNK524286 DXG524277:DXG524286 EHC524277:EHC524286 EQY524277:EQY524286 FAU524277:FAU524286 FKQ524277:FKQ524286 FUM524277:FUM524286 GEI524277:GEI524286 GOE524277:GOE524286 GYA524277:GYA524286 HHW524277:HHW524286 HRS524277:HRS524286 IBO524277:IBO524286 ILK524277:ILK524286 IVG524277:IVG524286 JFC524277:JFC524286 JOY524277:JOY524286 JYU524277:JYU524286 KIQ524277:KIQ524286 KSM524277:KSM524286 LCI524277:LCI524286 LME524277:LME524286 LWA524277:LWA524286 MFW524277:MFW524286 MPS524277:MPS524286 MZO524277:MZO524286 NJK524277:NJK524286 NTG524277:NTG524286 ODC524277:ODC524286 OMY524277:OMY524286 OWU524277:OWU524286 PGQ524277:PGQ524286 PQM524277:PQM524286 QAI524277:QAI524286 QKE524277:QKE524286 QUA524277:QUA524286 RDW524277:RDW524286 RNS524277:RNS524286 RXO524277:RXO524286 SHK524277:SHK524286 SRG524277:SRG524286 TBC524277:TBC524286 TKY524277:TKY524286 TUU524277:TUU524286 UEQ524277:UEQ524286 UOM524277:UOM524286 UYI524277:UYI524286 VIE524277:VIE524286 VSA524277:VSA524286 WBW524277:WBW524286 WLS524277:WLS524286 WVO524277:WVO524286 G589813:G589822 JC589813:JC589822 SY589813:SY589822 ACU589813:ACU589822 AMQ589813:AMQ589822 AWM589813:AWM589822 BGI589813:BGI589822 BQE589813:BQE589822 CAA589813:CAA589822 CJW589813:CJW589822 CTS589813:CTS589822 DDO589813:DDO589822 DNK589813:DNK589822 DXG589813:DXG589822 EHC589813:EHC589822 EQY589813:EQY589822 FAU589813:FAU589822 FKQ589813:FKQ589822 FUM589813:FUM589822 GEI589813:GEI589822 GOE589813:GOE589822 GYA589813:GYA589822 HHW589813:HHW589822 HRS589813:HRS589822 IBO589813:IBO589822 ILK589813:ILK589822 IVG589813:IVG589822 JFC589813:JFC589822 JOY589813:JOY589822 JYU589813:JYU589822 KIQ589813:KIQ589822 KSM589813:KSM589822 LCI589813:LCI589822 LME589813:LME589822 LWA589813:LWA589822 MFW589813:MFW589822 MPS589813:MPS589822 MZO589813:MZO589822 NJK589813:NJK589822 NTG589813:NTG589822 ODC589813:ODC589822 OMY589813:OMY589822 OWU589813:OWU589822 PGQ589813:PGQ589822 PQM589813:PQM589822 QAI589813:QAI589822 QKE589813:QKE589822 QUA589813:QUA589822 RDW589813:RDW589822 RNS589813:RNS589822 RXO589813:RXO589822 SHK589813:SHK589822 SRG589813:SRG589822 TBC589813:TBC589822 TKY589813:TKY589822 TUU589813:TUU589822 UEQ589813:UEQ589822 UOM589813:UOM589822 UYI589813:UYI589822 VIE589813:VIE589822 VSA589813:VSA589822 WBW589813:WBW589822 WLS589813:WLS589822 WVO589813:WVO589822 G655349:G655358 JC655349:JC655358 SY655349:SY655358 ACU655349:ACU655358 AMQ655349:AMQ655358 AWM655349:AWM655358 BGI655349:BGI655358 BQE655349:BQE655358 CAA655349:CAA655358 CJW655349:CJW655358 CTS655349:CTS655358 DDO655349:DDO655358 DNK655349:DNK655358 DXG655349:DXG655358 EHC655349:EHC655358 EQY655349:EQY655358 FAU655349:FAU655358 FKQ655349:FKQ655358 FUM655349:FUM655358 GEI655349:GEI655358 GOE655349:GOE655358 GYA655349:GYA655358 HHW655349:HHW655358 HRS655349:HRS655358 IBO655349:IBO655358 ILK655349:ILK655358 IVG655349:IVG655358 JFC655349:JFC655358 JOY655349:JOY655358 JYU655349:JYU655358 KIQ655349:KIQ655358 KSM655349:KSM655358 LCI655349:LCI655358 LME655349:LME655358 LWA655349:LWA655358 MFW655349:MFW655358 MPS655349:MPS655358 MZO655349:MZO655358 NJK655349:NJK655358 NTG655349:NTG655358 ODC655349:ODC655358 OMY655349:OMY655358 OWU655349:OWU655358 PGQ655349:PGQ655358 PQM655349:PQM655358 QAI655349:QAI655358 QKE655349:QKE655358 QUA655349:QUA655358 RDW655349:RDW655358 RNS655349:RNS655358 RXO655349:RXO655358 SHK655349:SHK655358 SRG655349:SRG655358 TBC655349:TBC655358 TKY655349:TKY655358 TUU655349:TUU655358 UEQ655349:UEQ655358 UOM655349:UOM655358 UYI655349:UYI655358 VIE655349:VIE655358 VSA655349:VSA655358 WBW655349:WBW655358 WLS655349:WLS655358 WVO655349:WVO655358 G720885:G720894 JC720885:JC720894 SY720885:SY720894 ACU720885:ACU720894 AMQ720885:AMQ720894 AWM720885:AWM720894 BGI720885:BGI720894 BQE720885:BQE720894 CAA720885:CAA720894 CJW720885:CJW720894 CTS720885:CTS720894 DDO720885:DDO720894 DNK720885:DNK720894 DXG720885:DXG720894 EHC720885:EHC720894 EQY720885:EQY720894 FAU720885:FAU720894 FKQ720885:FKQ720894 FUM720885:FUM720894 GEI720885:GEI720894 GOE720885:GOE720894 GYA720885:GYA720894 HHW720885:HHW720894 HRS720885:HRS720894 IBO720885:IBO720894 ILK720885:ILK720894 IVG720885:IVG720894 JFC720885:JFC720894 JOY720885:JOY720894 JYU720885:JYU720894 KIQ720885:KIQ720894 KSM720885:KSM720894 LCI720885:LCI720894 LME720885:LME720894 LWA720885:LWA720894 MFW720885:MFW720894 MPS720885:MPS720894 MZO720885:MZO720894 NJK720885:NJK720894 NTG720885:NTG720894 ODC720885:ODC720894 OMY720885:OMY720894 OWU720885:OWU720894 PGQ720885:PGQ720894 PQM720885:PQM720894 QAI720885:QAI720894 QKE720885:QKE720894 QUA720885:QUA720894 RDW720885:RDW720894 RNS720885:RNS720894 RXO720885:RXO720894 SHK720885:SHK720894 SRG720885:SRG720894 TBC720885:TBC720894 TKY720885:TKY720894 TUU720885:TUU720894 UEQ720885:UEQ720894 UOM720885:UOM720894 UYI720885:UYI720894 VIE720885:VIE720894 VSA720885:VSA720894 WBW720885:WBW720894 WLS720885:WLS720894 WVO720885:WVO720894 G786421:G786430 JC786421:JC786430 SY786421:SY786430 ACU786421:ACU786430 AMQ786421:AMQ786430 AWM786421:AWM786430 BGI786421:BGI786430 BQE786421:BQE786430 CAA786421:CAA786430 CJW786421:CJW786430 CTS786421:CTS786430 DDO786421:DDO786430 DNK786421:DNK786430 DXG786421:DXG786430 EHC786421:EHC786430 EQY786421:EQY786430 FAU786421:FAU786430 FKQ786421:FKQ786430 FUM786421:FUM786430 GEI786421:GEI786430 GOE786421:GOE786430 GYA786421:GYA786430 HHW786421:HHW786430 HRS786421:HRS786430 IBO786421:IBO786430 ILK786421:ILK786430 IVG786421:IVG786430 JFC786421:JFC786430 JOY786421:JOY786430 JYU786421:JYU786430 KIQ786421:KIQ786430 KSM786421:KSM786430 LCI786421:LCI786430 LME786421:LME786430 LWA786421:LWA786430 MFW786421:MFW786430 MPS786421:MPS786430 MZO786421:MZO786430 NJK786421:NJK786430 NTG786421:NTG786430 ODC786421:ODC786430 OMY786421:OMY786430 OWU786421:OWU786430 PGQ786421:PGQ786430 PQM786421:PQM786430 QAI786421:QAI786430 QKE786421:QKE786430 QUA786421:QUA786430 RDW786421:RDW786430 RNS786421:RNS786430 RXO786421:RXO786430 SHK786421:SHK786430 SRG786421:SRG786430 TBC786421:TBC786430 TKY786421:TKY786430 TUU786421:TUU786430 UEQ786421:UEQ786430 UOM786421:UOM786430 UYI786421:UYI786430 VIE786421:VIE786430 VSA786421:VSA786430 WBW786421:WBW786430 WLS786421:WLS786430 WVO786421:WVO786430 G851957:G851966 JC851957:JC851966 SY851957:SY851966 ACU851957:ACU851966 AMQ851957:AMQ851966 AWM851957:AWM851966 BGI851957:BGI851966 BQE851957:BQE851966 CAA851957:CAA851966 CJW851957:CJW851966 CTS851957:CTS851966 DDO851957:DDO851966 DNK851957:DNK851966 DXG851957:DXG851966 EHC851957:EHC851966 EQY851957:EQY851966 FAU851957:FAU851966 FKQ851957:FKQ851966 FUM851957:FUM851966 GEI851957:GEI851966 GOE851957:GOE851966 GYA851957:GYA851966 HHW851957:HHW851966 HRS851957:HRS851966 IBO851957:IBO851966 ILK851957:ILK851966 IVG851957:IVG851966 JFC851957:JFC851966 JOY851957:JOY851966 JYU851957:JYU851966 KIQ851957:KIQ851966 KSM851957:KSM851966 LCI851957:LCI851966 LME851957:LME851966 LWA851957:LWA851966 MFW851957:MFW851966 MPS851957:MPS851966 MZO851957:MZO851966 NJK851957:NJK851966 NTG851957:NTG851966 ODC851957:ODC851966 OMY851957:OMY851966 OWU851957:OWU851966 PGQ851957:PGQ851966 PQM851957:PQM851966 QAI851957:QAI851966 QKE851957:QKE851966 QUA851957:QUA851966 RDW851957:RDW851966 RNS851957:RNS851966 RXO851957:RXO851966 SHK851957:SHK851966 SRG851957:SRG851966 TBC851957:TBC851966 TKY851957:TKY851966 TUU851957:TUU851966 UEQ851957:UEQ851966 UOM851957:UOM851966 UYI851957:UYI851966 VIE851957:VIE851966 VSA851957:VSA851966 WBW851957:WBW851966 WLS851957:WLS851966 WVO851957:WVO851966 G917493:G917502 JC917493:JC917502 SY917493:SY917502 ACU917493:ACU917502 AMQ917493:AMQ917502 AWM917493:AWM917502 BGI917493:BGI917502 BQE917493:BQE917502 CAA917493:CAA917502 CJW917493:CJW917502 CTS917493:CTS917502 DDO917493:DDO917502 DNK917493:DNK917502 DXG917493:DXG917502 EHC917493:EHC917502 EQY917493:EQY917502 FAU917493:FAU917502 FKQ917493:FKQ917502 FUM917493:FUM917502 GEI917493:GEI917502 GOE917493:GOE917502 GYA917493:GYA917502 HHW917493:HHW917502 HRS917493:HRS917502 IBO917493:IBO917502 ILK917493:ILK917502 IVG917493:IVG917502 JFC917493:JFC917502 JOY917493:JOY917502 JYU917493:JYU917502 KIQ917493:KIQ917502 KSM917493:KSM917502 LCI917493:LCI917502 LME917493:LME917502 LWA917493:LWA917502 MFW917493:MFW917502 MPS917493:MPS917502 MZO917493:MZO917502 NJK917493:NJK917502 NTG917493:NTG917502 ODC917493:ODC917502 OMY917493:OMY917502 OWU917493:OWU917502 PGQ917493:PGQ917502 PQM917493:PQM917502 QAI917493:QAI917502 QKE917493:QKE917502 QUA917493:QUA917502 RDW917493:RDW917502 RNS917493:RNS917502 RXO917493:RXO917502 SHK917493:SHK917502 SRG917493:SRG917502 TBC917493:TBC917502 TKY917493:TKY917502 TUU917493:TUU917502 UEQ917493:UEQ917502 UOM917493:UOM917502 UYI917493:UYI917502 VIE917493:VIE917502 VSA917493:VSA917502 WBW917493:WBW917502 WLS917493:WLS917502 WVO917493:WVO917502 G983029:G983038 JC983029:JC983038 SY983029:SY983038 ACU983029:ACU983038 AMQ983029:AMQ983038 AWM983029:AWM983038 BGI983029:BGI983038 BQE983029:BQE983038 CAA983029:CAA983038 CJW983029:CJW983038 CTS983029:CTS983038 DDO983029:DDO983038 DNK983029:DNK983038 DXG983029:DXG983038 EHC983029:EHC983038 EQY983029:EQY983038 FAU983029:FAU983038 FKQ983029:FKQ983038 FUM983029:FUM983038 GEI983029:GEI983038 GOE983029:GOE983038 GYA983029:GYA983038 HHW983029:HHW983038 HRS983029:HRS983038 IBO983029:IBO983038 ILK983029:ILK983038 IVG983029:IVG983038 JFC983029:JFC983038 JOY983029:JOY983038 JYU983029:JYU983038 KIQ983029:KIQ983038 KSM983029:KSM983038 LCI983029:LCI983038 LME983029:LME983038 LWA983029:LWA983038 MFW983029:MFW983038 MPS983029:MPS983038 MZO983029:MZO983038 NJK983029:NJK983038 NTG983029:NTG983038 ODC983029:ODC983038 OMY983029:OMY983038 OWU983029:OWU983038 PGQ983029:PGQ983038 PQM983029:PQM983038 QAI983029:QAI983038 QKE983029:QKE983038 QUA983029:QUA983038 RDW983029:RDW983038 RNS983029:RNS983038 RXO983029:RXO983038 SHK983029:SHK983038 SRG983029:SRG983038 TBC983029:TBC983038 TKY983029:TKY983038 TUU983029:TUU983038 UEQ983029:UEQ983038 UOM983029:UOM983038 UYI983029:UYI983038 VIE983029:VIE983038 VSA983029:VSA983038 WBW983029:WBW983038 WLS983029:WLS983038 WVO983029:WVO983038 WVO11:WVO17 K11:K17 JG11:JG17 TC11:TC17 ACY11:ACY17 AMU11:AMU17 AWQ11:AWQ17 BGM11:BGM17 BQI11:BQI17 CAE11:CAE17 CKA11:CKA17 CTW11:CTW17 DDS11:DDS17 DNO11:DNO17 DXK11:DXK17 EHG11:EHG17 ERC11:ERC17 FAY11:FAY17 FKU11:FKU17 FUQ11:FUQ17 GEM11:GEM17 GOI11:GOI17 GYE11:GYE17 HIA11:HIA17 HRW11:HRW17 IBS11:IBS17 ILO11:ILO17 IVK11:IVK17 JFG11:JFG17 JPC11:JPC17 JYY11:JYY17 KIU11:KIU17 KSQ11:KSQ17 LCM11:LCM17 LMI11:LMI17 LWE11:LWE17 MGA11:MGA17 MPW11:MPW17 MZS11:MZS17 NJO11:NJO17 NTK11:NTK17 ODG11:ODG17 ONC11:ONC17 OWY11:OWY17 PGU11:PGU17 PQQ11:PQQ17 QAM11:QAM17 QKI11:QKI17 QUE11:QUE17 REA11:REA17 RNW11:RNW17 RXS11:RXS17 SHO11:SHO17 SRK11:SRK17 TBG11:TBG17 TLC11:TLC17 TUY11:TUY17 UEU11:UEU17 UOQ11:UOQ17 UYM11:UYM17 VII11:VII17 VSE11:VSE17 WCA11:WCA17 WLW11:WLW17 WVS11:WVS17 G11:G17 JC11:JC17 SY11:SY17 ACU11:ACU17 AMQ11:AMQ17 AWM11:AWM17 BGI11:BGI17 BQE11:BQE17 CAA11:CAA17 CJW11:CJW17 CTS11:CTS17 DDO11:DDO17 DNK11:DNK17 DXG11:DXG17 EHC11:EHC17 EQY11:EQY17 FAU11:FAU17 FKQ11:FKQ17 FUM11:FUM17 GEI11:GEI17 GOE11:GOE17 GYA11:GYA17 HHW11:HHW17 HRS11:HRS17 IBO11:IBO17 ILK11:ILK17 IVG11:IVG17 JFC11:JFC17 JOY11:JOY17 JYU11:JYU17 KIQ11:KIQ17 KSM11:KSM17 LCI11:LCI17 LME11:LME17 LWA11:LWA17 MFW11:MFW17 MPS11:MPS17 MZO11:MZO17 NJK11:NJK17 NTG11:NTG17 ODC11:ODC17 OMY11:OMY17 OWU11:OWU17 PGQ11:PGQ17 PQM11:PQM17 QAI11:QAI17 QKE11:QKE17 QUA11:QUA17 RDW11:RDW17 RNS11:RNS17 RXO11:RXO17 SHK11:SHK17 SRG11:SRG17 TBC11:TBC17 TKY11:TKY17 TUU11:TUU17 UEQ11:UEQ17 UOM11:UOM17 UYI11:UYI17 VIE11:VIE17 VSA11:VSA17 WBW11:WBW17 WLS11:WLS17" xr:uid="{E161802E-B59F-490F-A3E5-9D3B9DBC24AC}">
       <formula1>"Pass,Fail,NA"</formula1>
     </dataValidation>
   </dataValidations>
